--- a/DriveSummaryPython.xlsx
+++ b/DriveSummaryPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveDashboardPython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_DA39029DC6B1C53613CB09DD21CE172C5C824D09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72EA6F94-D0B4-40D6-B4D2-20E35C8DEE1F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_DA393215BE7DC4D5877D6BC0435F12371CE042DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B37FFF26-4627-478F-AE38-7E613E9F8E2B}"/>
   <bookViews>
-    <workbookView xWindow="-4140" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stefan" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
   <si>
     <t>Description</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Report Date</t>
-  </si>
-  <si>
-    <t>2025/05/30</t>
   </si>
   <si>
     <t>Last Month's Status</t>
@@ -572,7 +569,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,26 +762,18 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Blue" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -2809,23 +2798,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
-<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
-  <bag type="Checkbox"/>
-  <bag type="XFControls">
-    <bagId k="CellControl">0</bagId>
-  </bag>
-  <bag type="XFComplement">
-    <bagId k="XFControls">1</bagId>
-  </bag>
-  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-</FeaturePropertyBags>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3262,8 +3234,8 @@
   </sheetPr>
   <dimension ref="B2:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,29 +3258,29 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="28" width="8.85546875" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="32" width="8.85546875" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="str">
+      <c r="B2" s="69" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
         <v>Drive Summary Stefan May 2025</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="71"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -3320,7 +3292,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>May 2025</v>
+        <v>June 2025</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>
@@ -3328,21 +3300,21 @@
       <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="66" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="68"/>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
       <c r="R5" s="68"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -3357,11 +3329,11 @@
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1572.799</v>
+        <v>1614.9259999999999</v>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1492</v>
+        <v>1542</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>8</v>
@@ -3407,11 +3379,11 @@
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>1625.2256333333335</v>
+        <v>1614.9259999999999</v>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1541.7333333333333</v>
+        <v>1542</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
@@ -3455,11 +3427,11 @@
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>52.426633333333335</v>
+        <v>52.094387096774192</v>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>49.733333333333334</v>
+        <v>49.741935483870968</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>21</v>
@@ -3506,13 +3478,13 @@
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="6">
-        <v>1572.799</v>
+        <v>1614.9259999999999</v>
       </c>
       <c r="L9" s="11">
         <v>600</v>
@@ -3575,7 +3547,7 @@
         <f>SUM(C6:C10)</f>
         <v>2650</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="66" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="68"/>
@@ -3644,7 +3616,7 @@
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="72" t="b">
+      <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -3681,8 +3653,8 @@
       <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="58" t="s">
-        <v>31</v>
+      <c r="J14" s="58">
+        <v>45808</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
@@ -3693,11 +3665,11 @@
       <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="N15" s="67" t="str">
+      <c r="N15" s="66" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
         <v>Distance Points for Diamond</v>
       </c>
-      <c r="O15" s="69"/>
+      <c r="O15" s="67"/>
       <c r="P15" s="68"/>
       <c r="V15" s="9"/>
       <c r="AA15" s="3"/>
@@ -3722,7 +3694,7 @@
     </row>
     <row r="17" spans="9:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>15</v>
@@ -3742,9 +3714,11 @@
     </row>
     <row r="18" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="J18" s="1">
+        <v>50</v>
+      </c>
       <c r="N18" s="1">
         <v>300</v>
       </c>
@@ -3767,8 +3741,8 @@
       </c>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="67" t="s">
-        <v>34</v>
+      <c r="I20" s="66" t="s">
+        <v>33</v>
       </c>
       <c r="J20" s="68"/>
       <c r="N20" s="1">
@@ -3819,11 +3793,11 @@
     </row>
     <row r="23" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I23" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N23" s="1">
         <v>1800</v>
@@ -3837,32 +3811,32 @@
     </row>
     <row r="24" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I24" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I25" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
         <v>150</v>
       </c>
-      <c r="M25" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
+      <c r="M25" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
       <c r="Q25" s="68"/>
     </row>
     <row r="26" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I26" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
@@ -3875,18 +3849,18 @@
         <v>10</v>
       </c>
       <c r="O26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P26" s="16" t="s">
+      <c r="Q26" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I27" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
@@ -3905,12 +3879,12 @@
         <v>0.05</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I28" s="62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
@@ -3929,12 +3903,12 @@
         <v>0.1</v>
       </c>
       <c r="Q28" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I29" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="61">
         <f>J8</f>
@@ -3953,12 +3927,12 @@
         <v>0.2</v>
       </c>
       <c r="Q29" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I30" s="60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
@@ -3977,16 +3951,16 @@
         <v>0.35</v>
       </c>
       <c r="Q30" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I31" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M31" s="47">
         <v>2500</v>
@@ -4001,16 +3975,16 @@
         <v>0.5</v>
       </c>
       <c r="Q31" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I32" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>1292</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.25">
@@ -4019,28 +3993,28 @@
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1492</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2642</v>
+        <v>2692</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
     <cfRule type="expression" dxfId="29" priority="1">
@@ -4099,8 +4073,8 @@
   </sheetPr>
   <dimension ref="B2:AC34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,39 +4087,39 @@
     <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="9.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="9.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
+    <col min="12" max="14" width="9.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="9.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="28" width="8.85546875" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="32" width="8.85546875" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="str">
+      <c r="B2" s="69" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
         <v>Drive Summary Christiaan May 2025</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="71"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -4157,7 +4131,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>May 2025</v>
+        <v>June 2025</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>
@@ -4165,21 +4139,21 @@
       <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="66" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="68"/>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
       <c r="R5" s="68"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -4194,17 +4168,17 @@
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1500</v>
+        <v>1496.702</v>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1392</v>
+        <v>1550</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>9</v>
@@ -4244,17 +4218,17 @@
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>1660.7142857142856</v>
+        <v>1496.702</v>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1541.1428571428571</v>
+        <v>1550</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L7" s="11">
         <v>0</v>
@@ -4285,24 +4259,24 @@
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>53.571428571428569</v>
+        <v>48.280709677419352</v>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>49.714285714285715</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L8" s="11">
         <v>300</v>
@@ -4332,24 +4306,24 @@
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="63" t="str">
+      <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>Unlimited</v>
+        <v>302.298</v>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="1">
-        <v>1500</v>
+        <v>1496.702</v>
       </c>
       <c r="L9" s="11">
         <v>600</v>
@@ -4410,9 +4384,9 @@
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2650</v>
-      </c>
-      <c r="I11" s="67" t="s">
+        <v>2682</v>
+      </c>
+      <c r="I11" s="66" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="68"/>
@@ -4481,14 +4455,14 @@
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="72" t="b">
+      <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" s="12">
         <v>1800</v>
@@ -4519,7 +4493,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="58">
-        <v>45805</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
@@ -4530,11 +4504,11 @@
       <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="N15" s="67" t="str">
+      <c r="N15" s="66" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
         <v>Distance Points for Diamond</v>
       </c>
-      <c r="O15" s="69"/>
+      <c r="O15" s="67"/>
       <c r="P15" s="68"/>
       <c r="V15" s="9"/>
       <c r="AA15" s="3"/>
@@ -4559,7 +4533,7 @@
     </row>
     <row r="17" spans="9:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>15</v>
@@ -4579,7 +4553,7 @@
     </row>
     <row r="18" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I18" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1"/>
       <c r="N18" s="1">
@@ -4604,8 +4578,8 @@
       </c>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="67" t="s">
-        <v>34</v>
+      <c r="I20" s="66" t="s">
+        <v>33</v>
       </c>
       <c r="J20" s="68"/>
       <c r="N20" s="1">
@@ -4656,11 +4630,11 @@
     </row>
     <row r="23" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I23" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N23" s="1">
         <v>1800</v>
@@ -4674,36 +4648,36 @@
     </row>
     <row r="24" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I24" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I25" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>150</v>
-      </c>
-      <c r="M25" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
+        <v>182</v>
+      </c>
+      <c r="M25" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
       <c r="Q25" s="68"/>
     </row>
     <row r="26" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I26" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>9</v>
@@ -4712,22 +4686,22 @@
         <v>10</v>
       </c>
       <c r="O26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P26" s="16" t="s">
+      <c r="Q26" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I27" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="M27" s="34">
         <v>0</v>
@@ -4742,12 +4716,12 @@
         <v>0.05</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I28" s="62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
@@ -4766,16 +4740,16 @@
         <v>0.1</v>
       </c>
       <c r="Q28" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I29" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M29" s="40">
         <v>1600</v>
@@ -4790,16 +4764,16 @@
         <v>0.2</v>
       </c>
       <c r="Q29" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I30" s="60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M30" s="43">
         <v>2200</v>
@@ -4814,16 +4788,16 @@
         <v>0.35</v>
       </c>
       <c r="Q30" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I31" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M31" s="47">
         <v>2500</v>
@@ -4838,16 +4812,16 @@
         <v>0.5</v>
       </c>
       <c r="Q31" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I32" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>1192</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.25">
@@ -4856,28 +4830,28 @@
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1392</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2542</v>
+        <v>2732</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
     <cfRule type="expression" dxfId="19" priority="1">
@@ -4960,29 +4934,29 @@
     <col min="19" max="19" width="2.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="28" width="8.85546875" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="32" width="8.85546875" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="str">
+      <c r="B2" s="69" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
         <v>Drive Summary Derrick May 2025</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="71"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -4994,7 +4968,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>May 2025</v>
+        <v>June 2025</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>
@@ -5002,21 +4976,21 @@
       <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="66" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="68"/>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
       <c r="R5" s="68"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -5249,7 +5223,7 @@
         <f>SUM(C6:C10)</f>
         <v>2650</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="66" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="68"/>
@@ -5318,14 +5292,14 @@
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="72" t="b">
+      <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="12">
         <v>1800</v>
@@ -5367,11 +5341,11 @@
       <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="N15" s="67" t="str">
+      <c r="N15" s="66" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
         <v>Distance Points for Diamond</v>
       </c>
-      <c r="O15" s="69"/>
+      <c r="O15" s="67"/>
       <c r="P15" s="68"/>
       <c r="V15" s="9"/>
       <c r="AA15" s="3"/>
@@ -5396,7 +5370,7 @@
     </row>
     <row r="17" spans="9:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>15</v>
@@ -5416,7 +5390,7 @@
     </row>
     <row r="18" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I18" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1"/>
       <c r="N18" s="1">
@@ -5441,8 +5415,8 @@
       </c>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="67" t="s">
-        <v>34</v>
+      <c r="I20" s="66" t="s">
+        <v>33</v>
       </c>
       <c r="J20" s="68"/>
       <c r="N20" s="1">
@@ -5493,7 +5467,7 @@
     </row>
     <row r="23" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I23" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
@@ -5511,7 +5485,7 @@
     </row>
     <row r="24" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I24" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
@@ -5520,23 +5494,23 @@
     </row>
     <row r="25" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I25" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
         <v>150</v>
       </c>
-      <c r="M25" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
+      <c r="M25" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
       <c r="Q25" s="68"/>
     </row>
     <row r="26" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I26" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
@@ -5549,18 +5523,18 @@
         <v>10</v>
       </c>
       <c r="O26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P26" s="16" t="s">
+      <c r="Q26" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I27" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
@@ -5579,12 +5553,12 @@
         <v>0.05</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I28" s="62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
@@ -5603,12 +5577,12 @@
         <v>0.1</v>
       </c>
       <c r="Q28" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I29" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="61">
         <f>J8</f>
@@ -5627,12 +5601,12 @@
         <v>0.2</v>
       </c>
       <c r="Q29" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I30" s="60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
@@ -5651,12 +5625,12 @@
         <v>0.35</v>
       </c>
       <c r="Q30" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I31" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
@@ -5675,12 +5649,12 @@
         <v>0.5</v>
       </c>
       <c r="Q31" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I32" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
@@ -5698,7 +5672,7 @@
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
@@ -5707,14 +5681,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/DriveSummaryPython.xlsx
+++ b/DriveSummaryPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveDashboardPython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_DA393215BE7DC4D5877D6BC0435F12371CE042DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B37FFF26-4627-478F-AE38-7E613E9F8E2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_DB39829FABD98605447DF927DA0E9D26FCE77716" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3235,7 +3235,7 @@
   <dimension ref="B2:AC34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,8 +3258,8 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="32" width="8.85546875" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="35" width="8.85546875" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4073,8 +4073,8 @@
   </sheetPr>
   <dimension ref="B2:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4097,8 +4097,8 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="32" width="8.85546875" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="35" width="8.85546875" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4322,7 +4322,7 @@
       <c r="I9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="6">
         <v>1496.702</v>
       </c>
       <c r="L9" s="11">
@@ -4934,8 +4934,8 @@
     <col min="19" max="19" width="2.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="32" width="8.85546875" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="35" width="8.85546875" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">

--- a/DriveSummaryPython.xlsx
+++ b/DriveSummaryPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveDashboardPython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_DB39829FABD98605447DF927DA0E9D26FCE77716" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_DB39A21BDCEDA61A4B79CEEBDA3F1E6484467017" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stefan" sheetId="1" r:id="rId1"/>
@@ -3234,7 +3234,7 @@
   </sheetPr>
   <dimension ref="B2:AC34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -3258,14 +3258,14 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="35" width="8.85546875" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="36" width="8.85546875" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="69" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v>Drive Summary Stefan May 2025</v>
+        <v>Drive Summary Stefan June 2025</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -3322,24 +3322,24 @@
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1614.9259999999999</v>
+        <v>1539.2840000000001</v>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1542</v>
+        <v>1110</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>9</v>
@@ -3379,11 +3379,11 @@
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>1614.9259999999999</v>
+        <v>2007.7617391304348</v>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1542</v>
+        <v>1447.8260869565217</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
@@ -3427,17 +3427,17 @@
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>52.094387096774192</v>
+        <v>66.925391304347826</v>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>49.741935483870968</v>
+        <v>48.260869565217391</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" s="11">
         <v>300</v>
@@ -3472,19 +3472,19 @@
       <c r="E9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="63" t="str">
+      <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>Unlimited</v>
+        <v>259.71599999999989</v>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="6">
-        <v>1614.9259999999999</v>
+        <v>1539.2840000000001</v>
       </c>
       <c r="L9" s="11">
         <v>600</v>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2650</v>
+        <v>2610</v>
       </c>
       <c r="I11" s="66" t="s">
         <v>25</v>
@@ -3654,7 +3654,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="58">
-        <v>45808</v>
+        <v>45831</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
@@ -3775,11 +3775,11 @@
     <row r="22" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I22" s="52" t="str">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v>Days May 2025</v>
+        <v>Days Jun 2025</v>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22" s="1">
         <v>1500</v>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1">
         <v>1800</v>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="9:17" x14ac:dyDescent="0.25">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="M25" s="66" t="s">
         <v>37</v>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>9</v>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="M27" s="34">
         <v>0</v>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M29" s="40">
         <v>1600</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M30" s="43">
         <v>2200</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M31" s="47">
         <v>2500</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>1342</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.25">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1542</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.25">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2692</v>
+        <v>2260</v>
       </c>
     </row>
   </sheetData>
@@ -4073,7 +4073,7 @@
   </sheetPr>
   <dimension ref="B2:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -4097,8 +4097,8 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="35" width="8.85546875" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="36" width="8.85546875" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4934,8 +4934,8 @@
     <col min="19" max="19" width="2.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="35" width="8.85546875" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="36" width="8.85546875" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">

--- a/DriveSummaryPython.xlsx
+++ b/DriveSummaryPython.xlsx
@@ -1,297 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveDashboardPython/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_DB39A21BDCEDA61A4B79CEEBDA3F1E6484467017" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Stefan" sheetId="1" r:id="rId1"/>
-    <sheet name="Christiaan" sheetId="2" r:id="rId2"/>
-    <sheet name="Derrick" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stefan" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Christiaan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Derrick" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Username">#REF!</definedName>
+    <definedName name="Username" localSheetId="0">Stefan!$J$21</definedName>
     <definedName name="Username" localSheetId="1">Christiaan!$J$21</definedName>
     <definedName name="Username" localSheetId="2">Derrick!$J$21</definedName>
-    <definedName name="Username" localSheetId="0">Stefan!$J$21</definedName>
-    <definedName name="Username">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Python Data</t>
-  </si>
-  <si>
-    <t>Distance Points</t>
-  </si>
-  <si>
-    <t>Driving Profile</t>
-  </si>
-  <si>
-    <t>Month-to-Date</t>
-  </si>
-  <si>
-    <t>Drive Penalties</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Bronze</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Diamond</t>
-  </si>
-  <si>
-    <t>Claim Free Years</t>
-  </si>
-  <si>
-    <t>End of Month</t>
-  </si>
-  <si>
-    <t>Night Penalty</t>
-  </si>
-  <si>
-    <t>Night Time Driving</t>
-  </si>
-  <si>
-    <t>Daily Average</t>
-  </si>
-  <si>
-    <t>No-Drive Days</t>
-  </si>
-  <si>
-    <t>Remaining</t>
-  </si>
-  <si>
-    <t>MultiPoint Check</t>
-  </si>
-  <si>
-    <t>Accumulated Points</t>
-  </si>
-  <si>
-    <t>Config Data</t>
-  </si>
-  <si>
-    <t>Vitality Drive Status</t>
-  </si>
-  <si>
-    <t>Predict Status</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Report Date</t>
-  </si>
-  <si>
-    <t>Last Month's Status</t>
-  </si>
-  <si>
-    <t>Points on No-Drive Day</t>
-  </si>
-  <si>
-    <t>Calculated Data</t>
-  </si>
-  <si>
-    <t>Days Past</t>
-  </si>
-  <si>
-    <t>Days Left</t>
-  </si>
-  <si>
-    <t>Rem Dist Points</t>
-  </si>
-  <si>
-    <t>Driving Status</t>
-  </si>
-  <si>
-    <t>Rem - Dist</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Fuel %</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Distance Upper Limit</t>
-  </si>
-  <si>
-    <t>#8EA9DB</t>
-  </si>
-  <si>
-    <t>#F4B084</t>
-  </si>
-  <si>
-    <t>Count No-Drive Days</t>
-  </si>
-  <si>
-    <t>#DBDBDB</t>
-  </si>
-  <si>
-    <t>No-Drive Day Points</t>
-  </si>
-  <si>
-    <t>#FFD966</t>
-  </si>
-  <si>
-    <t>Count Drive Days</t>
-  </si>
-  <si>
-    <t>#D9B3FF</t>
-  </si>
-  <si>
-    <t>Drive Day Points</t>
-  </si>
-  <si>
-    <t>Current Drive Points</t>
-  </si>
-  <si>
-    <t>Christiaan</t>
-  </si>
-  <si>
-    <t>Derrick</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$R-1C09]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="22"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="20"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="72 Monospace"/>
       <family val="3"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="8">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.09997863704336681"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.3999450666829432"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
+        <fgColor theme="5" tint="0.3999450666829432"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
+        <fgColor theme="6" tint="0.5999633777886288"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.3999450666829432"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -552,236 +362,245 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="72">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="4" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="4" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="4" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="7" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Blue" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Bronze" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Diamond" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Gold" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Silver" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Blue" xfId="1"/>
+    <cellStyle name="Bronze" xfId="2"/>
+    <cellStyle name="Silver" xfId="3"/>
+    <cellStyle name="Gold" xfId="4"/>
+    <cellStyle name="Diamond" xfId="5"/>
   </cellStyles>
   <dxfs count="115">
     <dxf>
@@ -996,16 +815,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="72 Monospace"/>
+        <family val="3"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="72 Monospace"/>
-        <family val="3"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center"/>
@@ -1024,16 +843,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1055,16 +874,48 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <name val="Calibri"/>
         <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1087,48 +938,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1179,22 +998,22 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+          <bgColor theme="2" tint="-0.09997863704336681"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1371,7 +1190,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1388,16 +1207,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="72 Monospace"/>
+        <family val="3"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="72 Monospace"/>
-        <family val="3"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center"/>
@@ -1416,16 +1235,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1447,16 +1266,48 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <name val="Calibri"/>
         <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1479,48 +1330,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1571,22 +1390,22 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+          <bgColor theme="2" tint="-0.09997863704336681"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1763,7 +1582,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1780,16 +1599,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="72 Monospace"/>
+        <family val="3"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="72 Monospace"/>
-        <family val="3"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center"/>
@@ -1808,16 +1627,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1839,16 +1658,48 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <name val="Calibri"/>
         <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1871,48 +1722,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1963,22 +1782,22 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+          <bgColor theme="2" tint="-0.09997863704336681"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -2155,7 +1974,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -2722,211 +2541,271 @@
     </dxf>
   </dxfs>
   <tableStyles count="22" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 10" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Table Style 1 10" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="113"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 11" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="Table Style 1 11" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 12" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+    <tableStyle name="Table Style 1 12" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="111"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 13" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+    <tableStyle name="Table Style 1 13" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 14" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+    <tableStyle name="Table Style 1 14" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="109"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 15" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
+    <tableStyle name="Table Style 1 15" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 16" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
+    <tableStyle name="Table Style 1 16" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="107"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 17" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
+    <tableStyle name="Table Style 1 17" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 18" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
+    <tableStyle name="Table Style 1 18" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="105"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 19" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
+    <tableStyle name="Table Style 1 19" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 2" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
+    <tableStyle name="Table Style 1 2" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="103"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 20" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
+    <tableStyle name="Table Style 1 20" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 21" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
+    <tableStyle name="Table Style 1 21" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="101"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 22" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0E000000}">
+    <tableStyle name="Table Style 1 22" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 3" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0F000000}">
+    <tableStyle name="Table Style 1 3" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="99"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 4" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF10000000}">
+    <tableStyle name="Table Style 1 4" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 5" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF11000000}">
+    <tableStyle name="Table Style 1 5" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="97"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 6" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF12000000}">
+    <tableStyle name="Table Style 1 6" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 7" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF13000000}">
+    <tableStyle name="Table Style 1 7" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="95"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 8" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF14000000}">
+    <tableStyle name="Table Style 1 8" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 9" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF15000000}">
+    <tableStyle name="Table Style 1 9" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="93"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DistancePointsStefan615" displayName="DistancePointsStefan615" ref="L6:R13" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="88">
-  <autoFilter ref="L6:R13" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DistancePointsStefan615" displayName="DistancePointsStefan615" ref="L6:R13" headerRowCount="1" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="88">
+  <autoFilter ref="L6:R13">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="5" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="6" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Lower" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Upper" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Blue" dataDxfId="85" dataCellStyle="Blue"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Bronze" dataDxfId="84" dataCellStyle="Bronze"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Silver" dataDxfId="83" dataCellStyle="Silver"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Gold" dataDxfId="82" dataCellStyle="Gold"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Diamond" dataDxfId="81" dataCellStyle="Diamond"/>
+    <tableColumn id="1" name="Lower" dataDxfId="87"/>
+    <tableColumn id="2" name="Upper" dataDxfId="86"/>
+    <tableColumn id="3" name="Blue" dataDxfId="85" dataCellStyle="Blue"/>
+    <tableColumn id="4" name="Bronze" dataDxfId="84" dataCellStyle="Bronze"/>
+    <tableColumn id="5" name="Silver" dataDxfId="83" dataCellStyle="Silver"/>
+    <tableColumn id="6" name="Gold" dataDxfId="82" dataCellStyle="Gold"/>
+    <tableColumn id="7" name="Diamond" dataDxfId="81" dataCellStyle="Diamond"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="DrivingStatusStefan716" displayName="DrivingStatusStefan716" ref="M26:Q31" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78" totalsRowBorderDxfId="77">
-  <autoFilter ref="M26:Q31" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DrivingStatusStefan716" displayName="DrivingStatusStefan716" ref="M26:Q31" headerRowCount="1" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78" totalsRowBorderDxfId="77">
+  <autoFilter ref="M26:Q31">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Lower" dataDxfId="76" dataCellStyle="Silver"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Upper" dataDxfId="75" dataCellStyle="Silver"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Category" dataDxfId="74" dataCellStyle="Silver"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Fuel %" dataDxfId="73" dataCellStyle="Silver"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Color" dataDxfId="72" dataCellStyle="Silver"/>
+    <tableColumn id="1" name="Lower" dataDxfId="76" dataCellStyle="Silver"/>
+    <tableColumn id="2" name="Upper" dataDxfId="75" dataCellStyle="Silver"/>
+    <tableColumn id="3" name="Category" dataDxfId="74" dataCellStyle="Silver"/>
+    <tableColumn id="4" name="Fuel %" dataDxfId="73" dataCellStyle="Silver"/>
+    <tableColumn id="5" name="Color" dataDxfId="72" dataCellStyle="Silver"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="DistancePointsStefan4" displayName="DistancePointsStefan4" ref="L6:R13" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
-  <autoFilter ref="L6:R13" xr:uid="{00000000-0009-0000-0100-000003000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="DistancePointsStefan4" displayName="DistancePointsStefan4" ref="L6:R13" headerRowCount="1" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+  <autoFilter ref="L6:R13">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="5" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="6" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Lower" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Upper" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Blue" dataDxfId="64" dataCellStyle="Blue"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Bronze" dataDxfId="63" dataCellStyle="Bronze"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Silver" dataDxfId="62" dataCellStyle="Silver"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Gold" dataDxfId="61" dataCellStyle="Gold"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Diamond" dataDxfId="60" dataCellStyle="Diamond"/>
+    <tableColumn id="1" name="Lower" dataDxfId="66"/>
+    <tableColumn id="2" name="Upper" dataDxfId="65"/>
+    <tableColumn id="3" name="Blue" dataDxfId="64" dataCellStyle="Blue"/>
+    <tableColumn id="4" name="Bronze" dataDxfId="63" dataCellStyle="Bronze"/>
+    <tableColumn id="5" name="Silver" dataDxfId="62" dataCellStyle="Silver"/>
+    <tableColumn id="6" name="Gold" dataDxfId="61" dataCellStyle="Gold"/>
+    <tableColumn id="7" name="Diamond" dataDxfId="60" dataCellStyle="Diamond"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DrivingStatusStefan5" displayName="DrivingStatusStefan5" ref="M26:Q31" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
-  <autoFilter ref="M26:Q31" xr:uid="{00000000-0009-0000-0100-000004000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="DrivingStatusStefan5" displayName="DrivingStatusStefan5" ref="M26:Q31" headerRowCount="1" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+  <autoFilter ref="M26:Q31">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Lower" dataDxfId="55" dataCellStyle="Silver"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Upper" dataDxfId="54" dataCellStyle="Silver"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Category" dataDxfId="53" dataCellStyle="Silver"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Fuel %" dataDxfId="52" dataCellStyle="Silver"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Color" dataDxfId="51" dataCellStyle="Silver"/>
+    <tableColumn id="1" name="Lower" dataDxfId="55" dataCellStyle="Silver"/>
+    <tableColumn id="2" name="Upper" dataDxfId="54" dataCellStyle="Silver"/>
+    <tableColumn id="3" name="Category" dataDxfId="53" dataCellStyle="Silver"/>
+    <tableColumn id="4" name="Fuel %" dataDxfId="52" dataCellStyle="Silver"/>
+    <tableColumn id="5" name="Color" dataDxfId="51" dataCellStyle="Silver"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="DistancePointsStefan2" displayName="DistancePointsStefan2" ref="L6:R13" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
-  <autoFilter ref="L6:R13" xr:uid="{00000000-0009-0000-0100-000005000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="DistancePointsStefan2" displayName="DistancePointsStefan2" ref="L6:R13" headerRowCount="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
+  <autoFilter ref="L6:R13">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="5" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="6" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Lower" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Upper" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Blue" dataDxfId="43" dataCellStyle="Blue"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Bronze" dataDxfId="42" dataCellStyle="Bronze"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Silver" dataDxfId="41" dataCellStyle="Silver"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Gold" dataDxfId="40" dataCellStyle="Gold"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Diamond" dataDxfId="39" dataCellStyle="Diamond"/>
+    <tableColumn id="1" name="Lower" dataDxfId="45"/>
+    <tableColumn id="2" name="Upper" dataDxfId="44"/>
+    <tableColumn id="3" name="Blue" dataDxfId="43" dataCellStyle="Blue"/>
+    <tableColumn id="4" name="Bronze" dataDxfId="42" dataCellStyle="Bronze"/>
+    <tableColumn id="5" name="Silver" dataDxfId="41" dataCellStyle="Silver"/>
+    <tableColumn id="6" name="Gold" dataDxfId="40" dataCellStyle="Gold"/>
+    <tableColumn id="7" name="Diamond" dataDxfId="39" dataCellStyle="Diamond"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="DrivingStatusStefan3" displayName="DrivingStatusStefan3" ref="M26:Q31" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
-  <autoFilter ref="M26:Q31" xr:uid="{00000000-0009-0000-0100-000006000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="DrivingStatusStefan3" displayName="DrivingStatusStefan3" ref="M26:Q31" headerRowCount="1" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="M26:Q31">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Lower" dataDxfId="34" dataCellStyle="Silver"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Upper" dataDxfId="33" dataCellStyle="Silver"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Category" dataDxfId="32" dataCellStyle="Silver"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Fuel %" dataDxfId="31" dataCellStyle="Silver"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Color" dataDxfId="30" dataCellStyle="Silver"/>
+    <tableColumn id="1" name="Lower" dataDxfId="34" dataCellStyle="Silver"/>
+    <tableColumn id="2" name="Upper" dataDxfId="33" dataCellStyle="Silver"/>
+    <tableColumn id="3" name="Category" dataDxfId="32" dataCellStyle="Silver"/>
+    <tableColumn id="4" name="Fuel %" dataDxfId="31" dataCellStyle="Silver"/>
+    <tableColumn id="5" name="Color" dataDxfId="30" dataCellStyle="Silver"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3228,8 +3107,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet10">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AC34"/>
@@ -3238,837 +3118,974 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
-    <col min="12" max="14" width="9.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="9.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
-    <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="36" width="8.85546875" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="8.85546875" style="2"/>
+    <col width="2.7109375" customWidth="1" style="70" min="1" max="1"/>
+    <col width="25.140625" bestFit="1" customWidth="1" style="70" min="2" max="2"/>
+    <col width="9.7109375" customWidth="1" style="70" min="3" max="3"/>
+    <col width="2.7109375" customWidth="1" style="70" min="4" max="4"/>
+    <col width="16.140625" customWidth="1" style="71" min="5" max="5"/>
+    <col width="11.140625" bestFit="1" customWidth="1" style="70" min="6" max="6"/>
+    <col width="9.7109375" customWidth="1" style="70" min="7" max="7"/>
+    <col width="2.7109375" customWidth="1" style="70" min="8" max="8"/>
+    <col width="22.42578125" customWidth="1" style="70" min="9" max="9"/>
+    <col width="10.7109375" customWidth="1" style="70" min="10" max="10"/>
+    <col width="2.7109375" customWidth="1" style="70" min="11" max="11"/>
+    <col width="9.7109375" customWidth="1" style="70" min="12" max="14"/>
+    <col width="10.5703125" customWidth="1" style="70" min="15" max="15"/>
+    <col width="9.7109375" customWidth="1" style="70" min="16" max="17"/>
+    <col width="11.42578125" customWidth="1" style="70" min="18" max="18"/>
+    <col width="2.7109375" customWidth="1" style="70" min="19" max="19"/>
+    <col width="9.7109375" customWidth="1" style="5" min="20" max="20"/>
+    <col width="9.7109375" customWidth="1" style="70" min="21" max="23"/>
+    <col width="8.85546875" customWidth="1" style="70" min="24" max="36"/>
+    <col width="8.85546875" customWidth="1" style="70" min="37" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="str">
+    <row r="2" ht="14.45" customHeight="1" s="71">
+      <c r="B2" s="69">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v>Drive Summary Stefan June 2025</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14" t="str">
-        <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>June 2025</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="68"/>
-      <c r="L5" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="68"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v/>
+      </c>
+      <c r="H2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="14.45" customHeight="1" s="71">
+      <c r="H3" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="E5" s="14">
+        <f>TEXT(TODAY(), "mmmm yyyy")</f>
+        <v/>
+      </c>
+      <c r="F5" s="14" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="G5" s="66" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="I5" s="66" t="inlineStr">
+        <is>
+          <t>Python Data</t>
+        </is>
+      </c>
+      <c r="J5" s="68" t="n"/>
+      <c r="L5" s="66" t="inlineStr">
+        <is>
+          <t>Distance Points</t>
+        </is>
+      </c>
+      <c r="M5" s="67" t="n"/>
+      <c r="N5" s="67" t="n"/>
+      <c r="O5" s="67" t="n"/>
+      <c r="P5" s="67" t="n"/>
+      <c r="Q5" s="67" t="n"/>
+      <c r="R5" s="68" t="n"/>
+      <c r="AB5" s="70" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Driving Profile</t>
+        </is>
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v>1460</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v/>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Month-to-Date</t>
+        </is>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1539.2840000000001</v>
+        <v/>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1110</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1">
-        <v>40</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v/>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>Drive Penalties</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="L6" s="66" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="M6" s="66" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="N6" s="18" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="O6" s="19" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="P6" s="20" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="Q6" s="21" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="R6" s="22" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="AB6" s="8" t="n"/>
+      <c r="AC6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Claim Free Years</t>
+        </is>
       </c>
       <c r="C7" s="6">
         <f>J15</f>
-        <v>300</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v/>
+      </c>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>End of Month</t>
+        </is>
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>2007.7617391304348</v>
+        <v/>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1447.8260869565217</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1">
+        <v/>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>Night Penalty</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="23" t="n">
         <v>300</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="25" t="n">
         <v>300</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="AB7" s="3"/>
-    </row>
-    <row r="8" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
+      <c r="AB7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="71" thickBot="1">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Night Time Driving</t>
+        </is>
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v>300</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
+        <v/>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>Daily Average</t>
+        </is>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>66.925391304347826</v>
+        <v/>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>48.260869565217391</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1">
+        <v/>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>No-Drive Days</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="1" t="n">
         <v>599</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="24" t="n">
         <v>150</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="26" t="n">
         <v>250</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="27" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+    <row r="9" ht="15.75" customHeight="1" s="71" thickTop="1">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Distance Points</t>
+        </is>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v>250</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="E9" s="64" t="inlineStr">
+        <is>
+          <t>Remaining</t>
+        </is>
       </c>
       <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>259.71599999999989</v>
+        <v/>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v>350</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1539.2840000000001</v>
-      </c>
-      <c r="L9" s="11">
+        <v/>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1539.284</v>
+      </c>
+      <c r="L9" s="11" t="n">
         <v>600</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="1" t="n">
         <v>899</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="23" t="n">
         <v>75</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="27" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>MultiPoint Check</t>
+        </is>
       </c>
       <c r="C10" s="6">
         <f>J16</f>
+        <v/>
+      </c>
+      <c r="E10" s="7" t="n"/>
+      <c r="L10" s="11" t="n">
+        <v>900</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="N10" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="O10" s="24" t="n">
+        <v>75</v>
+      </c>
+      <c r="P10" s="25" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="26" t="n">
+        <v>175</v>
+      </c>
+      <c r="R10" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="L10" s="11">
-        <v>900</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1199</v>
-      </c>
-      <c r="N10" s="23">
-        <v>50</v>
-      </c>
-      <c r="O10" s="24">
-        <v>75</v>
-      </c>
-      <c r="P10" s="25">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>175</v>
-      </c>
-      <c r="R10" s="27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Accumulated Points</t>
+        </is>
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2610</v>
-      </c>
-      <c r="I11" s="66" t="s">
+        <v/>
+      </c>
+      <c r="I11" s="66" t="inlineStr">
+        <is>
+          <t>Config Data</t>
+        </is>
+      </c>
+      <c r="J11" s="68" t="n"/>
+      <c r="L11" s="11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="N11" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="L11" s="11">
-        <v>1200</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1499</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="O11" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="P11" s="25" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="26" t="n">
+        <v>125</v>
+      </c>
+      <c r="R11" s="27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Vitality Drive Status</t>
+        </is>
+      </c>
+      <c r="C12" s="1">
+        <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
+        <v/>
+      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="I12" s="66" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J12" s="66" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>1799</v>
+      </c>
+      <c r="N12" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="O11" s="24">
+      <c r="P12" s="25" t="n">
         <v>50</v>
       </c>
-      <c r="P11" s="25">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>125</v>
-      </c>
-      <c r="R11" s="27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
-        <v>Diamond</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="I12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11">
-        <v>1500</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1799</v>
-      </c>
-      <c r="N12" s="23">
-        <v>10</v>
-      </c>
-      <c r="O12" s="24">
-        <v>25</v>
-      </c>
-      <c r="P12" s="25">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="27" t="n">
         <v>250</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>27</v>
+      <c r="T12" s="70" t="n"/>
+      <c r="Z12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Predict Status</t>
+        </is>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>Stefan</t>
+        </is>
+      </c>
+      <c r="L13" s="12" t="n">
         <v>1800</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="10" t="n">
         <v>1800</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="58">
+      <c r="Z13" s="8" t="n"/>
+      <c r="AA13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>Report Date</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n">
         <v>45831</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-      <c r="I15" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="6">
+    <row r="15">
+      <c r="D15" s="4" t="n"/>
+      <c r="I15" s="28" t="inlineStr">
+        <is>
+          <t>Claim Free Years</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="N15" s="66" t="str">
+      <c r="N15" s="66">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
-        <v>Distance Points for Diamond</v>
-      </c>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
-      <c r="V15" s="9"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="I16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="28">
+        <v/>
+      </c>
+      <c r="O15" s="67" t="n"/>
+      <c r="P15" s="68" t="n"/>
+      <c r="V15" s="9" t="n"/>
+      <c r="AA15" s="3" t="n"/>
+      <c r="AB15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="I16" s="28" t="inlineStr">
+        <is>
+          <t>MultiPoint Check</t>
+        </is>
+      </c>
+      <c r="J16" s="28" t="n">
         <v>300</v>
       </c>
-      <c r="N16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="9:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>15</v>
+      <c r="N16" s="66" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="O16" s="66" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="P16" s="66" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="14.45" customHeight="1" s="71">
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>Last Month's Status</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
       </c>
       <c r="N17" s="1">
         <f t="array" ref="N17:N23">DistancePointsStefan615[Lower]</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="O17" s="1">
         <f t="array" ref="O17:O23">DistancePointsStefan615[Upper]</f>
-        <v>299</v>
+        <v/>
       </c>
       <c r="P17" s="1">
         <f t="array" ref="P17:P23">_xlfn.XLOOKUP(J17,DistancePointsStefan615[#Headers],DistancePointsStefan615[])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>Points on No-Drive Day</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="N18" s="1" t="n">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1">
-        <v>50</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="O18" s="1">
-        <v>599</v>
-      </c>
-      <c r="P18" s="1">
+    </row>
+    <row r="19">
+      <c r="N19" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="P19" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="N19" s="1">
-        <v>600</v>
-      </c>
-      <c r="O19" s="1">
-        <v>899</v>
-      </c>
-      <c r="P19" s="1">
+    <row r="20">
+      <c r="I20" s="66" t="inlineStr">
+        <is>
+          <t>Calculated Data</t>
+        </is>
+      </c>
+      <c r="J20" s="68" t="n"/>
+      <c r="N20" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="P20" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="68"/>
-      <c r="N20" s="1">
-        <v>900</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1199</v>
-      </c>
-      <c r="P20" s="1">
+    <row r="21">
+      <c r="I21" s="66" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J21" s="66" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="P21" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1200</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1499</v>
-      </c>
-      <c r="P21" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I22" s="52" t="str">
+    <row r="22">
+      <c r="I22" s="52">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v>Days Jun 2025</v>
+        <v/>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v>30</v>
-      </c>
-      <c r="N22" s="1">
+        <v/>
+      </c>
+      <c r="N22" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="1" t="n">
         <v>1799</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="1" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I23" s="52" t="s">
-        <v>34</v>
+    <row r="23">
+      <c r="I23" s="52" t="inlineStr">
+        <is>
+          <t>Days Past</t>
+        </is>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>23</v>
-      </c>
-      <c r="N23" s="1">
+        <v/>
+      </c>
+      <c r="N23" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I24" s="51" t="s">
-        <v>35</v>
+    <row r="24">
+      <c r="I24" s="51" t="inlineStr">
+        <is>
+          <t>Days Left</t>
+        </is>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I25" s="53" t="s">
-        <v>36</v>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" s="53" t="inlineStr">
+        <is>
+          <t>Rem Dist Points</t>
+        </is>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>110</v>
-      </c>
-      <c r="M25" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="68"/>
-    </row>
-    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I26" s="55" t="s">
-        <v>38</v>
+        <v/>
+      </c>
+      <c r="M25" s="66" t="inlineStr">
+        <is>
+          <t>Driving Status</t>
+        </is>
+      </c>
+      <c r="N25" s="67" t="n"/>
+      <c r="O25" s="67" t="n"/>
+      <c r="P25" s="67" t="n"/>
+      <c r="Q25" s="68" t="n"/>
+    </row>
+    <row r="26">
+      <c r="I26" s="55" t="inlineStr">
+        <is>
+          <t>Rem - Dist</t>
+        </is>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>140</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I27" s="54" t="s">
-        <v>42</v>
+        <v/>
+      </c>
+      <c r="M26" s="66" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="N26" s="66" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="O26" s="66" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="P26" s="66" t="inlineStr">
+        <is>
+          <t>Fuel %</t>
+        </is>
+      </c>
+      <c r="Q26" s="66" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" s="54" t="inlineStr">
+        <is>
+          <t>Distance Upper Limit</t>
+        </is>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v>1799</v>
-      </c>
-      <c r="M27" s="34">
+        <v/>
+      </c>
+      <c r="M27" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="23" t="n">
         <v>799</v>
       </c>
-      <c r="O27" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="35">
+      <c r="O27" s="23" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="P27" s="35" t="n">
         <v>0.05</v>
       </c>
-      <c r="Q27" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I28" s="62" t="s">
-        <v>32</v>
+      <c r="Q27" s="36" t="inlineStr">
+        <is>
+          <t>#8EA9DB</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="I28" s="62" t="inlineStr">
+        <is>
+          <t>Points on No-Drive Day</t>
+        </is>
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
-        <v>50</v>
-      </c>
-      <c r="M28" s="37">
+        <v/>
+      </c>
+      <c r="M28" s="37" t="n">
         <v>800</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="24" t="n">
         <v>1599</v>
       </c>
-      <c r="O28" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="38">
+      <c r="O28" s="24" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="P28" s="38" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I29" s="61" t="s">
-        <v>45</v>
+      <c r="Q28" s="39" t="inlineStr">
+        <is>
+          <t>#F4B084</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="I29" s="61" t="inlineStr">
+        <is>
+          <t>Count No-Drive Days</t>
+        </is>
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="40">
+        <v/>
+      </c>
+      <c r="M29" s="40" t="n">
         <v>1600</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="25" t="n">
         <v>2199</v>
       </c>
-      <c r="O29" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" s="41">
+      <c r="O29" s="25" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="P29" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q29" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I30" s="60" t="s">
-        <v>47</v>
+      <c r="Q29" s="42" t="inlineStr">
+        <is>
+          <t>#DBDBDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="I30" s="60" t="inlineStr">
+        <is>
+          <t>No-Drive Day Points</t>
+        </is>
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="43">
+        <v/>
+      </c>
+      <c r="M30" s="43" t="n">
         <v>2200</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="44" t="n">
         <v>2499</v>
       </c>
-      <c r="O30" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="P30" s="45">
+      <c r="O30" s="44" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="P30" s="45" t="n">
         <v>0.35</v>
       </c>
-      <c r="Q30" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I31" s="53" t="s">
-        <v>49</v>
+      <c r="Q30" s="46" t="inlineStr">
+        <is>
+          <t>#FFD966</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="I31" s="53" t="inlineStr">
+        <is>
+          <t>Count Drive Days</t>
+        </is>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>23</v>
-      </c>
-      <c r="M31" s="47">
+        <v/>
+      </c>
+      <c r="M31" s="47" t="n">
         <v>2500</v>
       </c>
-      <c r="N31" s="48">
+      <c r="N31" s="48" t="n">
         <v>3000</v>
       </c>
-      <c r="O31" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="P31" s="49">
+      <c r="O31" s="48" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="P31" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I32" s="54" t="s">
-        <v>51</v>
+      <c r="Q31" s="50" t="inlineStr">
+        <is>
+          <t>#D9B3FF</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="I32" s="54" t="inlineStr">
+        <is>
+          <t>Drive Day Points</t>
+        </is>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="1" t="s">
-        <v>6</v>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>Driving Profile</t>
+        </is>
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="1" t="s">
-        <v>52</v>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>Current Drive Points</t>
+        </is>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2260</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" priority="1" dxfId="4">
       <formula>$C$12="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" priority="2" dxfId="3">
       <formula>$C$12="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" priority="3" dxfId="2">
       <formula>$C$12="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" priority="4" dxfId="1">
       <formula>$C$12="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" priority="5" dxfId="0">
       <formula>$C$12="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P23">
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" priority="6" dxfId="4">
       <formula>$J$17="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" priority="7" dxfId="3">
       <formula>$J$17="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" priority="8" dxfId="2">
       <formula>$J$17="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" priority="9" dxfId="1">
       <formula>$J$17="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" priority="10" dxfId="0">
       <formula>$J$17="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket." sqref="C13" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" sqref="J18" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation sqref="C13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket."/>
+    <dataValidation sqref="J18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" type="whole">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="32" orientation="portrait"/>
+  <pageSetup orientation="portrait" scale="32"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet9">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AC34"/>
@@ -4077,835 +4094,972 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
-    <col min="12" max="14" width="9.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="9.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
-    <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="36" width="8.85546875" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="8.85546875" style="2"/>
+    <col width="2.7109375" customWidth="1" style="70" min="1" max="1"/>
+    <col width="25.140625" bestFit="1" customWidth="1" style="70" min="2" max="2"/>
+    <col width="9.7109375" customWidth="1" style="70" min="3" max="3"/>
+    <col width="2.7109375" customWidth="1" style="70" min="4" max="4"/>
+    <col width="16.140625" customWidth="1" style="71" min="5" max="5"/>
+    <col width="11.140625" bestFit="1" customWidth="1" style="70" min="6" max="6"/>
+    <col width="9.7109375" customWidth="1" style="70" min="7" max="7"/>
+    <col width="2.7109375" customWidth="1" style="70" min="8" max="8"/>
+    <col width="22.42578125" customWidth="1" style="70" min="9" max="9"/>
+    <col width="10.7109375" customWidth="1" style="70" min="10" max="10"/>
+    <col width="2.7109375" customWidth="1" style="70" min="11" max="11"/>
+    <col width="9.7109375" customWidth="1" style="70" min="12" max="14"/>
+    <col width="10.5703125" customWidth="1" style="70" min="15" max="15"/>
+    <col width="9.7109375" customWidth="1" style="70" min="16" max="17"/>
+    <col width="11.42578125" customWidth="1" style="70" min="18" max="18"/>
+    <col width="2.7109375" customWidth="1" style="70" min="19" max="19"/>
+    <col width="9.7109375" customWidth="1" style="5" min="20" max="20"/>
+    <col width="9.7109375" customWidth="1" style="70" min="21" max="23"/>
+    <col width="8.85546875" customWidth="1" style="70" min="24" max="36"/>
+    <col width="8.85546875" customWidth="1" style="70" min="37" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="str">
+    <row r="2" ht="14.45" customHeight="1" s="71">
+      <c r="B2" s="69">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v>Drive Summary Christiaan May 2025</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14" t="str">
-        <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>June 2025</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="68"/>
-      <c r="L5" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="68"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v/>
+      </c>
+      <c r="H2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="14.45" customHeight="1" s="71">
+      <c r="H3" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="E5" s="14">
+        <f>TEXT(TODAY(), "mmmm yyyy")</f>
+        <v/>
+      </c>
+      <c r="F5" s="14" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="G5" s="66" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="I5" s="66" t="inlineStr">
+        <is>
+          <t>Python Data</t>
+        </is>
+      </c>
+      <c r="J5" s="68" t="n"/>
+      <c r="L5" s="66" t="inlineStr">
+        <is>
+          <t>Distance Points</t>
+        </is>
+      </c>
+      <c r="M5" s="67" t="n"/>
+      <c r="N5" s="67" t="n"/>
+      <c r="O5" s="67" t="n"/>
+      <c r="P5" s="67" t="n"/>
+      <c r="Q5" s="67" t="n"/>
+      <c r="R5" s="68" t="n"/>
+      <c r="AB5" s="70" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Driving Profile</t>
+        </is>
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v>1500</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v/>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Month-to-Date</t>
+        </is>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1496.702</v>
+        <v/>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1550</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1">
+        <v/>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>Drive Penalties</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
+      <c r="L6" s="66" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="M6" s="66" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="N6" s="18" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="O6" s="19" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="P6" s="20" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="Q6" s="21" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="R6" s="22" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="AB6" s="8" t="n"/>
+      <c r="AC6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Claim Free Years</t>
+        </is>
       </c>
       <c r="C7" s="6">
         <f>J15</f>
-        <v>300</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v/>
+      </c>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>End of Month</t>
+        </is>
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>1496.702</v>
+        <v/>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1550</v>
-      </c>
-      <c r="I7" s="1" t="s">
+        <v/>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>Night Penalty</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="J7" s="1">
-        <v>18</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="L7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="23" t="n">
         <v>300</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="25" t="n">
         <v>300</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="AB7" s="3"/>
-    </row>
-    <row r="8" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
+      <c r="AB7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="71" thickBot="1">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Night Time Driving</t>
+        </is>
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v>282</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
+        <v/>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>Daily Average</t>
+        </is>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>48.280709677419352</v>
+        <v/>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>50</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1">
+        <v/>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>No-Drive Days</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="1" t="n">
         <v>599</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="24" t="n">
         <v>150</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="26" t="n">
         <v>250</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="27" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+    <row r="9" ht="15.75" customHeight="1" s="71" thickTop="1">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Distance Points</t>
+        </is>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v>300</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="E9" s="64" t="inlineStr">
+        <is>
+          <t>Remaining</t>
+        </is>
       </c>
       <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>302.298</v>
+        <v/>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="6">
+        <v/>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="n">
         <v>1496.702</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="11" t="n">
         <v>600</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="1" t="n">
         <v>899</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="23" t="n">
         <v>75</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="27" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>MultiPoint Check</t>
+        </is>
       </c>
       <c r="C10" s="6">
         <f>J16</f>
+        <v/>
+      </c>
+      <c r="E10" s="7" t="n"/>
+      <c r="L10" s="11" t="n">
+        <v>900</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="N10" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="O10" s="24" t="n">
+        <v>75</v>
+      </c>
+      <c r="P10" s="25" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="26" t="n">
+        <v>175</v>
+      </c>
+      <c r="R10" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="L10" s="11">
-        <v>900</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1199</v>
-      </c>
-      <c r="N10" s="23">
-        <v>50</v>
-      </c>
-      <c r="O10" s="24">
-        <v>75</v>
-      </c>
-      <c r="P10" s="25">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>175</v>
-      </c>
-      <c r="R10" s="27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Accumulated Points</t>
+        </is>
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2682</v>
-      </c>
-      <c r="I11" s="66" t="s">
+        <v/>
+      </c>
+      <c r="I11" s="66" t="inlineStr">
+        <is>
+          <t>Config Data</t>
+        </is>
+      </c>
+      <c r="J11" s="68" t="n"/>
+      <c r="L11" s="11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="N11" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="L11" s="11">
-        <v>1200</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1499</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="O11" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="P11" s="25" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="26" t="n">
+        <v>125</v>
+      </c>
+      <c r="R11" s="27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Vitality Drive Status</t>
+        </is>
+      </c>
+      <c r="C12" s="1">
+        <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
+        <v/>
+      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="I12" s="66" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J12" s="66" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>1799</v>
+      </c>
+      <c r="N12" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="O11" s="24">
+      <c r="P12" s="25" t="n">
         <v>50</v>
       </c>
-      <c r="P11" s="25">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>125</v>
-      </c>
-      <c r="R11" s="27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
-        <v>Diamond</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="I12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11">
-        <v>1500</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1799</v>
-      </c>
-      <c r="N12" s="23">
-        <v>10</v>
-      </c>
-      <c r="O12" s="24">
-        <v>25</v>
-      </c>
-      <c r="P12" s="25">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="27" t="n">
         <v>250</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>27</v>
+      <c r="T12" s="70" t="n"/>
+      <c r="Z12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Predict Status</t>
+        </is>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>Christiaan</t>
+        </is>
+      </c>
+      <c r="L13" s="12" t="n">
         <v>1800</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="10" t="n">
         <v>1800</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="58">
+      <c r="Z13" s="8" t="n"/>
+      <c r="AA13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>Report Date</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n">
         <v>45808</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-      <c r="I15" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="6">
+    <row r="15">
+      <c r="D15" s="4" t="n"/>
+      <c r="I15" s="28" t="inlineStr">
+        <is>
+          <t>Claim Free Years</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="N15" s="66" t="str">
+      <c r="N15" s="66">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
-        <v>Distance Points for Diamond</v>
-      </c>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
-      <c r="V15" s="9"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="I16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="28">
+        <v/>
+      </c>
+      <c r="O15" s="67" t="n"/>
+      <c r="P15" s="68" t="n"/>
+      <c r="V15" s="9" t="n"/>
+      <c r="AA15" s="3" t="n"/>
+      <c r="AB15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="I16" s="28" t="inlineStr">
+        <is>
+          <t>MultiPoint Check</t>
+        </is>
+      </c>
+      <c r="J16" s="28" t="n">
         <v>300</v>
       </c>
-      <c r="N16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="9:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>15</v>
+      <c r="N16" s="66" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="O16" s="66" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="P16" s="66" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="14.45" customHeight="1" s="71">
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>Last Month's Status</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
       </c>
       <c r="N17" s="1">
         <f t="array" ref="N17:N23">DistancePointsStefan4[Lower]</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="O17" s="1">
         <f t="array" ref="O17:O23">DistancePointsStefan4[Upper]</f>
-        <v>299</v>
+        <v/>
       </c>
       <c r="P17" s="1">
         <f t="array" ref="P17:P23">_xlfn.XLOOKUP(J17,DistancePointsStefan4[#Headers],DistancePointsStefan4[])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>Points on No-Drive Day</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="n"/>
+      <c r="N18" s="1" t="n">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="N18" s="1">
+      <c r="O18" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="O18" s="1">
-        <v>599</v>
-      </c>
-      <c r="P18" s="1">
+    </row>
+    <row r="19">
+      <c r="N19" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="P19" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="N19" s="1">
-        <v>600</v>
-      </c>
-      <c r="O19" s="1">
-        <v>899</v>
-      </c>
-      <c r="P19" s="1">
+    <row r="20">
+      <c r="I20" s="66" t="inlineStr">
+        <is>
+          <t>Calculated Data</t>
+        </is>
+      </c>
+      <c r="J20" s="68" t="n"/>
+      <c r="N20" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="P20" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="68"/>
-      <c r="N20" s="1">
-        <v>900</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1199</v>
-      </c>
-      <c r="P20" s="1">
+    <row r="21">
+      <c r="I21" s="66" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J21" s="66" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="P21" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1200</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1499</v>
-      </c>
-      <c r="P21" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I22" s="52" t="str">
+    <row r="22">
+      <c r="I22" s="52">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v>Days May 2025</v>
+        <v/>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v>31</v>
-      </c>
-      <c r="N22" s="1">
+        <v/>
+      </c>
+      <c r="N22" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="1" t="n">
         <v>1799</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="1" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I23" s="52" t="s">
-        <v>34</v>
+    <row r="23">
+      <c r="I23" s="52" t="inlineStr">
+        <is>
+          <t>Days Past</t>
+        </is>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>31</v>
-      </c>
-      <c r="N23" s="1">
+        <v/>
+      </c>
+      <c r="N23" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I24" s="51" t="s">
-        <v>35</v>
+    <row r="24">
+      <c r="I24" s="51" t="inlineStr">
+        <is>
+          <t>Days Left</t>
+        </is>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I25" s="53" t="s">
-        <v>36</v>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" s="53" t="inlineStr">
+        <is>
+          <t>Rem Dist Points</t>
+        </is>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>182</v>
-      </c>
-      <c r="M25" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="68"/>
-    </row>
-    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I26" s="55" t="s">
-        <v>38</v>
+        <v/>
+      </c>
+      <c r="M25" s="66" t="inlineStr">
+        <is>
+          <t>Driving Status</t>
+        </is>
+      </c>
+      <c r="N25" s="67" t="n"/>
+      <c r="O25" s="67" t="n"/>
+      <c r="P25" s="67" t="n"/>
+      <c r="Q25" s="68" t="n"/>
+    </row>
+    <row r="26">
+      <c r="I26" s="55" t="inlineStr">
+        <is>
+          <t>Rem - Dist</t>
+        </is>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>118</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I27" s="54" t="s">
-        <v>42</v>
+        <v/>
+      </c>
+      <c r="M26" s="66" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="N26" s="66" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="O26" s="66" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="P26" s="66" t="inlineStr">
+        <is>
+          <t>Fuel %</t>
+        </is>
+      </c>
+      <c r="Q26" s="66" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" s="54" t="inlineStr">
+        <is>
+          <t>Distance Upper Limit</t>
+        </is>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v>1799</v>
-      </c>
-      <c r="M27" s="34">
+        <v/>
+      </c>
+      <c r="M27" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="23" t="n">
         <v>799</v>
       </c>
-      <c r="O27" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="35">
+      <c r="O27" s="23" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="P27" s="35" t="n">
         <v>0.05</v>
       </c>
-      <c r="Q27" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I28" s="62" t="s">
-        <v>32</v>
+      <c r="Q27" s="36" t="inlineStr">
+        <is>
+          <t>#8EA9DB</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="I28" s="62" t="inlineStr">
+        <is>
+          <t>Points on No-Drive Day</t>
+        </is>
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
-        <v>50</v>
-      </c>
-      <c r="M28" s="37">
+        <v/>
+      </c>
+      <c r="M28" s="37" t="n">
         <v>800</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="24" t="n">
         <v>1599</v>
       </c>
-      <c r="O28" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="38">
+      <c r="O28" s="24" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="P28" s="38" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I29" s="61" t="s">
-        <v>45</v>
+      <c r="Q28" s="39" t="inlineStr">
+        <is>
+          <t>#F4B084</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="I29" s="61" t="inlineStr">
+        <is>
+          <t>Count No-Drive Days</t>
+        </is>
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>2</v>
-      </c>
-      <c r="M29" s="40">
+        <v/>
+      </c>
+      <c r="M29" s="40" t="n">
         <v>1600</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="25" t="n">
         <v>2199</v>
       </c>
-      <c r="O29" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" s="41">
+      <c r="O29" s="25" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="P29" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q29" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I30" s="60" t="s">
-        <v>47</v>
+      <c r="Q29" s="42" t="inlineStr">
+        <is>
+          <t>#DBDBDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="I30" s="60" t="inlineStr">
+        <is>
+          <t>No-Drive Day Points</t>
+        </is>
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>100</v>
-      </c>
-      <c r="M30" s="43">
+        <v/>
+      </c>
+      <c r="M30" s="43" t="n">
         <v>2200</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="44" t="n">
         <v>2499</v>
       </c>
-      <c r="O30" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="P30" s="45">
+      <c r="O30" s="44" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="P30" s="45" t="n">
         <v>0.35</v>
       </c>
-      <c r="Q30" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I31" s="53" t="s">
-        <v>49</v>
+      <c r="Q30" s="46" t="inlineStr">
+        <is>
+          <t>#FFD966</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="I31" s="53" t="inlineStr">
+        <is>
+          <t>Count Drive Days</t>
+        </is>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>29</v>
-      </c>
-      <c r="M31" s="47">
+        <v/>
+      </c>
+      <c r="M31" s="47" t="n">
         <v>2500</v>
       </c>
-      <c r="N31" s="48">
+      <c r="N31" s="48" t="n">
         <v>3000</v>
       </c>
-      <c r="O31" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="P31" s="49">
+      <c r="O31" s="48" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="P31" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I32" s="54" t="s">
-        <v>51</v>
+      <c r="Q31" s="50" t="inlineStr">
+        <is>
+          <t>#D9B3FF</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="I32" s="54" t="inlineStr">
+        <is>
+          <t>Drive Day Points</t>
+        </is>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="1" t="s">
-        <v>6</v>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>Driving Profile</t>
+        </is>
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="1" t="s">
-        <v>52</v>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>Current Drive Points</t>
+        </is>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2732</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" priority="1" dxfId="4">
       <formula>$C$12="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" priority="2" dxfId="3">
       <formula>$C$12="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" priority="3" dxfId="2">
       <formula>$C$12="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" priority="4" dxfId="1">
       <formula>$C$12="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" priority="5" dxfId="0">
       <formula>$C$12="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P23">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" priority="6" dxfId="4">
       <formula>$J$17="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" priority="7" dxfId="3">
       <formula>$J$17="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" priority="8" dxfId="2">
       <formula>$J$17="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" priority="9" dxfId="1">
       <formula>$J$17="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" priority="10" dxfId="0">
       <formula>$J$17="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket." sqref="C13" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" sqref="J18" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation sqref="C13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket."/>
+    <dataValidation sqref="J18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" type="whole">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="32" orientation="portrait"/>
+  <pageSetup orientation="portrait" scale="32"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AC34"/>
@@ -4914,828 +5068,964 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="9.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="9.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
-    <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="36" width="8.85546875" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="8.85546875" style="2"/>
+    <col width="2.7109375" customWidth="1" style="70" min="1" max="1"/>
+    <col width="25.140625" bestFit="1" customWidth="1" style="70" min="2" max="2"/>
+    <col width="9.7109375" customWidth="1" style="70" min="3" max="3"/>
+    <col width="2.7109375" customWidth="1" style="70" min="4" max="4"/>
+    <col width="16.140625" customWidth="1" style="71" min="5" max="5"/>
+    <col width="11.140625" bestFit="1" customWidth="1" style="70" min="6" max="6"/>
+    <col width="9.7109375" customWidth="1" style="70" min="7" max="7"/>
+    <col width="2.7109375" customWidth="1" style="70" min="8" max="8"/>
+    <col hidden="1" width="22.42578125" customWidth="1" style="70" min="9" max="9"/>
+    <col hidden="1" width="10.7109375" customWidth="1" style="70" min="10" max="10"/>
+    <col hidden="1" width="2.7109375" customWidth="1" style="70" min="11" max="11"/>
+    <col hidden="1" width="9.7109375" customWidth="1" style="70" min="12" max="14"/>
+    <col hidden="1" width="10.5703125" customWidth="1" style="70" min="15" max="15"/>
+    <col hidden="1" width="9.7109375" customWidth="1" style="70" min="16" max="17"/>
+    <col hidden="1" width="11.42578125" customWidth="1" style="70" min="18" max="18"/>
+    <col hidden="1" width="2.7109375" customWidth="1" style="70" min="19" max="19"/>
+    <col width="9.7109375" customWidth="1" style="5" min="20" max="20"/>
+    <col width="9.7109375" customWidth="1" style="70" min="21" max="23"/>
+    <col width="8.85546875" customWidth="1" style="70" min="24" max="36"/>
+    <col width="8.85546875" customWidth="1" style="70" min="37" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="str">
+    <row r="2" ht="14.45" customHeight="1" s="71">
+      <c r="B2" s="69">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v>Drive Summary Derrick May 2025</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14" t="str">
-        <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>June 2025</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="68"/>
-      <c r="L5" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="68"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v/>
+      </c>
+      <c r="H2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="14.45" customHeight="1" s="71">
+      <c r="H3" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="E5" s="14">
+        <f>TEXT(TODAY(), "mmmm yyyy")</f>
+        <v/>
+      </c>
+      <c r="F5" s="14" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="G5" s="66" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="I5" s="66" t="inlineStr">
+        <is>
+          <t>Python Data</t>
+        </is>
+      </c>
+      <c r="J5" s="68" t="n"/>
+      <c r="L5" s="66" t="inlineStr">
+        <is>
+          <t>Distance Points</t>
+        </is>
+      </c>
+      <c r="M5" s="67" t="n"/>
+      <c r="N5" s="67" t="n"/>
+      <c r="O5" s="67" t="n"/>
+      <c r="P5" s="67" t="n"/>
+      <c r="Q5" s="67" t="n"/>
+      <c r="R5" s="68" t="n"/>
+      <c r="AB5" s="70" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Driving Profile</t>
+        </is>
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v>1500</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v/>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Month-to-Date</t>
+        </is>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1500</v>
+        <v/>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1392</v>
-      </c>
-      <c r="I6" s="1" t="s">
+        <v/>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>Drive Penalties</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J6" s="1">
-        <v>8</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
+      <c r="L6" s="66" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="M6" s="66" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="N6" s="18" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="O6" s="19" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="P6" s="20" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="Q6" s="21" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="R6" s="22" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="AB6" s="8" t="n"/>
+      <c r="AC6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Claim Free Years</t>
+        </is>
       </c>
       <c r="C7" s="6">
         <f>J15</f>
-        <v>300</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v/>
+      </c>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>End of Month</t>
+        </is>
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>1660.7142857142856</v>
+        <v/>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1541.1428571428571</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1">
+        <v/>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>Night Penalty</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="23" t="n">
         <v>300</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="25" t="n">
         <v>300</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="AB7" s="3"/>
-    </row>
-    <row r="8" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
+      <c r="AB7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="71" thickBot="1">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Night Time Driving</t>
+        </is>
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v>300</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
+        <v/>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>Daily Average</t>
+        </is>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>53.571428571428569</v>
+        <v/>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>49.714285714285715</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1">
+        <v/>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>No-Drive Days</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="1" t="n">
         <v>599</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="24" t="n">
         <v>150</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="26" t="n">
         <v>250</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="27" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+    <row r="9" ht="15.75" customHeight="1" s="71" thickTop="1">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Distance Points</t>
+        </is>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v>250</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="63" t="str">
+        <v/>
+      </c>
+      <c r="E9" s="64" t="inlineStr">
+        <is>
+          <t>Remaining</t>
+        </is>
+      </c>
+      <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>Unlimited</v>
+        <v/>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
+        <v/>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="11" t="n">
+        <v>600</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="N9" s="23" t="n">
+        <v>75</v>
+      </c>
+      <c r="O9" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="P9" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1500</v>
-      </c>
-      <c r="L9" s="11">
-        <v>600</v>
-      </c>
-      <c r="M9" s="1">
-        <v>899</v>
-      </c>
-      <c r="N9" s="23">
-        <v>75</v>
-      </c>
-      <c r="O9" s="24">
-        <v>100</v>
-      </c>
-      <c r="P9" s="25">
-        <v>150</v>
-      </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="27" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>MultiPoint Check</t>
+        </is>
       </c>
       <c r="C10" s="6">
         <f>J16</f>
+        <v/>
+      </c>
+      <c r="E10" s="7" t="n"/>
+      <c r="L10" s="11" t="n">
+        <v>900</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="N10" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="O10" s="24" t="n">
+        <v>75</v>
+      </c>
+      <c r="P10" s="25" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="26" t="n">
+        <v>175</v>
+      </c>
+      <c r="R10" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="L10" s="11">
-        <v>900</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1199</v>
-      </c>
-      <c r="N10" s="23">
-        <v>50</v>
-      </c>
-      <c r="O10" s="24">
-        <v>75</v>
-      </c>
-      <c r="P10" s="25">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>175</v>
-      </c>
-      <c r="R10" s="27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Accumulated Points</t>
+        </is>
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2650</v>
-      </c>
-      <c r="I11" s="66" t="s">
+        <v/>
+      </c>
+      <c r="I11" s="66" t="inlineStr">
+        <is>
+          <t>Config Data</t>
+        </is>
+      </c>
+      <c r="J11" s="68" t="n"/>
+      <c r="L11" s="11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="N11" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="L11" s="11">
-        <v>1200</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1499</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="O11" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="P11" s="25" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="26" t="n">
+        <v>125</v>
+      </c>
+      <c r="R11" s="27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Vitality Drive Status</t>
+        </is>
+      </c>
+      <c r="C12" s="1">
+        <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
+        <v/>
+      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="I12" s="66" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J12" s="66" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>1799</v>
+      </c>
+      <c r="N12" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="O11" s="24">
+      <c r="P12" s="25" t="n">
         <v>50</v>
       </c>
-      <c r="P11" s="25">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>125</v>
-      </c>
-      <c r="R11" s="27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
-        <v>Diamond</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="I12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11">
-        <v>1500</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1799</v>
-      </c>
-      <c r="N12" s="23">
-        <v>10</v>
-      </c>
-      <c r="O12" s="24">
-        <v>25</v>
-      </c>
-      <c r="P12" s="25">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="27" t="n">
         <v>250</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>27</v>
+      <c r="T12" s="70" t="n"/>
+      <c r="Z12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Predict Status</t>
+        </is>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>Derrick</t>
+        </is>
+      </c>
+      <c r="L13" s="12" t="n">
         <v>1800</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="10" t="n">
         <v>1800</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="58">
+      <c r="Z13" s="8" t="n"/>
+      <c r="AA13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>Report Date</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n">
         <v>45805</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-      <c r="I15" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="6">
+    <row r="15">
+      <c r="D15" s="4" t="n"/>
+      <c r="I15" s="28" t="inlineStr">
+        <is>
+          <t>Claim Free Years</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="N15" s="66" t="str">
+      <c r="N15" s="66">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
-        <v>Distance Points for Diamond</v>
-      </c>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
-      <c r="V15" s="9"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="I16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="28">
+        <v/>
+      </c>
+      <c r="O15" s="67" t="n"/>
+      <c r="P15" s="68" t="n"/>
+      <c r="V15" s="9" t="n"/>
+      <c r="AA15" s="3" t="n"/>
+      <c r="AB15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="I16" s="28" t="inlineStr">
+        <is>
+          <t>MultiPoint Check</t>
+        </is>
+      </c>
+      <c r="J16" s="28" t="n">
         <v>300</v>
       </c>
-      <c r="N16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="9:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>15</v>
+      <c r="N16" s="66" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="O16" s="66" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="P16" s="66" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="14.45" customHeight="1" s="71">
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>Last Month's Status</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
       </c>
       <c r="N17" s="1">
         <f t="array" ref="N17:N23">DistancePointsStefan2[Lower]</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="O17" s="1">
         <f t="array" ref="O17:O23">DistancePointsStefan2[Upper]</f>
-        <v>299</v>
+        <v/>
       </c>
       <c r="P17" s="1">
         <f t="array" ref="P17:P23">_xlfn.XLOOKUP(J17,DistancePointsStefan2[#Headers],DistancePointsStefan2[])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>Points on No-Drive Day</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="n"/>
+      <c r="N18" s="1" t="n">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="N18" s="1">
+      <c r="O18" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="O18" s="1">
-        <v>599</v>
-      </c>
-      <c r="P18" s="1">
+    </row>
+    <row r="19">
+      <c r="N19" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="P19" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="N19" s="1">
-        <v>600</v>
-      </c>
-      <c r="O19" s="1">
-        <v>899</v>
-      </c>
-      <c r="P19" s="1">
+    <row r="20">
+      <c r="I20" s="66" t="inlineStr">
+        <is>
+          <t>Calculated Data</t>
+        </is>
+      </c>
+      <c r="J20" s="68" t="n"/>
+      <c r="N20" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="P20" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="68"/>
-      <c r="N20" s="1">
-        <v>900</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1199</v>
-      </c>
-      <c r="P20" s="1">
+    <row r="21">
+      <c r="I21" s="66" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J21" s="66" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="P21" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1200</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1499</v>
-      </c>
-      <c r="P21" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I22" s="52" t="str">
+    <row r="22">
+      <c r="I22" s="52">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v>Days May 2025</v>
+        <v/>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v>31</v>
-      </c>
-      <c r="N22" s="1">
+        <v/>
+      </c>
+      <c r="N22" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="1" t="n">
         <v>1799</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="1" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I23" s="52" t="s">
-        <v>34</v>
+    <row r="23">
+      <c r="I23" s="52" t="inlineStr">
+        <is>
+          <t>Days Past</t>
+        </is>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>28</v>
-      </c>
-      <c r="N23" s="1">
+        <v/>
+      </c>
+      <c r="N23" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I24" s="51" t="s">
-        <v>35</v>
+    <row r="24">
+      <c r="I24" s="51" t="inlineStr">
+        <is>
+          <t>Days Left</t>
+        </is>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I25" s="53" t="s">
-        <v>36</v>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" s="53" t="inlineStr">
+        <is>
+          <t>Rem Dist Points</t>
+        </is>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>150</v>
-      </c>
-      <c r="M25" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="68"/>
-    </row>
-    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I26" s="55" t="s">
-        <v>38</v>
+        <v/>
+      </c>
+      <c r="M25" s="66" t="inlineStr">
+        <is>
+          <t>Driving Status</t>
+        </is>
+      </c>
+      <c r="N25" s="67" t="n"/>
+      <c r="O25" s="67" t="n"/>
+      <c r="P25" s="67" t="n"/>
+      <c r="Q25" s="68" t="n"/>
+    </row>
+    <row r="26">
+      <c r="I26" s="55" t="inlineStr">
+        <is>
+          <t>Rem - Dist</t>
+        </is>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>100</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I27" s="54" t="s">
-        <v>42</v>
+        <v/>
+      </c>
+      <c r="M26" s="66" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="N26" s="66" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="O26" s="66" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="P26" s="66" t="inlineStr">
+        <is>
+          <t>Fuel %</t>
+        </is>
+      </c>
+      <c r="Q26" s="66" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" s="54" t="inlineStr">
+        <is>
+          <t>Distance Upper Limit</t>
+        </is>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v>1800</v>
-      </c>
-      <c r="M27" s="34">
+        <v/>
+      </c>
+      <c r="M27" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="23" t="n">
         <v>799</v>
       </c>
-      <c r="O27" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="35">
+      <c r="O27" s="23" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="P27" s="35" t="n">
         <v>0.05</v>
       </c>
-      <c r="Q27" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I28" s="62" t="s">
-        <v>32</v>
+      <c r="Q27" s="36" t="inlineStr">
+        <is>
+          <t>#8EA9DB</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="I28" s="62" t="inlineStr">
+        <is>
+          <t>Points on No-Drive Day</t>
+        </is>
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
-        <v>50</v>
-      </c>
-      <c r="M28" s="37">
+        <v/>
+      </c>
+      <c r="M28" s="37" t="n">
         <v>800</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="24" t="n">
         <v>1599</v>
       </c>
-      <c r="O28" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="38">
+      <c r="O28" s="24" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="P28" s="38" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I29" s="61" t="s">
-        <v>45</v>
+      <c r="Q28" s="39" t="inlineStr">
+        <is>
+          <t>#F4B084</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="I29" s="61" t="inlineStr">
+        <is>
+          <t>Count No-Drive Days</t>
+        </is>
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>4</v>
-      </c>
-      <c r="M29" s="40">
+        <v/>
+      </c>
+      <c r="M29" s="40" t="n">
         <v>1600</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="25" t="n">
         <v>2199</v>
       </c>
-      <c r="O29" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" s="41">
+      <c r="O29" s="25" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="P29" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q29" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I30" s="60" t="s">
-        <v>47</v>
+      <c r="Q29" s="42" t="inlineStr">
+        <is>
+          <t>#DBDBDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="I30" s="60" t="inlineStr">
+        <is>
+          <t>No-Drive Day Points</t>
+        </is>
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>200</v>
-      </c>
-      <c r="M30" s="43">
+        <v/>
+      </c>
+      <c r="M30" s="43" t="n">
         <v>2200</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="44" t="n">
         <v>2499</v>
       </c>
-      <c r="O30" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="P30" s="45">
+      <c r="O30" s="44" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="P30" s="45" t="n">
         <v>0.35</v>
       </c>
-      <c r="Q30" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I31" s="53" t="s">
-        <v>49</v>
+      <c r="Q30" s="46" t="inlineStr">
+        <is>
+          <t>#FFD966</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="I31" s="53" t="inlineStr">
+        <is>
+          <t>Count Drive Days</t>
+        </is>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>24</v>
-      </c>
-      <c r="M31" s="47">
+        <v/>
+      </c>
+      <c r="M31" s="47" t="n">
         <v>2500</v>
       </c>
-      <c r="N31" s="48">
+      <c r="N31" s="48" t="n">
         <v>3000</v>
       </c>
-      <c r="O31" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="P31" s="49">
+      <c r="O31" s="48" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="P31" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I32" s="54" t="s">
-        <v>51</v>
+      <c r="Q31" s="50" t="inlineStr">
+        <is>
+          <t>#D9B3FF</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="I32" s="54" t="inlineStr">
+        <is>
+          <t>Drive Day Points</t>
+        </is>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="1" t="s">
-        <v>6</v>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>Driving Profile</t>
+        </is>
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="1" t="s">
-        <v>52</v>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>Current Drive Points</t>
+        </is>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2542</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" priority="1" dxfId="4">
       <formula>$C$12="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" priority="2" dxfId="3">
       <formula>$C$12="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" priority="3" dxfId="2">
       <formula>$C$12="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" priority="4" dxfId="1">
       <formula>$C$12="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" priority="5" dxfId="0">
       <formula>$C$12="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P23">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" priority="6" dxfId="4">
       <formula>$J$17="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" priority="7" dxfId="3">
       <formula>$J$17="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" priority="8" dxfId="2">
       <formula>$J$17="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" priority="9" dxfId="1">
       <formula>$J$17="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" priority="10" dxfId="0">
       <formula>$J$17="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket." sqref="C13" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" sqref="J18" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation sqref="C13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket."/>
+    <dataValidation sqref="J18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" type="whole">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="32" orientation="portrait"/>
+  <pageSetup orientation="portrait" scale="32"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DriveSummaryPython.xlsx
+++ b/DriveSummaryPython.xlsx
@@ -1,107 +1,297 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveDashboardPython/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_1A3F6660C07985319E12EDDF673E1B693402463A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8C3C3C-3CCC-43AD-8C86-EDD487D898CA}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-4140" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stefan" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Christiaan" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Derrick" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Stefan" sheetId="1" r:id="rId1"/>
+    <sheet name="Christiaan" sheetId="2" r:id="rId2"/>
+    <sheet name="Derrick" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Username">#REF!</definedName>
-    <definedName name="Username" localSheetId="0">Stefan!$J$21</definedName>
     <definedName name="Username" localSheetId="1">Christiaan!$J$21</definedName>
     <definedName name="Username" localSheetId="2">Derrick!$J$21</definedName>
+    <definedName name="Username" localSheetId="0">Stefan!$J$21</definedName>
+    <definedName name="Username">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Python Data</t>
+  </si>
+  <si>
+    <t>Distance Points</t>
+  </si>
+  <si>
+    <t>Driving Profile</t>
+  </si>
+  <si>
+    <t>Month-to-Date</t>
+  </si>
+  <si>
+    <t>Drive Penalties</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Claim Free Years</t>
+  </si>
+  <si>
+    <t>End of Month</t>
+  </si>
+  <si>
+    <t>Night Penalty</t>
+  </si>
+  <si>
+    <t>Night Time Driving</t>
+  </si>
+  <si>
+    <t>Daily Average</t>
+  </si>
+  <si>
+    <t>No-Drive Days</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>MultiPoint Check</t>
+  </si>
+  <si>
+    <t>Accumulated Points</t>
+  </si>
+  <si>
+    <t>Config Data</t>
+  </si>
+  <si>
+    <t>Vitality Drive Status</t>
+  </si>
+  <si>
+    <t>Predict Status</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Report Date</t>
+  </si>
+  <si>
+    <t>Last Month's Status</t>
+  </si>
+  <si>
+    <t>Points on No-Drive Day</t>
+  </si>
+  <si>
+    <t>Calculated Data</t>
+  </si>
+  <si>
+    <t>Days Past</t>
+  </si>
+  <si>
+    <t>Days Left</t>
+  </si>
+  <si>
+    <t>Rem Dist Points</t>
+  </si>
+  <si>
+    <t>Driving Status</t>
+  </si>
+  <si>
+    <t>Rem - Dist</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Fuel %</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Distance Upper Limit</t>
+  </si>
+  <si>
+    <t>#8EA9DB</t>
+  </si>
+  <si>
+    <t>#F4B084</t>
+  </si>
+  <si>
+    <t>Count No-Drive Days</t>
+  </si>
+  <si>
+    <t>#DBDBDB</t>
+  </si>
+  <si>
+    <t>No-Drive Day Points</t>
+  </si>
+  <si>
+    <t>#FFD966</t>
+  </si>
+  <si>
+    <t>Count Drive Days</t>
+  </si>
+  <si>
+    <t>#D9B3FF</t>
+  </si>
+  <si>
+    <t>Drive Day Points</t>
+  </si>
+  <si>
+    <t>Current Drive Points</t>
+  </si>
+  <si>
+    <t>Christiaan</t>
+  </si>
+  <si>
+    <t>Derrick</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$R-1C09]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="22"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="20"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="72 Monospace"/>
       <family val="3"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="8">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.09997863704336681"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999450666829432"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999450666829432"/>
+        <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5999633777886288"/>
+        <fgColor theme="6" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999450666829432"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -362,245 +552,236 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="72">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="5" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="4" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="5" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="5" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="4" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="5" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="5" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Blue" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Bronze" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Diamond" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Gold" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Blue" xfId="1"/>
-    <cellStyle name="Bronze" xfId="2"/>
-    <cellStyle name="Silver" xfId="3"/>
-    <cellStyle name="Gold" xfId="4"/>
-    <cellStyle name="Diamond" xfId="5"/>
+    <cellStyle name="Silver" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="115">
     <dxf>
@@ -815,44 +996,44 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="72 Monospace"/>
         <family val="3"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <condense val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <vertAlign val="baseline"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <name val="Calibri"/>
         <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -874,16 +1055,48 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <condense val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -906,48 +1119,16 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -998,22 +1179,22 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.09997863704336681"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1190,7 +1371,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.7999816888943144"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1207,44 +1388,44 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="72 Monospace"/>
         <family val="3"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <condense val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <vertAlign val="baseline"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <name val="Calibri"/>
         <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1266,16 +1447,48 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <condense val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1298,48 +1511,16 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1390,22 +1571,22 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.09997863704336681"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1582,7 +1763,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.7999816888943144"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1599,44 +1780,44 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="72 Monospace"/>
         <family val="3"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <condense val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <vertAlign val="baseline"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <name val="Calibri"/>
         <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1658,16 +1839,48 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <condense val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1690,48 +1903,16 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1782,22 +1963,22 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.09997863704336681"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1974,7 +2155,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.7999816888943144"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -2541,271 +2722,211 @@
     </dxf>
   </dxfs>
   <tableStyles count="22" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="1">
+    <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 10" pivot="0" count="1">
+    <tableStyle name="Table Style 1 10" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="113"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 11" pivot="0" count="1">
+    <tableStyle name="Table Style 1 11" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="wholeTable" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 12" pivot="0" count="1">
+    <tableStyle name="Table Style 1 12" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
       <tableStyleElement type="wholeTable" dxfId="111"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 13" pivot="0" count="1">
+    <tableStyle name="Table Style 1 13" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
       <tableStyleElement type="wholeTable" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 14" pivot="0" count="1">
+    <tableStyle name="Table Style 1 14" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
       <tableStyleElement type="wholeTable" dxfId="109"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 15" pivot="0" count="1">
+    <tableStyle name="Table Style 1 15" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
       <tableStyleElement type="wholeTable" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 16" pivot="0" count="1">
+    <tableStyle name="Table Style 1 16" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
       <tableStyleElement type="wholeTable" dxfId="107"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 17" pivot="0" count="1">
+    <tableStyle name="Table Style 1 17" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
       <tableStyleElement type="wholeTable" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 18" pivot="0" count="1">
+    <tableStyle name="Table Style 1 18" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
       <tableStyleElement type="wholeTable" dxfId="105"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 19" pivot="0" count="1">
+    <tableStyle name="Table Style 1 19" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
       <tableStyleElement type="wholeTable" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 2" pivot="0" count="1">
+    <tableStyle name="Table Style 1 2" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
       <tableStyleElement type="wholeTable" dxfId="103"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 20" pivot="0" count="1">
+    <tableStyle name="Table Style 1 20" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
       <tableStyleElement type="wholeTable" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 21" pivot="0" count="1">
+    <tableStyle name="Table Style 1 21" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
       <tableStyleElement type="wholeTable" dxfId="101"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 22" pivot="0" count="1">
+    <tableStyle name="Table Style 1 22" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0E000000}">
       <tableStyleElement type="wholeTable" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 3" pivot="0" count="1">
+    <tableStyle name="Table Style 1 3" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0F000000}">
       <tableStyleElement type="wholeTable" dxfId="99"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 4" pivot="0" count="1">
+    <tableStyle name="Table Style 1 4" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF10000000}">
       <tableStyleElement type="wholeTable" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 5" pivot="0" count="1">
+    <tableStyle name="Table Style 1 5" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF11000000}">
       <tableStyleElement type="wholeTable" dxfId="97"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 6" pivot="0" count="1">
+    <tableStyle name="Table Style 1 6" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF12000000}">
       <tableStyleElement type="wholeTable" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 7" pivot="0" count="1">
+    <tableStyle name="Table Style 1 7" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF13000000}">
       <tableStyleElement type="wholeTable" dxfId="95"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 8" pivot="0" count="1">
+    <tableStyle name="Table Style 1 8" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF14000000}">
       <tableStyleElement type="wholeTable" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 9" pivot="0" count="1">
+    <tableStyle name="Table Style 1 9" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF15000000}">
       <tableStyleElement type="wholeTable" dxfId="93"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DistancePointsStefan615" displayName="DistancePointsStefan615" ref="L6:R13" headerRowCount="1" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="88">
-  <autoFilter ref="L6:R13">
-    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="5" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="6" hiddenButton="1" showButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DistancePointsStefan615" displayName="DistancePointsStefan615" ref="L6:R13" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="88">
+  <autoFilter ref="L6:R13" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lower" dataDxfId="87"/>
-    <tableColumn id="2" name="Upper" dataDxfId="86"/>
-    <tableColumn id="3" name="Blue" dataDxfId="85" dataCellStyle="Blue"/>
-    <tableColumn id="4" name="Bronze" dataDxfId="84" dataCellStyle="Bronze"/>
-    <tableColumn id="5" name="Silver" dataDxfId="83" dataCellStyle="Silver"/>
-    <tableColumn id="6" name="Gold" dataDxfId="82" dataCellStyle="Gold"/>
-    <tableColumn id="7" name="Diamond" dataDxfId="81" dataCellStyle="Diamond"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Lower" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Upper" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Blue" dataDxfId="85" dataCellStyle="Blue"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Bronze" dataDxfId="84" dataCellStyle="Bronze"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Silver" dataDxfId="83" dataCellStyle="Silver"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Gold" dataDxfId="82" dataCellStyle="Gold"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Diamond" dataDxfId="81" dataCellStyle="Diamond"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DrivingStatusStefan716" displayName="DrivingStatusStefan716" ref="M26:Q31" headerRowCount="1" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78" totalsRowBorderDxfId="77">
-  <autoFilter ref="M26:Q31">
-    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="DrivingStatusStefan716" displayName="DrivingStatusStefan716" ref="M26:Q31" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78" totalsRowBorderDxfId="77">
+  <autoFilter ref="M26:Q31" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Lower" dataDxfId="76" dataCellStyle="Silver"/>
-    <tableColumn id="2" name="Upper" dataDxfId="75" dataCellStyle="Silver"/>
-    <tableColumn id="3" name="Category" dataDxfId="74" dataCellStyle="Silver"/>
-    <tableColumn id="4" name="Fuel %" dataDxfId="73" dataCellStyle="Silver"/>
-    <tableColumn id="5" name="Color" dataDxfId="72" dataCellStyle="Silver"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Lower" dataDxfId="76" dataCellStyle="Silver"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Upper" dataDxfId="75" dataCellStyle="Silver"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Category" dataDxfId="74" dataCellStyle="Silver"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Fuel %" dataDxfId="73" dataCellStyle="Silver"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Color" dataDxfId="72" dataCellStyle="Silver"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="DistancePointsStefan4" displayName="DistancePointsStefan4" ref="L6:R13" headerRowCount="1" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
-  <autoFilter ref="L6:R13">
-    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="5" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="6" hiddenButton="1" showButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="DistancePointsStefan4" displayName="DistancePointsStefan4" ref="L6:R13" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+  <autoFilter ref="L6:R13" xr:uid="{00000000-0009-0000-0100-000003000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lower" dataDxfId="66"/>
-    <tableColumn id="2" name="Upper" dataDxfId="65"/>
-    <tableColumn id="3" name="Blue" dataDxfId="64" dataCellStyle="Blue"/>
-    <tableColumn id="4" name="Bronze" dataDxfId="63" dataCellStyle="Bronze"/>
-    <tableColumn id="5" name="Silver" dataDxfId="62" dataCellStyle="Silver"/>
-    <tableColumn id="6" name="Gold" dataDxfId="61" dataCellStyle="Gold"/>
-    <tableColumn id="7" name="Diamond" dataDxfId="60" dataCellStyle="Diamond"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Lower" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Upper" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Blue" dataDxfId="64" dataCellStyle="Blue"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Bronze" dataDxfId="63" dataCellStyle="Bronze"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Silver" dataDxfId="62" dataCellStyle="Silver"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Gold" dataDxfId="61" dataCellStyle="Gold"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Diamond" dataDxfId="60" dataCellStyle="Diamond"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="DrivingStatusStefan5" displayName="DrivingStatusStefan5" ref="M26:Q31" headerRowCount="1" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
-  <autoFilter ref="M26:Q31">
-    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DrivingStatusStefan5" displayName="DrivingStatusStefan5" ref="M26:Q31" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+  <autoFilter ref="M26:Q31" xr:uid="{00000000-0009-0000-0100-000004000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Lower" dataDxfId="55" dataCellStyle="Silver"/>
-    <tableColumn id="2" name="Upper" dataDxfId="54" dataCellStyle="Silver"/>
-    <tableColumn id="3" name="Category" dataDxfId="53" dataCellStyle="Silver"/>
-    <tableColumn id="4" name="Fuel %" dataDxfId="52" dataCellStyle="Silver"/>
-    <tableColumn id="5" name="Color" dataDxfId="51" dataCellStyle="Silver"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Lower" dataDxfId="55" dataCellStyle="Silver"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Upper" dataDxfId="54" dataCellStyle="Silver"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Category" dataDxfId="53" dataCellStyle="Silver"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Fuel %" dataDxfId="52" dataCellStyle="Silver"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Color" dataDxfId="51" dataCellStyle="Silver"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="DistancePointsStefan2" displayName="DistancePointsStefan2" ref="L6:R13" headerRowCount="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
-  <autoFilter ref="L6:R13">
-    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="5" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="6" hiddenButton="1" showButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="DistancePointsStefan2" displayName="DistancePointsStefan2" ref="L6:R13" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
+  <autoFilter ref="L6:R13" xr:uid="{00000000-0009-0000-0100-000005000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lower" dataDxfId="45"/>
-    <tableColumn id="2" name="Upper" dataDxfId="44"/>
-    <tableColumn id="3" name="Blue" dataDxfId="43" dataCellStyle="Blue"/>
-    <tableColumn id="4" name="Bronze" dataDxfId="42" dataCellStyle="Bronze"/>
-    <tableColumn id="5" name="Silver" dataDxfId="41" dataCellStyle="Silver"/>
-    <tableColumn id="6" name="Gold" dataDxfId="40" dataCellStyle="Gold"/>
-    <tableColumn id="7" name="Diamond" dataDxfId="39" dataCellStyle="Diamond"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Lower" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Upper" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Blue" dataDxfId="43" dataCellStyle="Blue"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Bronze" dataDxfId="42" dataCellStyle="Bronze"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Silver" dataDxfId="41" dataCellStyle="Silver"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Gold" dataDxfId="40" dataCellStyle="Gold"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Diamond" dataDxfId="39" dataCellStyle="Diamond"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="DrivingStatusStefan3" displayName="DrivingStatusStefan3" ref="M26:Q31" headerRowCount="1" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
-  <autoFilter ref="M26:Q31">
-    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
-    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="DrivingStatusStefan3" displayName="DrivingStatusStefan3" ref="M26:Q31" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="M26:Q31" xr:uid="{00000000-0009-0000-0100-000006000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Lower" dataDxfId="34" dataCellStyle="Silver"/>
-    <tableColumn id="2" name="Upper" dataDxfId="33" dataCellStyle="Silver"/>
-    <tableColumn id="3" name="Category" dataDxfId="32" dataCellStyle="Silver"/>
-    <tableColumn id="4" name="Fuel %" dataDxfId="31" dataCellStyle="Silver"/>
-    <tableColumn id="5" name="Color" dataDxfId="30" dataCellStyle="Silver"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Lower" dataDxfId="34" dataCellStyle="Silver"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Upper" dataDxfId="33" dataCellStyle="Silver"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Category" dataDxfId="32" dataCellStyle="Silver"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Fuel %" dataDxfId="31" dataCellStyle="Silver"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Color" dataDxfId="30" dataCellStyle="Silver"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3107,2925 +3228,2515 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection sqref="A1:K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="2.7109375" customWidth="1" style="70" min="1" max="1"/>
-    <col width="25.140625" bestFit="1" customWidth="1" style="70" min="2" max="2"/>
-    <col width="9.7109375" customWidth="1" style="70" min="3" max="3"/>
-    <col width="2.7109375" customWidth="1" style="70" min="4" max="4"/>
-    <col width="16.140625" customWidth="1" style="71" min="5" max="5"/>
-    <col width="11.140625" bestFit="1" customWidth="1" style="70" min="6" max="6"/>
-    <col width="9.7109375" customWidth="1" style="70" min="7" max="7"/>
-    <col width="2.7109375" customWidth="1" style="70" min="8" max="8"/>
-    <col width="22.42578125" customWidth="1" style="70" min="9" max="9"/>
-    <col width="10.7109375" customWidth="1" style="70" min="10" max="10"/>
-    <col width="2.7109375" customWidth="1" style="70" min="11" max="11"/>
-    <col width="9.7109375" customWidth="1" style="70" min="12" max="14"/>
-    <col width="10.5703125" customWidth="1" style="70" min="15" max="15"/>
-    <col width="9.7109375" customWidth="1" style="70" min="16" max="17"/>
-    <col width="11.42578125" customWidth="1" style="70" min="18" max="18"/>
-    <col width="2.7109375" customWidth="1" style="70" min="19" max="19"/>
-    <col width="9.7109375" customWidth="1" style="5" min="20" max="20"/>
-    <col width="9.7109375" customWidth="1" style="70" min="21" max="23"/>
-    <col width="8.85546875" customWidth="1" style="70" min="24" max="36"/>
-    <col width="8.85546875" customWidth="1" style="70" min="37" max="16384"/>
+    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
+    <col min="12" max="14" width="9.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="9.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
+    <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
+    <col min="24" max="39" width="8.85546875" style="2" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.45" customHeight="1" s="71">
-      <c r="B2" s="69">
+    <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="70" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v/>
-      </c>
-      <c r="H2" s="13" t="n"/>
-    </row>
-    <row r="3" ht="14.45" customHeight="1" s="71">
-      <c r="H3" s="13" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="14" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C5" s="15" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="E5" s="14">
-        <f>TEXT(TODAY(), "mmmm yyyy")</f>
-        <v/>
-      </c>
-      <c r="F5" s="14" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="G5" s="66" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="I5" s="66" t="inlineStr">
-        <is>
-          <t>Python Data</t>
-        </is>
-      </c>
-      <c r="J5" s="68" t="n"/>
-      <c r="L5" s="66" t="inlineStr">
-        <is>
-          <t>Distance Points</t>
-        </is>
-      </c>
-      <c r="M5" s="67" t="n"/>
-      <c r="N5" s="67" t="n"/>
-      <c r="O5" s="67" t="n"/>
-      <c r="P5" s="67" t="n"/>
-      <c r="Q5" s="67" t="n"/>
-      <c r="R5" s="68" t="n"/>
-      <c r="AB5" s="70" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Driving Profile</t>
-        </is>
+        <v>Drive Summary Stefan June 2025</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
+        <v>July 2025</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="68"/>
+      <c r="L5" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="68"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v/>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>Month-to-Date</t>
-        </is>
+        <v>1444</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v/>
+        <v>1731.587</v>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v/>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>Drive Penalties</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="L6" s="66" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="M6" s="66" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="N6" s="18" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="O6" s="19" t="inlineStr">
-        <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="P6" s="20" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="Q6" s="21" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="R6" s="22" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
-      </c>
-      <c r="AB6" s="8" t="n"/>
-      <c r="AC6" s="8" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Claim Free Years</t>
-        </is>
+        <v>1444</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
+        <f>46+8</f>
+        <v>54</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="6">
         <f>J15</f>
-        <v/>
-      </c>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>End of Month</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v/>
+        <v>1731.587</v>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v/>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>Night Penalty</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="n">
+        <v>1444</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="11">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="1">
         <v>299</v>
       </c>
-      <c r="N7" s="23" t="n">
-        <v>300</v>
-      </c>
-      <c r="O7" s="24" t="n">
-        <v>300</v>
-      </c>
-      <c r="P7" s="25" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q7" s="26" t="n">
-        <v>300</v>
-      </c>
-      <c r="R7" s="27" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB7" s="3" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="71" thickBot="1">
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Night Time Driving</t>
-        </is>
+      <c r="N7" s="23">
+        <v>300</v>
+      </c>
+      <c r="O7" s="24">
+        <v>300</v>
+      </c>
+      <c r="P7" s="25">
+        <v>300</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>300</v>
+      </c>
+      <c r="R7" s="27">
+        <v>300</v>
+      </c>
+      <c r="AB7" s="3"/>
+    </row>
+    <row r="8" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v/>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>Daily Average</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v/>
+        <v>57.719566666666665</v>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v/>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>No-Drive Days</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="M8" s="1" t="n">
+        <v>48.133333333333333</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11">
+        <v>300</v>
+      </c>
+      <c r="M8" s="1">
         <v>599</v>
       </c>
-      <c r="N8" s="23" t="n">
+      <c r="N8" s="23">
         <v>100</v>
       </c>
-      <c r="O8" s="24" t="n">
+      <c r="O8" s="24">
         <v>150</v>
       </c>
-      <c r="P8" s="25" t="n">
+      <c r="P8" s="25">
         <v>200</v>
       </c>
-      <c r="Q8" s="26" t="n">
+      <c r="Q8" s="26">
         <v>250</v>
       </c>
-      <c r="R8" s="27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="71" thickTop="1">
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Distance Points</t>
-        </is>
+      <c r="R8" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v/>
-      </c>
-      <c r="E9" s="64" t="inlineStr">
-        <is>
-          <t>Remaining</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v/>
+        <v>67.413000000000011</v>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v/>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>1539.284</v>
-      </c>
-      <c r="L9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1731.587</v>
+      </c>
+      <c r="L9" s="11">
         <v>600</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="1">
         <v>899</v>
       </c>
-      <c r="N9" s="23" t="n">
+      <c r="N9" s="23">
         <v>75</v>
       </c>
-      <c r="O9" s="24" t="n">
+      <c r="O9" s="24">
         <v>100</v>
       </c>
-      <c r="P9" s="25" t="n">
+      <c r="P9" s="25">
         <v>150</v>
       </c>
-      <c r="Q9" s="26" t="n">
+      <c r="Q9" s="26">
         <v>200</v>
       </c>
-      <c r="R9" s="27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>MultiPoint Check</t>
-        </is>
+      <c r="R9" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="6">
         <f>J16</f>
-        <v/>
-      </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="L10" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="L10" s="11">
         <v>900</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="M10" s="1">
         <v>1199</v>
       </c>
-      <c r="N10" s="23" t="n">
+      <c r="N10" s="23">
         <v>50</v>
       </c>
-      <c r="O10" s="24" t="n">
+      <c r="O10" s="24">
         <v>75</v>
       </c>
-      <c r="P10" s="25" t="n">
+      <c r="P10" s="25">
         <v>100</v>
       </c>
-      <c r="Q10" s="26" t="n">
+      <c r="Q10" s="26">
         <v>175</v>
       </c>
-      <c r="R10" s="27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Accumulated Points</t>
-        </is>
+      <c r="R10" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v/>
-      </c>
-      <c r="I11" s="66" t="inlineStr">
-        <is>
-          <t>Config Data</t>
-        </is>
-      </c>
-      <c r="J11" s="68" t="n"/>
-      <c r="L11" s="11" t="n">
+        <v>2544</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="68"/>
+      <c r="L11" s="11">
         <v>1200</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="1">
         <v>1499</v>
       </c>
-      <c r="N11" s="23" t="n">
+      <c r="N11" s="23">
         <v>25</v>
       </c>
-      <c r="O11" s="24" t="n">
+      <c r="O11" s="24">
         <v>50</v>
       </c>
-      <c r="P11" s="25" t="n">
+      <c r="P11" s="25">
         <v>75</v>
       </c>
-      <c r="Q11" s="26" t="n">
+      <c r="Q11" s="26">
         <v>125</v>
       </c>
-      <c r="R11" s="27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Vitality Drive Status</t>
-        </is>
-      </c>
-      <c r="C12" s="1">
+      <c r="R11" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="str">
         <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
-        <v/>
-      </c>
-      <c r="D12" s="3" t="n"/>
-      <c r="I12" s="66" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="J12" s="66" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="L12" s="11" t="n">
+        <v>Diamond</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="I12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11">
         <v>1500</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="1">
         <v>1799</v>
       </c>
-      <c r="N12" s="23" t="n">
+      <c r="N12" s="23">
         <v>10</v>
       </c>
-      <c r="O12" s="24" t="n">
+      <c r="O12" s="24">
         <v>25</v>
       </c>
-      <c r="P12" s="25" t="n">
+      <c r="P12" s="25">
         <v>50</v>
       </c>
-      <c r="Q12" s="26" t="n">
+      <c r="Q12" s="26">
         <v>100</v>
       </c>
-      <c r="R12" s="27" t="n">
-        <v>250</v>
-      </c>
-      <c r="T12" s="70" t="n"/>
-      <c r="Z12" s="8" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Predict Status</t>
-        </is>
+      <c r="R12" s="27">
+        <v>200</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>Stefan</t>
-        </is>
-      </c>
-      <c r="L13" s="12" t="n">
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="12">
         <v>1800</v>
       </c>
-      <c r="M13" s="10" t="n">
+      <c r="M13" s="10">
         <v>1800</v>
       </c>
-      <c r="N13" s="29" t="n">
+      <c r="N13" s="29">
         <v>5</v>
       </c>
-      <c r="O13" s="30" t="n">
+      <c r="O13" s="30">
         <v>10</v>
       </c>
-      <c r="P13" s="31" t="n">
+      <c r="P13" s="31">
         <v>25</v>
       </c>
-      <c r="Q13" s="32" t="n">
+      <c r="Q13" s="32">
         <v>60</v>
       </c>
-      <c r="R13" s="33" t="n">
+      <c r="R13" s="33">
         <v>100</v>
       </c>
-      <c r="Z13" s="8" t="n"/>
-      <c r="AA13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>Report Date</t>
-        </is>
-      </c>
-      <c r="J14" s="58" t="n">
-        <v>45831</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="4" t="n"/>
-      <c r="I15" s="28" t="inlineStr">
-        <is>
-          <t>Claim Free Years</t>
-        </is>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>300</v>
-      </c>
-      <c r="N15" s="66">
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="58">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="I15" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="6">
+        <v>300</v>
+      </c>
+      <c r="N15" s="67" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
-        <v/>
-      </c>
-      <c r="O15" s="67" t="n"/>
-      <c r="P15" s="68" t="n"/>
-      <c r="V15" s="9" t="n"/>
-      <c r="AA15" s="3" t="n"/>
-      <c r="AB15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="I16" s="28" t="inlineStr">
-        <is>
-          <t>MultiPoint Check</t>
-        </is>
-      </c>
-      <c r="J16" s="28" t="n">
-        <v>300</v>
-      </c>
-      <c r="N16" s="66" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="O16" s="66" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="P16" s="66" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="14.45" customHeight="1" s="71">
-      <c r="I17" s="6" t="inlineStr">
-        <is>
-          <t>Last Month's Status</t>
-        </is>
-      </c>
-      <c r="J17" s="6" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
+        <v>Distance Points for Diamond</v>
+      </c>
+      <c r="O15" s="69"/>
+      <c r="P15" s="68"/>
+      <c r="V15" s="9"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="I16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="28">
+        <v>300</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="9:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="N17" s="1">
         <f t="array" ref="N17:N23">DistancePointsStefan615[Lower]</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O17" s="1">
         <f t="array" ref="O17:O23">DistancePointsStefan615[Upper]</f>
-        <v/>
+        <v>299</v>
       </c>
       <c r="P17" s="1">
         <f t="array" ref="P17:P23">_xlfn.XLOOKUP(J17,DistancePointsStefan615[#Headers],DistancePointsStefan615[])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="I18" s="6" t="inlineStr">
-        <is>
-          <t>Points on No-Drive Day</t>
-        </is>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="O18" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="1">
+        <v>48</v>
+      </c>
+      <c r="N18" s="1">
+        <v>300</v>
+      </c>
+      <c r="O18" s="1">
         <v>599</v>
       </c>
-      <c r="P18" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="N19" s="1" t="n">
+      <c r="P18" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="N19" s="1">
         <v>600</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="O19" s="1">
         <v>899</v>
       </c>
-      <c r="P19" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="I20" s="66" t="inlineStr">
-        <is>
-          <t>Calculated Data</t>
-        </is>
-      </c>
-      <c r="J20" s="68" t="n"/>
-      <c r="N20" s="1" t="n">
+      <c r="P19" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I20" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="68"/>
+      <c r="N20" s="1">
         <v>900</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="O20" s="1">
         <v>1199</v>
       </c>
-      <c r="P20" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="I21" s="66" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="J21" s="66" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="N21" s="1" t="n">
+      <c r="P20" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
         <v>1200</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="O21" s="1">
         <v>1499</v>
       </c>
-      <c r="P21" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="I22" s="52">
+      <c r="P21" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I22" s="52" t="str">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v/>
+        <v>Days Jun 2025</v>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v/>
-      </c>
-      <c r="N22" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="N22" s="1">
         <v>1500</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="O22" s="1">
         <v>1799</v>
       </c>
-      <c r="P22" s="1" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="I23" s="52" t="inlineStr">
-        <is>
-          <t>Days Past</t>
-        </is>
+      <c r="P22" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I23" s="52" t="s">
+        <v>34</v>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v/>
-      </c>
-      <c r="N23" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="N23" s="1">
         <v>1800</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="O23" s="1">
         <v>1800</v>
       </c>
-      <c r="P23" s="1" t="n">
+      <c r="P23" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="24">
-      <c r="I24" s="51" t="inlineStr">
-        <is>
-          <t>Days Left</t>
-        </is>
+    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I24" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="I25" s="53" t="inlineStr">
-        <is>
-          <t>Rem Dist Points</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I25" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v/>
-      </c>
-      <c r="M25" s="66" t="inlineStr">
-        <is>
-          <t>Driving Status</t>
-        </is>
-      </c>
-      <c r="N25" s="67" t="n"/>
-      <c r="O25" s="67" t="n"/>
-      <c r="P25" s="67" t="n"/>
-      <c r="Q25" s="68" t="n"/>
-    </row>
-    <row r="26">
-      <c r="I26" s="55" t="inlineStr">
-        <is>
-          <t>Rem - Dist</t>
-        </is>
+        <v>44</v>
+      </c>
+      <c r="M25" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="68"/>
+    </row>
+    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I26" s="55" t="s">
+        <v>38</v>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v/>
-      </c>
-      <c r="M26" s="66" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="N26" s="66" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="O26" s="66" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="P26" s="66" t="inlineStr">
-        <is>
-          <t>Fuel %</t>
-        </is>
-      </c>
-      <c r="Q26" s="66" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="I27" s="54" t="inlineStr">
-        <is>
-          <t>Distance Upper Limit</t>
-        </is>
+        <v>156</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I27" s="54" t="s">
+        <v>42</v>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v/>
-      </c>
-      <c r="M27" s="34" t="n">
+        <v>1799</v>
+      </c>
+      <c r="M27" s="34">
         <v>0</v>
       </c>
-      <c r="N27" s="23" t="n">
+      <c r="N27" s="23">
         <v>799</v>
       </c>
-      <c r="O27" s="23" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="P27" s="35" t="n">
+      <c r="O27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="35">
         <v>0.05</v>
       </c>
-      <c r="Q27" s="36" t="inlineStr">
-        <is>
-          <t>#8EA9DB</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="I28" s="62" t="inlineStr">
-        <is>
-          <t>Points on No-Drive Day</t>
-        </is>
+      <c r="Q27" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I28" s="62" t="s">
+        <v>32</v>
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
-        <v/>
-      </c>
-      <c r="M28" s="37" t="n">
+        <v>48</v>
+      </c>
+      <c r="M28" s="37">
         <v>800</v>
       </c>
-      <c r="N28" s="24" t="n">
+      <c r="N28" s="24">
         <v>1599</v>
       </c>
-      <c r="O28" s="24" t="inlineStr">
-        <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="P28" s="38" t="n">
+      <c r="O28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="38">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="39" t="inlineStr">
-        <is>
-          <t>#F4B084</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="I29" s="61" t="inlineStr">
-        <is>
-          <t>Count No-Drive Days</t>
-        </is>
+      <c r="Q28" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I29" s="61" t="s">
+        <v>45</v>
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v/>
-      </c>
-      <c r="M29" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="40">
         <v>1600</v>
       </c>
-      <c r="N29" s="25" t="n">
+      <c r="N29" s="25">
         <v>2199</v>
       </c>
-      <c r="O29" s="25" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="P29" s="41" t="n">
+      <c r="O29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="41">
         <v>0.2</v>
       </c>
-      <c r="Q29" s="42" t="inlineStr">
-        <is>
-          <t>#DBDBDB</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="I30" s="60" t="inlineStr">
-        <is>
-          <t>No-Drive Day Points</t>
-        </is>
+      <c r="Q29" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I30" s="60" t="s">
+        <v>47</v>
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v/>
-      </c>
-      <c r="M30" s="43" t="n">
+        <v>48</v>
+      </c>
+      <c r="M30" s="43">
         <v>2200</v>
       </c>
-      <c r="N30" s="44" t="n">
+      <c r="N30" s="44">
         <v>2499</v>
       </c>
-      <c r="O30" s="44" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="P30" s="45" t="n">
+      <c r="O30" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="45">
         <v>0.35</v>
       </c>
-      <c r="Q30" s="46" t="inlineStr">
-        <is>
-          <t>#FFD966</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="I31" s="53" t="inlineStr">
-        <is>
-          <t>Count Drive Days</t>
-        </is>
+      <c r="Q30" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I31" s="53" t="s">
+        <v>49</v>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v/>
-      </c>
-      <c r="M31" s="47" t="n">
+        <v>29</v>
+      </c>
+      <c r="M31" s="47">
         <v>2500</v>
       </c>
-      <c r="N31" s="48" t="n">
+      <c r="N31" s="48">
         <v>3000</v>
       </c>
-      <c r="O31" s="48" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
-      </c>
-      <c r="P31" s="49" t="n">
+      <c r="O31" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" s="49">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="50" t="inlineStr">
-        <is>
-          <t>#D9B3FF</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="I32" s="54" t="inlineStr">
-        <is>
-          <t>Drive Day Points</t>
-        </is>
+      <c r="Q31" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I32" s="54" t="s">
+        <v>51</v>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t>Driving Profile</t>
-        </is>
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="I34" s="1" t="inlineStr">
-        <is>
-          <t>Current Drive Points</t>
-        </is>
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v/>
+        <v>2544</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="L5:R5"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="L5:R5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="expression" priority="1" dxfId="4">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>$C$12="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="3">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>$C$12="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="2">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$C$12="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="1">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>$C$12="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" dxfId="0">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$C$12="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P23">
-    <cfRule type="expression" priority="6" dxfId="4">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>$J$17="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="3">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>$J$17="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="2">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>$J$17="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" priority="9" dxfId="1">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>$J$17="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$J$17="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="C13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket."/>
-    <dataValidation sqref="J18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" type="whole">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket." sqref="C13" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" sqref="J18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" scale="32"/>
+  <pageSetup scale="43" orientation="landscape" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet9">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AC34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="2.7109375" customWidth="1" style="70" min="1" max="1"/>
-    <col width="25.140625" bestFit="1" customWidth="1" style="70" min="2" max="2"/>
-    <col width="9.7109375" customWidth="1" style="70" min="3" max="3"/>
-    <col width="2.7109375" customWidth="1" style="70" min="4" max="4"/>
-    <col width="16.140625" customWidth="1" style="71" min="5" max="5"/>
-    <col width="11.140625" bestFit="1" customWidth="1" style="70" min="6" max="6"/>
-    <col width="9.7109375" customWidth="1" style="70" min="7" max="7"/>
-    <col width="2.7109375" customWidth="1" style="70" min="8" max="8"/>
-    <col width="22.42578125" customWidth="1" style="70" min="9" max="9"/>
-    <col width="10.7109375" customWidth="1" style="70" min="10" max="10"/>
-    <col width="2.7109375" customWidth="1" style="70" min="11" max="11"/>
-    <col width="9.7109375" customWidth="1" style="70" min="12" max="14"/>
-    <col width="10.5703125" customWidth="1" style="70" min="15" max="15"/>
-    <col width="9.7109375" customWidth="1" style="70" min="16" max="17"/>
-    <col width="11.42578125" customWidth="1" style="70" min="18" max="18"/>
-    <col width="2.7109375" customWidth="1" style="70" min="19" max="19"/>
-    <col width="9.7109375" customWidth="1" style="5" min="20" max="20"/>
-    <col width="9.7109375" customWidth="1" style="70" min="21" max="23"/>
-    <col width="8.85546875" customWidth="1" style="70" min="24" max="36"/>
-    <col width="8.85546875" customWidth="1" style="70" min="37" max="16384"/>
+    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
+    <col min="12" max="14" width="9.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="9.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
+    <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
+    <col min="24" max="39" width="8.85546875" style="2" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.45" customHeight="1" s="71">
-      <c r="B2" s="69">
+    <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="70" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v/>
-      </c>
-      <c r="H2" s="13" t="n"/>
-    </row>
-    <row r="3" ht="14.45" customHeight="1" s="71">
-      <c r="H3" s="13" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="14" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C5" s="15" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="E5" s="14">
-        <f>TEXT(TODAY(), "mmmm yyyy")</f>
-        <v/>
-      </c>
-      <c r="F5" s="14" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="G5" s="66" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="I5" s="66" t="inlineStr">
-        <is>
-          <t>Python Data</t>
-        </is>
-      </c>
-      <c r="J5" s="68" t="n"/>
-      <c r="L5" s="66" t="inlineStr">
-        <is>
-          <t>Distance Points</t>
-        </is>
-      </c>
-      <c r="M5" s="67" t="n"/>
-      <c r="N5" s="67" t="n"/>
-      <c r="O5" s="67" t="n"/>
-      <c r="P5" s="67" t="n"/>
-      <c r="Q5" s="67" t="n"/>
-      <c r="R5" s="68" t="n"/>
-      <c r="AB5" s="70" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Driving Profile</t>
-        </is>
+        <v>Drive Summary Christiaan May 2025</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
+        <v>July 2025</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="68"/>
+      <c r="L5" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="68"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v/>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>Month-to-Date</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v/>
+        <v>1496.702</v>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v/>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>Drive Penalties</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="n">
+        <v>1550</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="66" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="M6" s="66" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="N6" s="18" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="O6" s="19" t="inlineStr">
-        <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="P6" s="20" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="Q6" s="21" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="R6" s="22" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
-      </c>
-      <c r="AB6" s="8" t="n"/>
-      <c r="AC6" s="8" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Claim Free Years</t>
-        </is>
+      <c r="L6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="6">
         <f>J15</f>
-        <v/>
-      </c>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>End of Month</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v/>
+        <v>1496.702</v>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v/>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>Night Penalty</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="n">
+        <v>1550</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="J7" s="1">
+        <v>18</v>
+      </c>
+      <c r="L7" s="11">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="1">
         <v>299</v>
       </c>
-      <c r="N7" s="23" t="n">
-        <v>300</v>
-      </c>
-      <c r="O7" s="24" t="n">
-        <v>300</v>
-      </c>
-      <c r="P7" s="25" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q7" s="26" t="n">
-        <v>300</v>
-      </c>
-      <c r="R7" s="27" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB7" s="3" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="71" thickBot="1">
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Night Time Driving</t>
-        </is>
+      <c r="N7" s="23">
+        <v>300</v>
+      </c>
+      <c r="O7" s="24">
+        <v>300</v>
+      </c>
+      <c r="P7" s="25">
+        <v>300</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>300</v>
+      </c>
+      <c r="R7" s="27">
+        <v>300</v>
+      </c>
+      <c r="AB7" s="3"/>
+    </row>
+    <row r="8" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v/>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>Daily Average</t>
-        </is>
+        <v>282</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v/>
+        <v>48.280709677419352</v>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v/>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>No-Drive Days</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="M8" s="1" t="n">
+      <c r="L8" s="11">
+        <v>300</v>
+      </c>
+      <c r="M8" s="1">
         <v>599</v>
       </c>
-      <c r="N8" s="23" t="n">
+      <c r="N8" s="23">
         <v>100</v>
       </c>
-      <c r="O8" s="24" t="n">
+      <c r="O8" s="24">
         <v>150</v>
       </c>
-      <c r="P8" s="25" t="n">
+      <c r="P8" s="25">
         <v>200</v>
       </c>
-      <c r="Q8" s="26" t="n">
+      <c r="Q8" s="26">
         <v>250</v>
       </c>
-      <c r="R8" s="27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="71" thickTop="1">
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Distance Points</t>
-        </is>
+      <c r="R8" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v/>
-      </c>
-      <c r="E9" s="64" t="inlineStr">
-        <is>
-          <t>Remaining</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v/>
+        <v>302.298</v>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v/>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="J9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6">
         <v>1496.702</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="11">
         <v>600</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="1">
         <v>899</v>
       </c>
-      <c r="N9" s="23" t="n">
+      <c r="N9" s="23">
         <v>75</v>
       </c>
-      <c r="O9" s="24" t="n">
+      <c r="O9" s="24">
         <v>100</v>
       </c>
-      <c r="P9" s="25" t="n">
+      <c r="P9" s="25">
         <v>150</v>
       </c>
-      <c r="Q9" s="26" t="n">
+      <c r="Q9" s="26">
         <v>200</v>
       </c>
-      <c r="R9" s="27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>MultiPoint Check</t>
-        </is>
+      <c r="R9" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="6">
         <f>J16</f>
-        <v/>
-      </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="L10" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="L10" s="11">
         <v>900</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="M10" s="1">
         <v>1199</v>
       </c>
-      <c r="N10" s="23" t="n">
+      <c r="N10" s="23">
         <v>50</v>
       </c>
-      <c r="O10" s="24" t="n">
+      <c r="O10" s="24">
         <v>75</v>
       </c>
-      <c r="P10" s="25" t="n">
+      <c r="P10" s="25">
         <v>100</v>
       </c>
-      <c r="Q10" s="26" t="n">
+      <c r="Q10" s="26">
         <v>175</v>
       </c>
-      <c r="R10" s="27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Accumulated Points</t>
-        </is>
+      <c r="R10" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v/>
-      </c>
-      <c r="I11" s="66" t="inlineStr">
-        <is>
-          <t>Config Data</t>
-        </is>
-      </c>
-      <c r="J11" s="68" t="n"/>
-      <c r="L11" s="11" t="n">
+        <v>2682</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="68"/>
+      <c r="L11" s="11">
         <v>1200</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="1">
         <v>1499</v>
       </c>
-      <c r="N11" s="23" t="n">
+      <c r="N11" s="23">
         <v>25</v>
       </c>
-      <c r="O11" s="24" t="n">
+      <c r="O11" s="24">
         <v>50</v>
       </c>
-      <c r="P11" s="25" t="n">
+      <c r="P11" s="25">
         <v>75</v>
       </c>
-      <c r="Q11" s="26" t="n">
+      <c r="Q11" s="26">
         <v>125</v>
       </c>
-      <c r="R11" s="27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Vitality Drive Status</t>
-        </is>
-      </c>
-      <c r="C12" s="1">
+      <c r="R11" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="str">
         <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
-        <v/>
-      </c>
-      <c r="D12" s="3" t="n"/>
-      <c r="I12" s="66" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="J12" s="66" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="L12" s="11" t="n">
+        <v>Diamond</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="I12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11">
         <v>1500</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="1">
         <v>1799</v>
       </c>
-      <c r="N12" s="23" t="n">
+      <c r="N12" s="23">
         <v>10</v>
       </c>
-      <c r="O12" s="24" t="n">
+      <c r="O12" s="24">
         <v>25</v>
       </c>
-      <c r="P12" s="25" t="n">
+      <c r="P12" s="25">
         <v>50</v>
       </c>
-      <c r="Q12" s="26" t="n">
+      <c r="Q12" s="26">
         <v>100</v>
       </c>
-      <c r="R12" s="27" t="n">
-        <v>250</v>
-      </c>
-      <c r="T12" s="70" t="n"/>
-      <c r="Z12" s="8" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Predict Status</t>
-        </is>
+      <c r="R12" s="27">
+        <v>200</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>Christiaan</t>
-        </is>
-      </c>
-      <c r="L13" s="12" t="n">
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="12">
         <v>1800</v>
       </c>
-      <c r="M13" s="10" t="n">
+      <c r="M13" s="10">
         <v>1800</v>
       </c>
-      <c r="N13" s="29" t="n">
+      <c r="N13" s="29">
         <v>5</v>
       </c>
-      <c r="O13" s="30" t="n">
+      <c r="O13" s="30">
         <v>10</v>
       </c>
-      <c r="P13" s="31" t="n">
+      <c r="P13" s="31">
         <v>25</v>
       </c>
-      <c r="Q13" s="32" t="n">
+      <c r="Q13" s="32">
         <v>60</v>
       </c>
-      <c r="R13" s="33" t="n">
+      <c r="R13" s="33">
         <v>100</v>
       </c>
-      <c r="Z13" s="8" t="n"/>
-      <c r="AA13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>Report Date</t>
-        </is>
-      </c>
-      <c r="J14" s="58" t="n">
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="58">
         <v>45808</v>
       </c>
     </row>
-    <row r="15">
-      <c r="D15" s="4" t="n"/>
-      <c r="I15" s="28" t="inlineStr">
-        <is>
-          <t>Claim Free Years</t>
-        </is>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>300</v>
-      </c>
-      <c r="N15" s="66">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="I15" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="6">
+        <v>300</v>
+      </c>
+      <c r="N15" s="67" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
-        <v/>
-      </c>
-      <c r="O15" s="67" t="n"/>
-      <c r="P15" s="68" t="n"/>
-      <c r="V15" s="9" t="n"/>
-      <c r="AA15" s="3" t="n"/>
-      <c r="AB15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="I16" s="28" t="inlineStr">
-        <is>
-          <t>MultiPoint Check</t>
-        </is>
-      </c>
-      <c r="J16" s="28" t="n">
-        <v>300</v>
-      </c>
-      <c r="N16" s="66" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="O16" s="66" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="P16" s="66" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="14.45" customHeight="1" s="71">
-      <c r="I17" s="6" t="inlineStr">
-        <is>
-          <t>Last Month's Status</t>
-        </is>
-      </c>
-      <c r="J17" s="6" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
+        <v>Distance Points for Diamond</v>
+      </c>
+      <c r="O15" s="69"/>
+      <c r="P15" s="68"/>
+      <c r="V15" s="9"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="I16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="28">
+        <v>300</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="9:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="N17" s="1">
         <f t="array" ref="N17:N23">DistancePointsStefan4[Lower]</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O17" s="1">
         <f t="array" ref="O17:O23">DistancePointsStefan4[Upper]</f>
-        <v/>
+        <v>299</v>
       </c>
       <c r="P17" s="1">
         <f t="array" ref="P17:P23">_xlfn.XLOOKUP(J17,DistancePointsStefan4[#Headers],DistancePointsStefan4[])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="I18" s="6" t="inlineStr">
-        <is>
-          <t>Points on No-Drive Day</t>
-        </is>
-      </c>
-      <c r="J18" s="1" t="n"/>
-      <c r="N18" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="O18" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="N18" s="1">
+        <v>300</v>
+      </c>
+      <c r="O18" s="1">
         <v>599</v>
       </c>
-      <c r="P18" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="N19" s="1" t="n">
+      <c r="P18" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="N19" s="1">
         <v>600</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="O19" s="1">
         <v>899</v>
       </c>
-      <c r="P19" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="I20" s="66" t="inlineStr">
-        <is>
-          <t>Calculated Data</t>
-        </is>
-      </c>
-      <c r="J20" s="68" t="n"/>
-      <c r="N20" s="1" t="n">
+      <c r="P19" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I20" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="68"/>
+      <c r="N20" s="1">
         <v>900</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="O20" s="1">
         <v>1199</v>
       </c>
-      <c r="P20" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="I21" s="66" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="J21" s="66" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="N21" s="1" t="n">
+      <c r="P20" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
         <v>1200</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="O21" s="1">
         <v>1499</v>
       </c>
-      <c r="P21" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="I22" s="52">
+      <c r="P21" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I22" s="52" t="str">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v/>
+        <v>Days May 2025</v>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v/>
-      </c>
-      <c r="N22" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="N22" s="1">
         <v>1500</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="O22" s="1">
         <v>1799</v>
       </c>
-      <c r="P22" s="1" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="I23" s="52" t="inlineStr">
-        <is>
-          <t>Days Past</t>
-        </is>
+      <c r="P22" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I23" s="52" t="s">
+        <v>34</v>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v/>
-      </c>
-      <c r="N23" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="N23" s="1">
         <v>1800</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="O23" s="1">
         <v>1800</v>
       </c>
-      <c r="P23" s="1" t="n">
+      <c r="P23" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="24">
-      <c r="I24" s="51" t="inlineStr">
-        <is>
-          <t>Days Left</t>
-        </is>
+    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I24" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="I25" s="53" t="inlineStr">
-        <is>
-          <t>Rem Dist Points</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I25" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v/>
-      </c>
-      <c r="M25" s="66" t="inlineStr">
-        <is>
-          <t>Driving Status</t>
-        </is>
-      </c>
-      <c r="N25" s="67" t="n"/>
-      <c r="O25" s="67" t="n"/>
-      <c r="P25" s="67" t="n"/>
-      <c r="Q25" s="68" t="n"/>
-    </row>
-    <row r="26">
-      <c r="I26" s="55" t="inlineStr">
-        <is>
-          <t>Rem - Dist</t>
-        </is>
+        <v>182</v>
+      </c>
+      <c r="M25" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="68"/>
+    </row>
+    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I26" s="55" t="s">
+        <v>38</v>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v/>
-      </c>
-      <c r="M26" s="66" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="N26" s="66" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="O26" s="66" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="P26" s="66" t="inlineStr">
-        <is>
-          <t>Fuel %</t>
-        </is>
-      </c>
-      <c r="Q26" s="66" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="I27" s="54" t="inlineStr">
-        <is>
-          <t>Distance Upper Limit</t>
-        </is>
+        <v>118</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I27" s="54" t="s">
+        <v>42</v>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v/>
-      </c>
-      <c r="M27" s="34" t="n">
+        <v>1799</v>
+      </c>
+      <c r="M27" s="34">
         <v>0</v>
       </c>
-      <c r="N27" s="23" t="n">
+      <c r="N27" s="23">
         <v>799</v>
       </c>
-      <c r="O27" s="23" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="P27" s="35" t="n">
+      <c r="O27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="35">
         <v>0.05</v>
       </c>
-      <c r="Q27" s="36" t="inlineStr">
-        <is>
-          <t>#8EA9DB</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="I28" s="62" t="inlineStr">
-        <is>
-          <t>Points on No-Drive Day</t>
-        </is>
+      <c r="Q27" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I28" s="62" t="s">
+        <v>32</v>
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
-        <v/>
-      </c>
-      <c r="M28" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="M28" s="37">
         <v>800</v>
       </c>
-      <c r="N28" s="24" t="n">
+      <c r="N28" s="24">
         <v>1599</v>
       </c>
-      <c r="O28" s="24" t="inlineStr">
-        <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="P28" s="38" t="n">
+      <c r="O28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="38">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="39" t="inlineStr">
-        <is>
-          <t>#F4B084</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="I29" s="61" t="inlineStr">
-        <is>
-          <t>Count No-Drive Days</t>
-        </is>
+      <c r="Q28" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I29" s="61" t="s">
+        <v>45</v>
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v/>
-      </c>
-      <c r="M29" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" s="40">
         <v>1600</v>
       </c>
-      <c r="N29" s="25" t="n">
+      <c r="N29" s="25">
         <v>2199</v>
       </c>
-      <c r="O29" s="25" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="P29" s="41" t="n">
+      <c r="O29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="41">
         <v>0.2</v>
       </c>
-      <c r="Q29" s="42" t="inlineStr">
-        <is>
-          <t>#DBDBDB</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="I30" s="60" t="inlineStr">
-        <is>
-          <t>No-Drive Day Points</t>
-        </is>
+      <c r="Q29" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I30" s="60" t="s">
+        <v>47</v>
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v/>
-      </c>
-      <c r="M30" s="43" t="n">
+        <v>100</v>
+      </c>
+      <c r="M30" s="43">
         <v>2200</v>
       </c>
-      <c r="N30" s="44" t="n">
+      <c r="N30" s="44">
         <v>2499</v>
       </c>
-      <c r="O30" s="44" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="P30" s="45" t="n">
+      <c r="O30" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="45">
         <v>0.35</v>
       </c>
-      <c r="Q30" s="46" t="inlineStr">
-        <is>
-          <t>#FFD966</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="I31" s="53" t="inlineStr">
-        <is>
-          <t>Count Drive Days</t>
-        </is>
+      <c r="Q30" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I31" s="53" t="s">
+        <v>49</v>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v/>
-      </c>
-      <c r="M31" s="47" t="n">
+        <v>29</v>
+      </c>
+      <c r="M31" s="47">
         <v>2500</v>
       </c>
-      <c r="N31" s="48" t="n">
+      <c r="N31" s="48">
         <v>3000</v>
       </c>
-      <c r="O31" s="48" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
-      </c>
-      <c r="P31" s="49" t="n">
+      <c r="O31" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" s="49">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="50" t="inlineStr">
-        <is>
-          <t>#D9B3FF</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="I32" s="54" t="inlineStr">
-        <is>
-          <t>Drive Day Points</t>
-        </is>
+      <c r="Q31" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I32" s="54" t="s">
+        <v>51</v>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t>Driving Profile</t>
-        </is>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="I34" s="1" t="inlineStr">
-        <is>
-          <t>Current Drive Points</t>
-        </is>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v/>
+        <v>2732</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="L5:R5"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="L5:R5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="expression" priority="1" dxfId="4">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>$C$12="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="3">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$C$12="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="2">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>$C$12="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="1">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>$C$12="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" dxfId="0">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$C$12="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P23">
-    <cfRule type="expression" priority="6" dxfId="4">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>$J$17="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="3">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$J$17="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="2">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$J$17="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" priority="9" dxfId="1">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$J$17="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$J$17="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="C13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket."/>
-    <dataValidation sqref="J18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" type="whole">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket." sqref="C13" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" sqref="J18" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" scale="32"/>
+  <pageSetup scale="32" orientation="portrait"/>
   <tableParts count="2">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AC34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="2.7109375" customWidth="1" style="70" min="1" max="1"/>
-    <col width="25.140625" bestFit="1" customWidth="1" style="70" min="2" max="2"/>
-    <col width="9.7109375" customWidth="1" style="70" min="3" max="3"/>
-    <col width="2.7109375" customWidth="1" style="70" min="4" max="4"/>
-    <col width="16.140625" customWidth="1" style="71" min="5" max="5"/>
-    <col width="11.140625" bestFit="1" customWidth="1" style="70" min="6" max="6"/>
-    <col width="9.7109375" customWidth="1" style="70" min="7" max="7"/>
-    <col width="2.7109375" customWidth="1" style="70" min="8" max="8"/>
-    <col hidden="1" width="22.42578125" customWidth="1" style="70" min="9" max="9"/>
-    <col hidden="1" width="10.7109375" customWidth="1" style="70" min="10" max="10"/>
-    <col hidden="1" width="2.7109375" customWidth="1" style="70" min="11" max="11"/>
-    <col hidden="1" width="9.7109375" customWidth="1" style="70" min="12" max="14"/>
-    <col hidden="1" width="10.5703125" customWidth="1" style="70" min="15" max="15"/>
-    <col hidden="1" width="9.7109375" customWidth="1" style="70" min="16" max="17"/>
-    <col hidden="1" width="11.42578125" customWidth="1" style="70" min="18" max="18"/>
-    <col hidden="1" width="2.7109375" customWidth="1" style="70" min="19" max="19"/>
-    <col width="9.7109375" customWidth="1" style="5" min="20" max="20"/>
-    <col width="9.7109375" customWidth="1" style="70" min="21" max="23"/>
-    <col width="8.85546875" customWidth="1" style="70" min="24" max="36"/>
-    <col width="8.85546875" customWidth="1" style="70" min="37" max="16384"/>
+    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
+    <col min="12" max="14" width="9.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="9.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
+    <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
+    <col min="24" max="39" width="8.85546875" style="2" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.45" customHeight="1" s="71">
-      <c r="B2" s="69">
+    <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="70" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v/>
-      </c>
-      <c r="H2" s="13" t="n"/>
-    </row>
-    <row r="3" ht="14.45" customHeight="1" s="71">
-      <c r="H3" s="13" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="14" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C5" s="15" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="E5" s="14">
-        <f>TEXT(TODAY(), "mmmm yyyy")</f>
-        <v/>
-      </c>
-      <c r="F5" s="14" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="G5" s="66" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="I5" s="66" t="inlineStr">
-        <is>
-          <t>Python Data</t>
-        </is>
-      </c>
-      <c r="J5" s="68" t="n"/>
-      <c r="L5" s="66" t="inlineStr">
-        <is>
-          <t>Distance Points</t>
-        </is>
-      </c>
-      <c r="M5" s="67" t="n"/>
-      <c r="N5" s="67" t="n"/>
-      <c r="O5" s="67" t="n"/>
-      <c r="P5" s="67" t="n"/>
-      <c r="Q5" s="67" t="n"/>
-      <c r="R5" s="68" t="n"/>
-      <c r="AB5" s="70" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Driving Profile</t>
-        </is>
+        <v>Drive Summary Derrick May 2025</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
+        <v>July 2025</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="68"/>
+      <c r="L5" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="68"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v/>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>Month-to-Date</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v/>
+        <v>1500</v>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v/>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>Drive Penalties</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="n">
+        <v>1392</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="66" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="M6" s="66" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="N6" s="18" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="O6" s="19" t="inlineStr">
-        <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="P6" s="20" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="Q6" s="21" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="R6" s="22" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
-      </c>
-      <c r="AB6" s="8" t="n"/>
-      <c r="AC6" s="8" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Claim Free Years</t>
-        </is>
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="6">
         <f>J15</f>
-        <v/>
-      </c>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>End of Month</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v/>
+        <v>1660.7142857142856</v>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v/>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>Night Penalty</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="n">
+        <v>1541.1428571428571</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="11">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="1">
         <v>299</v>
       </c>
-      <c r="N7" s="23" t="n">
-        <v>300</v>
-      </c>
-      <c r="O7" s="24" t="n">
-        <v>300</v>
-      </c>
-      <c r="P7" s="25" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q7" s="26" t="n">
-        <v>300</v>
-      </c>
-      <c r="R7" s="27" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB7" s="3" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="71" thickBot="1">
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Night Time Driving</t>
-        </is>
+      <c r="N7" s="23">
+        <v>300</v>
+      </c>
+      <c r="O7" s="24">
+        <v>300</v>
+      </c>
+      <c r="P7" s="25">
+        <v>300</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>300</v>
+      </c>
+      <c r="R7" s="27">
+        <v>300</v>
+      </c>
+      <c r="AB7" s="3"/>
+    </row>
+    <row r="8" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v/>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>Daily Average</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v/>
+        <v>53.571428571428569</v>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v/>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>No-Drive Days</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="n">
+        <v>49.714285714285715</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="L8" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="M8" s="1" t="n">
+      <c r="L8" s="11">
+        <v>300</v>
+      </c>
+      <c r="M8" s="1">
         <v>599</v>
       </c>
-      <c r="N8" s="23" t="n">
+      <c r="N8" s="23">
         <v>100</v>
       </c>
-      <c r="O8" s="24" t="n">
+      <c r="O8" s="24">
         <v>150</v>
       </c>
-      <c r="P8" s="25" t="n">
+      <c r="P8" s="25">
         <v>200</v>
       </c>
-      <c r="Q8" s="26" t="n">
+      <c r="Q8" s="26">
         <v>250</v>
       </c>
-      <c r="R8" s="27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="71" thickTop="1">
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Distance Points</t>
-        </is>
+      <c r="R8" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v/>
-      </c>
-      <c r="E9" s="64" t="inlineStr">
-        <is>
-          <t>Remaining</t>
-        </is>
-      </c>
-      <c r="F9" s="63">
+        <v>200</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="63" t="str">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v/>
+        <v>Unlimited</v>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v/>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="J9" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
         <v>1500</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="11">
         <v>600</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="1">
         <v>899</v>
       </c>
-      <c r="N9" s="23" t="n">
+      <c r="N9" s="23">
         <v>75</v>
       </c>
-      <c r="O9" s="24" t="n">
+      <c r="O9" s="24">
         <v>100</v>
       </c>
-      <c r="P9" s="25" t="n">
+      <c r="P9" s="25">
         <v>150</v>
       </c>
-      <c r="Q9" s="26" t="n">
+      <c r="Q9" s="26">
         <v>200</v>
       </c>
-      <c r="R9" s="27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>MultiPoint Check</t>
-        </is>
+      <c r="R9" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="6">
         <f>J16</f>
-        <v/>
-      </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="L10" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="L10" s="11">
         <v>900</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="M10" s="1">
         <v>1199</v>
       </c>
-      <c r="N10" s="23" t="n">
+      <c r="N10" s="23">
         <v>50</v>
       </c>
-      <c r="O10" s="24" t="n">
+      <c r="O10" s="24">
         <v>75</v>
       </c>
-      <c r="P10" s="25" t="n">
+      <c r="P10" s="25">
         <v>100</v>
       </c>
-      <c r="Q10" s="26" t="n">
+      <c r="Q10" s="26">
         <v>175</v>
       </c>
-      <c r="R10" s="27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Accumulated Points</t>
-        </is>
+      <c r="R10" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v/>
-      </c>
-      <c r="I11" s="66" t="inlineStr">
-        <is>
-          <t>Config Data</t>
-        </is>
-      </c>
-      <c r="J11" s="68" t="n"/>
-      <c r="L11" s="11" t="n">
+        <v>2600</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="68"/>
+      <c r="L11" s="11">
         <v>1200</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="1">
         <v>1499</v>
       </c>
-      <c r="N11" s="23" t="n">
+      <c r="N11" s="23">
         <v>25</v>
       </c>
-      <c r="O11" s="24" t="n">
+      <c r="O11" s="24">
         <v>50</v>
       </c>
-      <c r="P11" s="25" t="n">
+      <c r="P11" s="25">
         <v>75</v>
       </c>
-      <c r="Q11" s="26" t="n">
+      <c r="Q11" s="26">
         <v>125</v>
       </c>
-      <c r="R11" s="27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Vitality Drive Status</t>
-        </is>
-      </c>
-      <c r="C12" s="1">
+      <c r="R11" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="str">
         <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
-        <v/>
-      </c>
-      <c r="D12" s="3" t="n"/>
-      <c r="I12" s="66" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="J12" s="66" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="L12" s="11" t="n">
+        <v>Diamond</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="I12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11">
         <v>1500</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="1">
         <v>1799</v>
       </c>
-      <c r="N12" s="23" t="n">
+      <c r="N12" s="23">
         <v>10</v>
       </c>
-      <c r="O12" s="24" t="n">
+      <c r="O12" s="24">
         <v>25</v>
       </c>
-      <c r="P12" s="25" t="n">
+      <c r="P12" s="25">
         <v>50</v>
       </c>
-      <c r="Q12" s="26" t="n">
+      <c r="Q12" s="26">
         <v>100</v>
       </c>
-      <c r="R12" s="27" t="n">
-        <v>250</v>
-      </c>
-      <c r="T12" s="70" t="n"/>
-      <c r="Z12" s="8" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Predict Status</t>
-        </is>
+      <c r="R12" s="27">
+        <v>200</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>Derrick</t>
-        </is>
-      </c>
-      <c r="L13" s="12" t="n">
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="12">
         <v>1800</v>
       </c>
-      <c r="M13" s="10" t="n">
+      <c r="M13" s="10">
         <v>1800</v>
       </c>
-      <c r="N13" s="29" t="n">
+      <c r="N13" s="29">
         <v>5</v>
       </c>
-      <c r="O13" s="30" t="n">
+      <c r="O13" s="30">
         <v>10</v>
       </c>
-      <c r="P13" s="31" t="n">
+      <c r="P13" s="31">
         <v>25</v>
       </c>
-      <c r="Q13" s="32" t="n">
+      <c r="Q13" s="32">
         <v>60</v>
       </c>
-      <c r="R13" s="33" t="n">
+      <c r="R13" s="33">
         <v>100</v>
       </c>
-      <c r="Z13" s="8" t="n"/>
-      <c r="AA13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>Report Date</t>
-        </is>
-      </c>
-      <c r="J14" s="58" t="n">
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="58">
         <v>45805</v>
       </c>
     </row>
-    <row r="15">
-      <c r="D15" s="4" t="n"/>
-      <c r="I15" s="28" t="inlineStr">
-        <is>
-          <t>Claim Free Years</t>
-        </is>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>300</v>
-      </c>
-      <c r="N15" s="66">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="I15" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="6">
+        <v>300</v>
+      </c>
+      <c r="N15" s="67" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
-        <v/>
-      </c>
-      <c r="O15" s="67" t="n"/>
-      <c r="P15" s="68" t="n"/>
-      <c r="V15" s="9" t="n"/>
-      <c r="AA15" s="3" t="n"/>
-      <c r="AB15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="I16" s="28" t="inlineStr">
-        <is>
-          <t>MultiPoint Check</t>
-        </is>
-      </c>
-      <c r="J16" s="28" t="n">
-        <v>300</v>
-      </c>
-      <c r="N16" s="66" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="O16" s="66" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="P16" s="66" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="14.45" customHeight="1" s="71">
-      <c r="I17" s="6" t="inlineStr">
-        <is>
-          <t>Last Month's Status</t>
-        </is>
-      </c>
-      <c r="J17" s="6" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
+        <v>Distance Points for Diamond</v>
+      </c>
+      <c r="O15" s="69"/>
+      <c r="P15" s="68"/>
+      <c r="V15" s="9"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="I16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="28">
+        <v>300</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="9:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="N17" s="1">
         <f t="array" ref="N17:N23">DistancePointsStefan2[Lower]</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O17" s="1">
         <f t="array" ref="O17:O23">DistancePointsStefan2[Upper]</f>
-        <v/>
+        <v>299</v>
       </c>
       <c r="P17" s="1">
         <f t="array" ref="P17:P23">_xlfn.XLOOKUP(J17,DistancePointsStefan2[#Headers],DistancePointsStefan2[])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="I18" s="6" t="inlineStr">
-        <is>
-          <t>Points on No-Drive Day</t>
-        </is>
-      </c>
-      <c r="J18" s="1" t="n"/>
-      <c r="N18" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="O18" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="N18" s="1">
+        <v>300</v>
+      </c>
+      <c r="O18" s="1">
         <v>599</v>
       </c>
-      <c r="P18" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="N19" s="1" t="n">
+      <c r="P18" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="N19" s="1">
         <v>600</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="O19" s="1">
         <v>899</v>
       </c>
-      <c r="P19" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="I20" s="66" t="inlineStr">
-        <is>
-          <t>Calculated Data</t>
-        </is>
-      </c>
-      <c r="J20" s="68" t="n"/>
-      <c r="N20" s="1" t="n">
+      <c r="P19" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I20" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="68"/>
+      <c r="N20" s="1">
         <v>900</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="O20" s="1">
         <v>1199</v>
       </c>
-      <c r="P20" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="I21" s="66" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="J21" s="66" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="N21" s="1" t="n">
+      <c r="P20" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
         <v>1200</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="O21" s="1">
         <v>1499</v>
       </c>
-      <c r="P21" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="I22" s="52">
+      <c r="P21" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I22" s="52" t="str">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v/>
+        <v>Days May 2025</v>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v/>
-      </c>
-      <c r="N22" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="N22" s="1">
         <v>1500</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="O22" s="1">
         <v>1799</v>
       </c>
-      <c r="P22" s="1" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="I23" s="52" t="inlineStr">
-        <is>
-          <t>Days Past</t>
-        </is>
+      <c r="P22" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I23" s="52" t="s">
+        <v>34</v>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v/>
-      </c>
-      <c r="N23" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="N23" s="1">
         <v>1800</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="O23" s="1">
         <v>1800</v>
       </c>
-      <c r="P23" s="1" t="n">
+      <c r="P23" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="24">
-      <c r="I24" s="51" t="inlineStr">
-        <is>
-          <t>Days Left</t>
-        </is>
+    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I24" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="I25" s="53" t="inlineStr">
-        <is>
-          <t>Rem Dist Points</t>
-        </is>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I25" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v/>
-      </c>
-      <c r="M25" s="66" t="inlineStr">
-        <is>
-          <t>Driving Status</t>
-        </is>
-      </c>
-      <c r="N25" s="67" t="n"/>
-      <c r="O25" s="67" t="n"/>
-      <c r="P25" s="67" t="n"/>
-      <c r="Q25" s="68" t="n"/>
-    </row>
-    <row r="26">
-      <c r="I26" s="55" t="inlineStr">
-        <is>
-          <t>Rem - Dist</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="M25" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="68"/>
+    </row>
+    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I26" s="55" t="s">
+        <v>38</v>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v/>
-      </c>
-      <c r="M26" s="66" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="N26" s="66" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="O26" s="66" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="P26" s="66" t="inlineStr">
-        <is>
-          <t>Fuel %</t>
-        </is>
-      </c>
-      <c r="Q26" s="66" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="I27" s="54" t="inlineStr">
-        <is>
-          <t>Distance Upper Limit</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I27" s="54" t="s">
+        <v>42</v>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v/>
-      </c>
-      <c r="M27" s="34" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M27" s="34">
         <v>0</v>
       </c>
-      <c r="N27" s="23" t="n">
+      <c r="N27" s="23">
         <v>799</v>
       </c>
-      <c r="O27" s="23" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="P27" s="35" t="n">
+      <c r="O27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="35">
         <v>0.05</v>
       </c>
-      <c r="Q27" s="36" t="inlineStr">
-        <is>
-          <t>#8EA9DB</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="I28" s="62" t="inlineStr">
-        <is>
-          <t>Points on No-Drive Day</t>
-        </is>
+      <c r="Q27" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I28" s="62" t="s">
+        <v>32</v>
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
-        <v/>
-      </c>
-      <c r="M28" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="M28" s="37">
         <v>800</v>
       </c>
-      <c r="N28" s="24" t="n">
+      <c r="N28" s="24">
         <v>1599</v>
       </c>
-      <c r="O28" s="24" t="inlineStr">
-        <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="P28" s="38" t="n">
+      <c r="O28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="38">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="39" t="inlineStr">
-        <is>
-          <t>#F4B084</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="I29" s="61" t="inlineStr">
-        <is>
-          <t>Count No-Drive Days</t>
-        </is>
+      <c r="Q28" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I29" s="61" t="s">
+        <v>45</v>
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v/>
-      </c>
-      <c r="M29" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" s="40">
         <v>1600</v>
       </c>
-      <c r="N29" s="25" t="n">
+      <c r="N29" s="25">
         <v>2199</v>
       </c>
-      <c r="O29" s="25" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="P29" s="41" t="n">
+      <c r="O29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="41">
         <v>0.2</v>
       </c>
-      <c r="Q29" s="42" t="inlineStr">
-        <is>
-          <t>#DBDBDB</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="I30" s="60" t="inlineStr">
-        <is>
-          <t>No-Drive Day Points</t>
-        </is>
+      <c r="Q29" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I30" s="60" t="s">
+        <v>47</v>
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v/>
-      </c>
-      <c r="M30" s="43" t="n">
+        <v>200</v>
+      </c>
+      <c r="M30" s="43">
         <v>2200</v>
       </c>
-      <c r="N30" s="44" t="n">
+      <c r="N30" s="44">
         <v>2499</v>
       </c>
-      <c r="O30" s="44" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="P30" s="45" t="n">
+      <c r="O30" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="45">
         <v>0.35</v>
       </c>
-      <c r="Q30" s="46" t="inlineStr">
-        <is>
-          <t>#FFD966</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="I31" s="53" t="inlineStr">
-        <is>
-          <t>Count Drive Days</t>
-        </is>
+      <c r="Q30" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I31" s="53" t="s">
+        <v>49</v>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v/>
-      </c>
-      <c r="M31" s="47" t="n">
+        <v>24</v>
+      </c>
+      <c r="M31" s="47">
         <v>2500</v>
       </c>
-      <c r="N31" s="48" t="n">
+      <c r="N31" s="48">
         <v>3000</v>
       </c>
-      <c r="O31" s="48" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
-      </c>
-      <c r="P31" s="49" t="n">
+      <c r="O31" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" s="49">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="50" t="inlineStr">
-        <is>
-          <t>#D9B3FF</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="I32" s="54" t="inlineStr">
-        <is>
-          <t>Drive Day Points</t>
-        </is>
+      <c r="Q31" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I32" s="54" t="s">
+        <v>51</v>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t>Driving Profile</t>
-        </is>
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="I34" s="1" t="inlineStr">
-        <is>
-          <t>Current Drive Points</t>
-        </is>
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v/>
+        <v>2492</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="L5:R5"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="L5:R5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="expression" priority="1" dxfId="4">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$C$12="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="3">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$C$12="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="2">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$C$12="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="1">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$C$12="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" dxfId="0">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C$12="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P23">
-    <cfRule type="expression" priority="6" dxfId="4">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$J$17="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="3">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$J$17="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="2">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$J$17="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" priority="9" dxfId="1">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>$J$17="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>$J$17="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="C13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket."/>
-    <dataValidation sqref="J18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" type="whole">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket." sqref="C13" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" sqref="J18" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" scale="32"/>
+  <pageSetup scale="32" orientation="portrait"/>
   <tableParts count="2">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DriveSummaryPython.xlsx
+++ b/DriveSummaryPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveDashboardPython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_1A3F6660C07985319E12EDDF673E1B693402463A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8C3C3C-3CCC-43AD-8C86-EDD487D898CA}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_DB39929DDFC906A18BDB1C1AE1FF92D54060565A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E40CFE83-1D57-40FE-8657-3A69EF504D65}"/>
   <bookViews>
-    <workbookView xWindow="-4140" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="-16200" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stefan" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="59">
   <si>
     <t>Description</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>Derrick</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Speed 15 is only</t>
+  </si>
+  <si>
+    <t>dws Drive pen</t>
   </si>
 </sst>
 </file>
@@ -216,7 +228,7 @@
     <numFmt numFmtId="164" formatCode="[$R-1C09]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +268,14 @@
       <color theme="1"/>
       <name val="72 Monospace"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -569,7 +589,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -762,18 +782,22 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Blue" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -3235,7 +3259,7 @@
   <dimension ref="B2:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K35"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,29 +3282,29 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="39" width="8.85546875" style="2" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="42" width="8.85546875" style="2" customWidth="1"/>
+    <col min="43" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="str">
+      <c r="B2" s="69" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v>Drive Summary Stefan June 2025</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+        <v>Drive Summary Stefan July 2025</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="71"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -3300,21 +3324,21 @@
       <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="66" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="68"/>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
       <c r="R5" s="68"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -3322,25 +3346,25 @@
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v>1444</v>
+        <v>1500</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1731.587</v>
+        <v>1052.94</v>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1444</v>
+        <v>762</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="1">
-        <f>46+8</f>
-        <v>54</v>
+        <f>45-9</f>
+        <v>36</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>9</v>
@@ -3380,11 +3404,11 @@
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>1731.587</v>
+        <v>2040.0712500000002</v>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1444</v>
+        <v>1476.375</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
@@ -3428,11 +3452,11 @@
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>57.719566666666665</v>
+        <v>65.808750000000003</v>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>48.133333333333333</v>
+        <v>47.625</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>21</v>
@@ -3468,24 +3492,24 @@
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="63" t="str">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>67.413000000000011</v>
+        <v>Unlimited</v>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="6">
-        <v>1731.587</v>
+        <v>1052.94</v>
       </c>
       <c r="L9" s="11">
         <v>600</v>
@@ -3546,9 +3570,9 @@
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2544</v>
-      </c>
-      <c r="I11" s="67" t="s">
+        <v>2700</v>
+      </c>
+      <c r="I11" s="66" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="68"/>
@@ -3655,7 +3679,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="58">
-        <v>45838</v>
+        <v>45854</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
@@ -3666,11 +3690,11 @@
       <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="N15" s="67" t="str">
+      <c r="N15" s="66" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
         <v>Distance Points for Diamond</v>
       </c>
-      <c r="O15" s="69"/>
+      <c r="O15" s="67"/>
       <c r="P15" s="68"/>
       <c r="V15" s="9"/>
       <c r="AA15" s="3"/>
@@ -3693,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="9:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="6" t="s">
         <v>31</v>
       </c>
@@ -3713,7 +3737,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I18" s="6" t="s">
         <v>32</v>
       </c>
@@ -3730,7 +3754,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
       <c r="N19" s="1">
         <v>600</v>
       </c>
@@ -3741,8 +3765,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="67" t="s">
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="I20" s="66" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="68"/>
@@ -3756,7 +3780,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I21" s="16" t="s">
         <v>0</v>
       </c>
@@ -3773,14 +3797,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I22" s="52" t="str">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v>Days Jun 2025</v>
+        <v>Days Jul 2025</v>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N22" s="1">
         <v>1500</v>
@@ -3792,13 +3816,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I23" s="52" t="s">
         <v>34</v>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N23" s="1">
         <v>1800</v>
@@ -3810,38 +3834,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I24" s="51" t="s">
         <v>35</v>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I25" s="53" t="s">
         <v>36</v>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>44</v>
-      </c>
-      <c r="M25" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
       <c r="Q25" s="68"/>
     </row>
-    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I26" s="55" t="s">
         <v>38</v>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>9</v>
@@ -3859,13 +3883,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I27" s="54" t="s">
         <v>42</v>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="M27" s="34">
         <v>0</v>
@@ -3883,7 +3907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I28" s="62" t="s">
         <v>32</v>
       </c>
@@ -3907,7 +3931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I29" s="61" t="s">
         <v>45</v>
       </c>
@@ -3931,7 +3955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I30" s="60" t="s">
         <v>47</v>
       </c>
@@ -3955,13 +3979,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E31" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="I31" s="53" t="s">
         <v>49</v>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M31" s="47">
         <v>2500</v>
@@ -3979,43 +4006,61 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
       <c r="I32" s="54" t="s">
         <v>51</v>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E34" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="73">
+        <v>-9</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2544</v>
+        <v>1962</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
     <cfRule type="expression" dxfId="29" priority="1">
@@ -4059,10 +4104,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="43" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="43" orientation="landscape"/>
   <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4098,29 +4143,29 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="39" width="8.85546875" style="2" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="42" width="8.85546875" style="2" customWidth="1"/>
+    <col min="43" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="str">
+      <c r="B2" s="69" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
         <v>Drive Summary Christiaan May 2025</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="71"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -4140,21 +4185,21 @@
       <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="66" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="68"/>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
       <c r="R5" s="68"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -4387,7 +4432,7 @@
         <f>SUM(C6:C10)</f>
         <v>2682</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="66" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="68"/>
@@ -4505,11 +4550,11 @@
       <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="N15" s="67" t="str">
+      <c r="N15" s="66" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
         <v>Distance Points for Diamond</v>
       </c>
-      <c r="O15" s="69"/>
+      <c r="O15" s="67"/>
       <c r="P15" s="68"/>
       <c r="V15" s="9"/>
       <c r="AA15" s="3"/>
@@ -4579,7 +4624,7 @@
       </c>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="66" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="68"/>
@@ -4664,12 +4709,12 @@
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
         <v>182</v>
       </c>
-      <c r="M25" s="67" t="s">
+      <c r="M25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
       <c r="Q25" s="68"/>
     </row>
     <row r="26" spans="9:17" x14ac:dyDescent="0.25">
@@ -4845,14 +4890,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
     <cfRule type="expression" dxfId="19" priority="1">
@@ -4935,29 +4980,29 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="39" width="8.85546875" style="2" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="42" width="8.85546875" style="2" customWidth="1"/>
+    <col min="43" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="str">
+      <c r="B2" s="69" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
         <v>Drive Summary Derrick May 2025</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="71"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -4977,21 +5022,21 @@
       <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="66" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="68"/>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
       <c r="R5" s="68"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -5224,7 +5269,7 @@
         <f>SUM(C6:C10)</f>
         <v>2600</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="66" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="68"/>
@@ -5342,11 +5387,11 @@
       <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="N15" s="67" t="str">
+      <c r="N15" s="66" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
         <v>Distance Points for Diamond</v>
       </c>
-      <c r="O15" s="69"/>
+      <c r="O15" s="67"/>
       <c r="P15" s="68"/>
       <c r="V15" s="9"/>
       <c r="AA15" s="3"/>
@@ -5416,7 +5461,7 @@
       </c>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="66" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="68"/>
@@ -5501,12 +5546,12 @@
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
         <v>100</v>
       </c>
-      <c r="M25" s="67" t="s">
+      <c r="M25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
       <c r="Q25" s="68"/>
     </row>
     <row r="26" spans="9:17" x14ac:dyDescent="0.25">
@@ -5682,14 +5727,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/DriveSummaryPython.xlsx
+++ b/DriveSummaryPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveDashboardPython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_DB39929DDFC906A18BDB1C1AE1FF92D54060565A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E40CFE83-1D57-40FE-8657-3A69EF504D65}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F3BD3F85E4EDE6FC0854EB8D43DF9FB6B8225A81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92E20906-125E-4993-BEB0-ED5F8549470F}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="-16200" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stefan" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
   <si>
     <t>Description</t>
   </si>
@@ -206,18 +206,6 @@
   </si>
   <si>
     <t>Derrick</t>
-  </si>
-  <si>
-    <t>Missed</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Speed 15 is only</t>
-  </si>
-  <si>
-    <t>dws Drive pen</t>
   </si>
 </sst>
 </file>
@@ -782,6 +770,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -794,10 +786,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Blue" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -3259,7 +3247,7 @@
   <dimension ref="B2:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3282,29 +3270,29 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="42" width="8.85546875" style="2" customWidth="1"/>
-    <col min="43" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="43" width="8.85546875" style="2" customWidth="1"/>
+    <col min="44" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="str">
+      <c r="B2" s="71" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v>Drive Summary Stefan July 2025</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+        <v>Drive Summary Stefan August 2025</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -3316,7 +3304,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>July 2025</v>
+        <v>September 2025</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>
@@ -3324,21 +3312,21 @@
       <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="L5" s="66" t="s">
+      <c r="J5" s="70"/>
+      <c r="L5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="68"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -3353,18 +3341,17 @@
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1052.94</v>
+        <v>905.95864092000011</v>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>762</v>
+        <v>1513</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="1">
-        <f>45-9</f>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>9</v>
@@ -3404,11 +3391,11 @@
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>2040.0712500000002</v>
+        <v>905.95864092000011</v>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1476.375</v>
+        <v>1513</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
@@ -3452,17 +3439,17 @@
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>65.808750000000003</v>
+        <v>29.224472287741939</v>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>47.625</v>
+        <v>48.806451612903224</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L8" s="11">
         <v>300</v>
@@ -3503,13 +3490,13 @@
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="6">
-        <v>1052.94</v>
+        <v>905.95864092000011</v>
       </c>
       <c r="L9" s="11">
         <v>600</v>
@@ -3572,10 +3559,10 @@
         <f>SUM(C6:C10)</f>
         <v>2700</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="70"/>
       <c r="L11" s="11">
         <v>1200</v>
       </c>
@@ -3679,7 +3666,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="58">
-        <v>45854</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
@@ -3690,12 +3677,12 @@
       <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="N15" s="66" t="str">
+      <c r="N15" s="68" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
         <v>Distance Points for Diamond</v>
       </c>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
       <c r="V15" s="9"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -3742,7 +3729,7 @@
         <v>32</v>
       </c>
       <c r="J18" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N18" s="1">
         <v>300</v>
@@ -3766,10 +3753,10 @@
       </c>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="68"/>
+      <c r="J20" s="70"/>
       <c r="N20" s="1">
         <v>900</v>
       </c>
@@ -3800,7 +3787,7 @@
     <row r="22" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I22" s="52" t="str">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v>Days Jul 2025</v>
+        <v>Days Aug 2025</v>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
@@ -3822,7 +3809,7 @@
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N23" s="1">
         <v>1800</v>
@@ -3840,7 +3827,7 @@
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:17" x14ac:dyDescent="0.25">
@@ -3851,13 +3838,13 @@
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
         <v>200</v>
       </c>
-      <c r="M25" s="66" t="s">
+      <c r="M25" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="68"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="70"/>
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I26" s="55" t="s">
@@ -3913,7 +3900,7 @@
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M28" s="37">
         <v>800</v>
@@ -3937,7 +3924,7 @@
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M29" s="40">
         <v>1600</v>
@@ -3961,7 +3948,7 @@
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>48</v>
+        <v>1029</v>
       </c>
       <c r="M30" s="43">
         <v>2200</v>
@@ -3980,15 +3967,13 @@
       </c>
     </row>
     <row r="31" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E31" s="72" t="s">
-        <v>55</v>
-      </c>
+      <c r="E31" s="66"/>
       <c r="I31" s="53" t="s">
         <v>49</v>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M31" s="47">
         <v>2500</v>
@@ -4007,48 +3992,32 @@
       </c>
     </row>
     <row r="32" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="2">
-        <v>3</v>
-      </c>
       <c r="I32" s="54" t="s">
         <v>51</v>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>714</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="2">
-        <v>3</v>
-      </c>
       <c r="I33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>762</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E34" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="73">
-        <v>-9</v>
-      </c>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
       <c r="I34" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>1962</v>
+        <v>2713</v>
       </c>
     </row>
   </sheetData>
@@ -4143,29 +4112,29 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="42" width="8.85546875" style="2" customWidth="1"/>
-    <col min="43" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="43" width="8.85546875" style="2" customWidth="1"/>
+    <col min="44" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="str">
+      <c r="B2" s="71" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
         <v>Drive Summary Christiaan May 2025</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -4177,7 +4146,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>July 2025</v>
+        <v>September 2025</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>
@@ -4185,21 +4154,21 @@
       <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="L5" s="66" t="s">
+      <c r="J5" s="70"/>
+      <c r="L5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="68"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -4432,10 +4401,10 @@
         <f>SUM(C6:C10)</f>
         <v>2682</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="70"/>
       <c r="L11" s="11">
         <v>1200</v>
       </c>
@@ -4550,12 +4519,12 @@
       <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="N15" s="66" t="str">
+      <c r="N15" s="68" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
         <v>Distance Points for Diamond</v>
       </c>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
       <c r="V15" s="9"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -4624,10 +4593,10 @@
       </c>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="68"/>
+      <c r="J20" s="70"/>
       <c r="N20" s="1">
         <v>900</v>
       </c>
@@ -4709,13 +4678,13 @@
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
         <v>182</v>
       </c>
-      <c r="M25" s="66" t="s">
+      <c r="M25" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="68"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="70"/>
     </row>
     <row r="26" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I26" s="55" t="s">
@@ -4980,29 +4949,29 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="42" width="8.85546875" style="2" customWidth="1"/>
-    <col min="43" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="43" width="8.85546875" style="2" customWidth="1"/>
+    <col min="44" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="str">
+      <c r="B2" s="71" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
         <v>Drive Summary Derrick May 2025</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -5014,7 +4983,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>July 2025</v>
+        <v>September 2025</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>
@@ -5022,21 +4991,21 @@
       <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="L5" s="66" t="s">
+      <c r="J5" s="70"/>
+      <c r="L5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="68"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -5269,10 +5238,10 @@
         <f>SUM(C6:C10)</f>
         <v>2600</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="70"/>
       <c r="L11" s="11">
         <v>1200</v>
       </c>
@@ -5387,12 +5356,12 @@
       <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="N15" s="66" t="str">
+      <c r="N15" s="68" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
         <v>Distance Points for Diamond</v>
       </c>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
       <c r="V15" s="9"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -5461,10 +5430,10 @@
       </c>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="68"/>
+      <c r="J20" s="70"/>
       <c r="N20" s="1">
         <v>900</v>
       </c>
@@ -5546,13 +5515,13 @@
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
         <v>100</v>
       </c>
-      <c r="M25" s="66" t="s">
+      <c r="M25" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="68"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="70"/>
     </row>
     <row r="26" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I26" s="55" t="s">

--- a/DriveSummaryPython.xlsx
+++ b/DriveSummaryPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveDashboardPython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F3BD3F85E4EDE6FC0854EB8D43DF9FB6B8225A81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92E20906-125E-4993-BEB0-ED5F8549470F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_827B1A28EC29E536E13BCA8A87AF1E0808C0452D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03019B32-D834-48E8-BB07-1E79455A56B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="-16320" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stefan" sheetId="1" r:id="rId1"/>
@@ -3270,14 +3270,14 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="43" width="8.85546875" style="2" customWidth="1"/>
-    <col min="44" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="44" width="8.85546875" style="2" customWidth="1"/>
+    <col min="45" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v>Drive Summary Stefan August 2025</v>
+        <v>Drive Summary Stefan September 2025</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>September 2025</v>
+        <v>October 2025</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>
@@ -3334,24 +3334,24 @@
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v>1500</v>
+        <v>1420</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>905.95864092000011</v>
+        <v>1601.64</v>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1513</v>
+        <v>1420</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="1">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>9</v>
@@ -3391,11 +3391,11 @@
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>905.95864092000011</v>
+        <v>1601.64</v>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1513</v>
+        <v>1420</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
@@ -3439,17 +3439,17 @@
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>29.224472287741939</v>
+        <v>53.388000000000005</v>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>48.806451612903224</v>
+        <v>47.333333333333336</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L8" s="11">
         <v>300</v>
@@ -3479,14 +3479,14 @@
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="63" t="str">
+      <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>Unlimited</v>
+        <v>197.3599999999999</v>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
@@ -3496,7 +3496,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="6">
-        <v>905.95864092000011</v>
+        <v>1601.64</v>
       </c>
       <c r="L9" s="11">
         <v>600</v>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2700</v>
+        <v>2520</v>
       </c>
       <c r="I11" s="68" t="s">
         <v>25</v>
@@ -3666,7 +3666,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="58">
-        <v>45900</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
@@ -3787,11 +3787,11 @@
     <row r="22" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I22" s="52" t="str">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v>Days Aug 2025</v>
+        <v>Days Sept 2025</v>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22" s="1">
         <v>1500</v>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23" s="1">
         <v>1800</v>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="M25" s="68" t="s">
         <v>37</v>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>9</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="M27" s="34">
         <v>0</v>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M29" s="40">
         <v>1600</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>1029</v>
+        <v>0</v>
       </c>
       <c r="M30" s="43">
         <v>2200</v>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M31" s="47">
         <v>2500</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>484</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1513</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2713</v>
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -4112,8 +4112,8 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="43" width="8.85546875" style="2" customWidth="1"/>
-    <col min="44" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="44" width="8.85546875" style="2" customWidth="1"/>
+    <col min="45" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>September 2025</v>
+        <v>October 2025</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>
@@ -4949,8 +4949,8 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="43" width="8.85546875" style="2" customWidth="1"/>
-    <col min="44" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="44" width="8.85546875" style="2" customWidth="1"/>
+    <col min="45" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>September 2025</v>
+        <v>October 2025</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>

--- a/DriveSummaryPython.xlsx
+++ b/DriveSummaryPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveDashboardPython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_827B1A28EC29E536E13BCA8A87AF1E0808C0452D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03019B32-D834-48E8-BB07-1E79455A56B0}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_427DDE56BB5526123A72B3FED2EE9631FC814DB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712699E0-2363-4D96-B6A9-C60236951738}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="-16320" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4140" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stefan" sheetId="1" r:id="rId1"/>
@@ -3246,8 +3246,8 @@
   </sheetPr>
   <dimension ref="B2:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,8 +3270,8 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="44" width="8.85546875" style="2" customWidth="1"/>
-    <col min="45" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="45" width="8.85546875" style="2" customWidth="1"/>
+    <col min="46" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4112,8 +4112,8 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="44" width="8.85546875" style="2" customWidth="1"/>
-    <col min="45" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="45" width="8.85546875" style="2" customWidth="1"/>
+    <col min="46" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4925,8 +4925,8 @@
   </sheetPr>
   <dimension ref="B2:AC34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6:V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4949,14 +4949,14 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="44" width="8.85546875" style="2" customWidth="1"/>
-    <col min="45" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="45" width="8.85546875" style="2" customWidth="1"/>
+    <col min="46" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v>Drive Summary Derrick May 2025</v>
+        <v>Drive Summary Derrick October 2025</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -5020,17 +5020,17 @@
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1500</v>
+        <v>1412.046</v>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1392</v>
+        <v>984</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>9</v>
@@ -5070,17 +5070,17 @@
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>1660.7142857142856</v>
+        <v>2188.6713</v>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1541.1428571428571</v>
+        <v>1525.2</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L7" s="11">
         <v>0</v>
@@ -5111,24 +5111,24 @@
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>53.571428571428569</v>
+        <v>70.6023</v>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>49.714285714285715</v>
+        <v>49.2</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" s="11">
         <v>300</v>
@@ -5158,24 +5158,24 @@
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="63" t="str">
+      <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>Unlimited</v>
+        <v>386.95399999999995</v>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="1">
-        <v>1500</v>
+        <v>1412.046</v>
       </c>
       <c r="L9" s="11">
         <v>600</v>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2600</v>
+        <v>2682</v>
       </c>
       <c r="I11" s="68" t="s">
         <v>25</v>
@@ -5345,7 +5345,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="58">
-        <v>45805</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
@@ -5407,7 +5407,9 @@
       <c r="I18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>50</v>
+      </c>
       <c r="N18" s="1">
         <v>300</v>
       </c>
@@ -5464,7 +5466,7 @@
     <row r="22" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I22" s="52" t="str">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v>Days May 2025</v>
+        <v>Days Oct 2025</v>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
@@ -5486,7 +5488,7 @@
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N23" s="1">
         <v>1800</v>
@@ -5504,7 +5506,7 @@
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="9:17" x14ac:dyDescent="0.25">
@@ -5513,7 +5515,7 @@
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="M25" s="68" t="s">
         <v>37</v>
@@ -5529,7 +5531,7 @@
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>9</v>
@@ -5553,7 +5555,7 @@
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="M27" s="34">
         <v>0</v>
@@ -5601,7 +5603,7 @@
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M29" s="40">
         <v>1600</v>
@@ -5625,7 +5627,7 @@
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M30" s="43">
         <v>2200</v>
@@ -5649,7 +5651,7 @@
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M31" s="47">
         <v>2500</v>
@@ -5673,7 +5675,7 @@
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>1192</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.25">
@@ -5682,7 +5684,7 @@
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1392</v>
+        <v>984</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.25">
@@ -5691,7 +5693,7 @@
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2492</v>
+        <v>2166</v>
       </c>
     </row>
   </sheetData>

--- a/DriveSummaryPython.xlsx
+++ b/DriveSummaryPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveDashboardPython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_427DDE56BB5526123A72B3FED2EE9631FC814DB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712699E0-2363-4D96-B6A9-C60236951738}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_D2F97F45F831E725A25952B1A19F1E25E084537D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4140" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4140" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stefan" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="Username" localSheetId="0">Stefan!$J$21</definedName>
     <definedName name="Username">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="66">
   <si>
     <t>Description</t>
   </si>
@@ -203,6 +203,39 @@
   </si>
   <si>
     <t>Christiaan</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Saterdag</t>
+  </si>
+  <si>
+    <t>Lost all points for the day</t>
+  </si>
+  <si>
+    <t>Maandag</t>
+  </si>
+  <si>
+    <t>Accel</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Same day as speeding, all points anyway lost</t>
+  </si>
+  <si>
+    <t>Braking</t>
+  </si>
+  <si>
+    <t>Other day, add pen</t>
   </si>
   <si>
     <t>Derrick</t>
@@ -577,7 +610,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,6 +806,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3246,8 +3282,8 @@
   </sheetPr>
   <dimension ref="B2:AC34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,29 +3306,29 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="45" width="8.85546875" style="2" customWidth="1"/>
-    <col min="46" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="46" width="8.85546875" style="2" customWidth="1"/>
+    <col min="47" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="72" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v>Drive Summary Stefan September 2025</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+        <v>Drive Summary Stefan October 2025</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -3304,7 +3340,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>October 2025</v>
+        <v>November 2025</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>
@@ -3312,21 +3348,21 @@
       <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="L5" s="68" t="s">
+      <c r="J5" s="71"/>
+      <c r="L5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="71"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -3334,24 +3370,24 @@
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v>1420</v>
+        <v>1500</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1601.64</v>
+        <v>1449.6579999999999</v>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1420</v>
+        <v>1540</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="1">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>9</v>
@@ -3391,17 +3427,17 @@
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>1601.64</v>
+        <v>1449.6579999999999</v>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1420</v>
+        <v>1540</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="L7" s="11">
         <v>0</v>
@@ -3432,24 +3468,24 @@
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>53.388000000000005</v>
+        <v>46.763161290322579</v>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>47.333333333333336</v>
+        <v>49.677419354838712</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="11">
         <v>300</v>
@@ -3479,14 +3515,14 @@
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="64" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>197.3599999999999</v>
+        <v>349.3420000000001</v>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
@@ -3496,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="6">
-        <v>1601.64</v>
+        <v>1449.6579999999999</v>
       </c>
       <c r="L9" s="11">
         <v>600</v>
@@ -3557,12 +3593,12 @@
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2520</v>
-      </c>
-      <c r="I11" s="68" t="s">
+        <v>2618</v>
+      </c>
+      <c r="I11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="71"/>
       <c r="L11" s="11">
         <v>1200</v>
       </c>
@@ -3666,7 +3702,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="58">
-        <v>45930</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
@@ -3677,12 +3713,12 @@
       <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="N15" s="68" t="str">
+      <c r="N15" s="69" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
         <v>Distance Points for Diamond</v>
       </c>
-      <c r="O15" s="69"/>
-      <c r="P15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="71"/>
       <c r="V15" s="9"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -3753,10 +3789,10 @@
       </c>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="68" t="s">
+      <c r="I20" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="N20" s="1">
         <v>900</v>
       </c>
@@ -3787,11 +3823,11 @@
     <row r="22" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I22" s="52" t="str">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v>Days Sept 2025</v>
+        <v>Days Oct 2025</v>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N22" s="1">
         <v>1500</v>
@@ -3809,7 +3845,7 @@
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N23" s="1">
         <v>1800</v>
@@ -3836,15 +3872,15 @@
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>20</v>
-      </c>
-      <c r="M25" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="71"/>
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I26" s="55" t="s">
@@ -3852,7 +3888,7 @@
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>9</v>
@@ -3924,7 +3960,7 @@
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29" s="40">
         <v>1600</v>
@@ -3948,7 +3984,7 @@
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="M30" s="43">
         <v>2200</v>
@@ -3973,7 +4009,7 @@
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M31" s="47">
         <v>2500</v>
@@ -3997,7 +4033,7 @@
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>1420</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
@@ -4006,7 +4042,7 @@
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1420</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
@@ -4017,7 +4053,7 @@
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2520</v>
+        <v>2658</v>
       </c>
     </row>
   </sheetData>
@@ -4112,29 +4148,29 @@
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="45" width="8.85546875" style="2" customWidth="1"/>
-    <col min="46" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="46" width="8.85546875" style="2" customWidth="1"/>
+    <col min="47" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="72" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
         <v>Drive Summary Christiaan May 2025</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="13"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -4146,7 +4182,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>October 2025</v>
+        <v>November 2025</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>
@@ -4154,21 +4190,21 @@
       <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="L5" s="68" t="s">
+      <c r="J5" s="71"/>
+      <c r="L5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="71"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -4401,10 +4437,10 @@
         <f>SUM(C6:C10)</f>
         <v>2682</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="71"/>
       <c r="L11" s="11">
         <v>1200</v>
       </c>
@@ -4519,12 +4555,12 @@
       <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="N15" s="68" t="str">
+      <c r="N15" s="69" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
         <v>Distance Points for Diamond</v>
       </c>
-      <c r="O15" s="69"/>
-      <c r="P15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="71"/>
       <c r="V15" s="9"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -4593,10 +4629,10 @@
       </c>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="68" t="s">
+      <c r="I20" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="N20" s="1">
         <v>900</v>
       </c>
@@ -4678,13 +4714,13 @@
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
         <v>182</v>
       </c>
-      <c r="M25" s="68" t="s">
+      <c r="M25" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="71"/>
     </row>
     <row r="26" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I26" s="55" t="s">
@@ -4923,10 +4959,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AC34"/>
+  <dimension ref="B2:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6:V19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4948,33 +4984,33 @@
     <col min="18" max="18" width="11.42578125" style="2" customWidth="1"/>
     <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
-    <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="45" width="8.85546875" style="2" customWidth="1"/>
-    <col min="46" max="16384" width="8.85546875" style="2"/>
+    <col min="21" max="24" width="9.7109375" style="2" customWidth="1"/>
+    <col min="25" max="47" width="8.85546875" style="2" customWidth="1"/>
+    <col min="48" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="str">
+    <row r="2" spans="2:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="72" t="str">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
         <v>Drive Summary Derrick October 2025</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+    <row r="3" spans="2:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
@@ -4983,7 +5019,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>October 2025</v>
+        <v>November 2025</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>
@@ -4991,23 +5027,26 @@
       <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="L5" s="68" t="s">
+      <c r="J5" s="71"/>
+      <c r="L5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="71"/>
+      <c r="W5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5020,17 +5059,17 @@
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1412.046</v>
+        <v>1449.6579999999999</v>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>984</v>
+        <v>1542</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>9</v>
@@ -5053,10 +5092,25 @@
       <c r="R6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="8"/>
+      <c r="U6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="2">
+        <v>50</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" s="68" t="s">
+        <v>58</v>
+      </c>
       <c r="AC6" s="8"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD6" s="8"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5070,17 +5124,17 @@
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>2188.6713</v>
+        <v>1449.6579999999999</v>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1525.2</v>
+        <v>1542</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="1">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="L7" s="11">
         <v>0</v>
@@ -5103,32 +5157,44 @@
       <c r="R7" s="27">
         <v>300</v>
       </c>
-      <c r="AB7" s="3"/>
-    </row>
-    <row r="8" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="2">
+        <v>50</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="2:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>70.6023</v>
+        <v>46.763161290322579</v>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>49.2</v>
+        <v>49.741935483870968</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="11">
         <v>300</v>
@@ -5151,8 +5217,20 @@
       <c r="R8" s="27">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="2:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W8" s="2">
+        <v>8</v>
+      </c>
+      <c r="X8" s="68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -5165,17 +5243,17 @@
       </c>
       <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>386.95399999999995</v>
+        <v>349.3420000000001</v>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="1">
-        <v>1412.046</v>
+      <c r="J9" s="6">
+        <v>1449.6579999999999</v>
       </c>
       <c r="L9" s="11">
         <v>600</v>
@@ -5198,8 +5276,20 @@
       <c r="R9" s="27">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="U9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" s="2">
+        <v>8</v>
+      </c>
+      <c r="X9" s="68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -5230,18 +5320,18 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2682</v>
-      </c>
-      <c r="I11" s="68" t="s">
+        <v>2618</v>
+      </c>
+      <c r="I11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="71"/>
       <c r="L11" s="11">
         <v>1200</v>
       </c>
@@ -5264,7 +5354,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
@@ -5301,20 +5391,20 @@
         <v>200</v>
       </c>
       <c r="T12" s="2"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="b">
+      <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="L13" s="12">
         <v>1800</v>
@@ -5337,18 +5427,18 @@
       <c r="R13" s="33">
         <v>100</v>
       </c>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="3"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="58">
-        <v>45950</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
       <c r="I15" s="28" t="s">
         <v>16</v>
@@ -5356,17 +5446,17 @@
       <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="N15" s="68" t="str">
+      <c r="N15" s="69" t="str">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
         <v>Distance Points for Diamond</v>
       </c>
-      <c r="O15" s="69"/>
-      <c r="P15" s="70"/>
-      <c r="V15" s="9"/>
-      <c r="AA15" s="3"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="71"/>
+      <c r="W15" s="9"/>
       <c r="AB15" s="3"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC15" s="3"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="I16" s="28" t="s">
         <v>23</v>
       </c>
@@ -5432,10 +5522,10 @@
       </c>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="68" t="s">
+      <c r="I20" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="N20" s="1">
         <v>900</v>
       </c>
@@ -5488,7 +5578,7 @@
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N23" s="1">
         <v>1800</v>
@@ -5506,7 +5596,7 @@
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="9:17" x14ac:dyDescent="0.25">
@@ -5515,15 +5605,15 @@
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>182</v>
-      </c>
-      <c r="M25" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="71"/>
     </row>
     <row r="26" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I26" s="55" t="s">
@@ -5531,7 +5621,7 @@
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>9</v>
@@ -5603,7 +5693,7 @@
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29" s="40">
         <v>1600</v>
@@ -5627,7 +5717,7 @@
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M30" s="43">
         <v>2200</v>
@@ -5651,7 +5741,7 @@
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M31" s="47">
         <v>2500</v>
@@ -5675,7 +5765,7 @@
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>984</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.25">
@@ -5684,7 +5774,7 @@
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>984</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.25">
@@ -5693,19 +5783,19 @@
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2166</v>
+        <v>2660</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="AC5:AD5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
     <cfRule type="expression" dxfId="9" priority="1">
@@ -5741,7 +5831,7 @@
       <formula>$J$17="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket." sqref="C13" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" sqref="J18" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>

--- a/DriveSummaryPython.xlsx
+++ b/DriveSummaryPython.xlsx
@@ -1,338 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveDashboardPython/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_D2F97F45F831E725A25952B1A19F1E25E084537D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-4140" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Stefan" sheetId="1" r:id="rId1"/>
-    <sheet name="Christiaan" sheetId="2" r:id="rId2"/>
-    <sheet name="Derrick" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stefan" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Christiaan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Derrick" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Username">#REF!</definedName>
+    <definedName name="Username" localSheetId="0">Stefan!$J$21</definedName>
     <definedName name="Username" localSheetId="1">Christiaan!$J$21</definedName>
     <definedName name="Username" localSheetId="2">Derrick!$J$21</definedName>
-    <definedName name="Username" localSheetId="0">Stefan!$J$21</definedName>
-    <definedName name="Username">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" fullCalcOnLoad="1" iterateDelta="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="66">
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Python Data</t>
-  </si>
-  <si>
-    <t>Distance Points</t>
-  </si>
-  <si>
-    <t>Driving Profile</t>
-  </si>
-  <si>
-    <t>Month-to-Date</t>
-  </si>
-  <si>
-    <t>Drive Penalties</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Bronze</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Diamond</t>
-  </si>
-  <si>
-    <t>Claim Free Years</t>
-  </si>
-  <si>
-    <t>End of Month</t>
-  </si>
-  <si>
-    <t>Night Penalty</t>
-  </si>
-  <si>
-    <t>Night Time Driving</t>
-  </si>
-  <si>
-    <t>Daily Average</t>
-  </si>
-  <si>
-    <t>No-Drive Days</t>
-  </si>
-  <si>
-    <t>Remaining</t>
-  </si>
-  <si>
-    <t>MultiPoint Check</t>
-  </si>
-  <si>
-    <t>Accumulated Points</t>
-  </si>
-  <si>
-    <t>Config Data</t>
-  </si>
-  <si>
-    <t>Vitality Drive Status</t>
-  </si>
-  <si>
-    <t>Predict Status</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Report Date</t>
-  </si>
-  <si>
-    <t>Last Month's Status</t>
-  </si>
-  <si>
-    <t>Points on No-Drive Day</t>
-  </si>
-  <si>
-    <t>Calculated Data</t>
-  </si>
-  <si>
-    <t>Days Past</t>
-  </si>
-  <si>
-    <t>Days Left</t>
-  </si>
-  <si>
-    <t>Rem Dist Points</t>
-  </si>
-  <si>
-    <t>Driving Status</t>
-  </si>
-  <si>
-    <t>Rem - Dist</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Fuel %</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Distance Upper Limit</t>
-  </si>
-  <si>
-    <t>#8EA9DB</t>
-  </si>
-  <si>
-    <t>#F4B084</t>
-  </si>
-  <si>
-    <t>Count No-Drive Days</t>
-  </si>
-  <si>
-    <t>#DBDBDB</t>
-  </si>
-  <si>
-    <t>No-Drive Day Points</t>
-  </si>
-  <si>
-    <t>#FFD966</t>
-  </si>
-  <si>
-    <t>Count Drive Days</t>
-  </si>
-  <si>
-    <t>#D9B3FF</t>
-  </si>
-  <si>
-    <t>Drive Day Points</t>
-  </si>
-  <si>
-    <t>Current Drive Points</t>
-  </si>
-  <si>
-    <t>Christiaan</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Saterdag</t>
-  </si>
-  <si>
-    <t>Lost all points for the day</t>
-  </si>
-  <si>
-    <t>Maandag</t>
-  </si>
-  <si>
-    <t>Accel</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Same day as speeding, all points anyway lost</t>
-  </si>
-  <si>
-    <t>Braking</t>
-  </si>
-  <si>
-    <t>Other day, add pen</t>
-  </si>
-  <si>
-    <t>Derrick</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$R-1C09]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="22"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="20"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="72 Monospace"/>
       <family val="3"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.09997863704336681"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.3999450666829432"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
+        <fgColor theme="5" tint="0.3999450666829432"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
+        <fgColor theme="6" tint="0.5999633777886288"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.3999450666829432"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -593,243 +370,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="75">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="4" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="4" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="4" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="7" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Blue" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Bronze" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Diamond" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Gold" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Silver" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Blue" xfId="1"/>
+    <cellStyle name="Bronze" xfId="2"/>
+    <cellStyle name="Silver" xfId="3"/>
+    <cellStyle name="Gold" xfId="4"/>
+    <cellStyle name="Diamond" xfId="5"/>
   </cellStyles>
   <dxfs count="115">
     <dxf>
@@ -1044,16 +830,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="72 Monospace"/>
+        <family val="3"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="72 Monospace"/>
-        <family val="3"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center"/>
@@ -1072,16 +858,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1103,16 +889,48 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <name val="Calibri"/>
         <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1135,48 +953,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1227,22 +1013,22 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+          <bgColor theme="2" tint="-0.09997863704336681"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1419,7 +1205,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1436,16 +1222,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="72 Monospace"/>
+        <family val="3"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="72 Monospace"/>
-        <family val="3"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center"/>
@@ -1464,16 +1250,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1495,16 +1281,48 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <name val="Calibri"/>
         <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1527,48 +1345,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1619,22 +1405,22 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+          <bgColor theme="2" tint="-0.09997863704336681"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1811,7 +1597,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -1828,16 +1614,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="72 Monospace"/>
+        <family val="3"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="72 Monospace"/>
-        <family val="3"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center"/>
@@ -1856,16 +1642,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1887,16 +1673,48 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <name val="Calibri"/>
         <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -1919,48 +1737,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -2011,22 +1797,22 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+          <bgColor theme="2" tint="-0.09997863704336681"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -2203,7 +1989,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
@@ -2770,211 +2556,271 @@
     </dxf>
   </dxfs>
   <tableStyles count="22" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 10" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Table Style 1 10" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="113"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 11" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="Table Style 1 11" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 12" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+    <tableStyle name="Table Style 1 12" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="111"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 13" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+    <tableStyle name="Table Style 1 13" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 14" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+    <tableStyle name="Table Style 1 14" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="109"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 15" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
+    <tableStyle name="Table Style 1 15" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 16" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
+    <tableStyle name="Table Style 1 16" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="107"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 17" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
+    <tableStyle name="Table Style 1 17" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 18" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
+    <tableStyle name="Table Style 1 18" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="105"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 19" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
+    <tableStyle name="Table Style 1 19" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 2" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
+    <tableStyle name="Table Style 1 2" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="103"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 20" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
+    <tableStyle name="Table Style 1 20" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 21" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
+    <tableStyle name="Table Style 1 21" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="101"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 22" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0E000000}">
+    <tableStyle name="Table Style 1 22" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 3" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF0F000000}">
+    <tableStyle name="Table Style 1 3" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="99"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 4" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF10000000}">
+    <tableStyle name="Table Style 1 4" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 5" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF11000000}">
+    <tableStyle name="Table Style 1 5" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="97"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 6" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF12000000}">
+    <tableStyle name="Table Style 1 6" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 7" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF13000000}">
+    <tableStyle name="Table Style 1 7" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="95"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 8" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF14000000}">
+    <tableStyle name="Table Style 1 8" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Table Style 1 9" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF15000000}">
+    <tableStyle name="Table Style 1 9" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="93"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DistancePointsStefan615" displayName="DistancePointsStefan615" ref="L6:R13" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="88">
-  <autoFilter ref="L6:R13" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DistancePointsStefan615" displayName="DistancePointsStefan615" ref="L6:R13" headerRowCount="1" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="88">
+  <autoFilter ref="L6:R13">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="5" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="6" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Lower" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Upper" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Blue" dataDxfId="85" dataCellStyle="Blue"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Bronze" dataDxfId="84" dataCellStyle="Bronze"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Silver" dataDxfId="83" dataCellStyle="Silver"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Gold" dataDxfId="82" dataCellStyle="Gold"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Diamond" dataDxfId="81" dataCellStyle="Diamond"/>
+    <tableColumn id="1" name="Lower" dataDxfId="87"/>
+    <tableColumn id="2" name="Upper" dataDxfId="86"/>
+    <tableColumn id="3" name="Blue" dataDxfId="85" dataCellStyle="Blue"/>
+    <tableColumn id="4" name="Bronze" dataDxfId="84" dataCellStyle="Bronze"/>
+    <tableColumn id="5" name="Silver" dataDxfId="83" dataCellStyle="Silver"/>
+    <tableColumn id="6" name="Gold" dataDxfId="82" dataCellStyle="Gold"/>
+    <tableColumn id="7" name="Diamond" dataDxfId="81" dataCellStyle="Diamond"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="DrivingStatusStefan716" displayName="DrivingStatusStefan716" ref="M26:Q31" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78" totalsRowBorderDxfId="77">
-  <autoFilter ref="M26:Q31" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DrivingStatusStefan716" displayName="DrivingStatusStefan716" ref="M26:Q31" headerRowCount="1" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78" totalsRowBorderDxfId="77">
+  <autoFilter ref="M26:Q31">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Lower" dataDxfId="76" dataCellStyle="Silver"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Upper" dataDxfId="75" dataCellStyle="Silver"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Category" dataDxfId="74" dataCellStyle="Silver"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Fuel %" dataDxfId="73" dataCellStyle="Silver"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Color" dataDxfId="72" dataCellStyle="Silver"/>
+    <tableColumn id="1" name="Lower" dataDxfId="76" dataCellStyle="Silver"/>
+    <tableColumn id="2" name="Upper" dataDxfId="75" dataCellStyle="Silver"/>
+    <tableColumn id="3" name="Category" dataDxfId="74" dataCellStyle="Silver"/>
+    <tableColumn id="4" name="Fuel %" dataDxfId="73" dataCellStyle="Silver"/>
+    <tableColumn id="5" name="Color" dataDxfId="72" dataCellStyle="Silver"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="DistancePointsStefan4" displayName="DistancePointsStefan4" ref="L6:R13" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
-  <autoFilter ref="L6:R13" xr:uid="{00000000-0009-0000-0100-000003000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="DistancePointsStefan4" displayName="DistancePointsStefan4" ref="L6:R13" headerRowCount="1" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+  <autoFilter ref="L6:R13">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="5" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="6" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Lower" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Upper" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Blue" dataDxfId="64" dataCellStyle="Blue"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Bronze" dataDxfId="63" dataCellStyle="Bronze"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Silver" dataDxfId="62" dataCellStyle="Silver"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Gold" dataDxfId="61" dataCellStyle="Gold"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Diamond" dataDxfId="60" dataCellStyle="Diamond"/>
+    <tableColumn id="1" name="Lower" dataDxfId="66"/>
+    <tableColumn id="2" name="Upper" dataDxfId="65"/>
+    <tableColumn id="3" name="Blue" dataDxfId="64" dataCellStyle="Blue"/>
+    <tableColumn id="4" name="Bronze" dataDxfId="63" dataCellStyle="Bronze"/>
+    <tableColumn id="5" name="Silver" dataDxfId="62" dataCellStyle="Silver"/>
+    <tableColumn id="6" name="Gold" dataDxfId="61" dataCellStyle="Gold"/>
+    <tableColumn id="7" name="Diamond" dataDxfId="60" dataCellStyle="Diamond"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DrivingStatusStefan5" displayName="DrivingStatusStefan5" ref="M26:Q31" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
-  <autoFilter ref="M26:Q31" xr:uid="{00000000-0009-0000-0100-000004000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="DrivingStatusStefan5" displayName="DrivingStatusStefan5" ref="M26:Q31" headerRowCount="1" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+  <autoFilter ref="M26:Q31">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Lower" dataDxfId="55" dataCellStyle="Silver"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Upper" dataDxfId="54" dataCellStyle="Silver"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Category" dataDxfId="53" dataCellStyle="Silver"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Fuel %" dataDxfId="52" dataCellStyle="Silver"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Color" dataDxfId="51" dataCellStyle="Silver"/>
+    <tableColumn id="1" name="Lower" dataDxfId="55" dataCellStyle="Silver"/>
+    <tableColumn id="2" name="Upper" dataDxfId="54" dataCellStyle="Silver"/>
+    <tableColumn id="3" name="Category" dataDxfId="53" dataCellStyle="Silver"/>
+    <tableColumn id="4" name="Fuel %" dataDxfId="52" dataCellStyle="Silver"/>
+    <tableColumn id="5" name="Color" dataDxfId="51" dataCellStyle="Silver"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="DistancePointsStefan2" displayName="DistancePointsStefan2" ref="L6:R13" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
-  <autoFilter ref="L6:R13" xr:uid="{00000000-0009-0000-0100-000005000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="DistancePointsStefan2" displayName="DistancePointsStefan2" ref="L6:R13" headerRowCount="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
+  <autoFilter ref="L6:R13">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="5" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="6" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Lower" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Upper" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Blue" dataDxfId="43" dataCellStyle="Blue"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Bronze" dataDxfId="42" dataCellStyle="Bronze"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Silver" dataDxfId="41" dataCellStyle="Silver"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Gold" dataDxfId="40" dataCellStyle="Gold"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Diamond" dataDxfId="39" dataCellStyle="Diamond"/>
+    <tableColumn id="1" name="Lower" dataDxfId="45"/>
+    <tableColumn id="2" name="Upper" dataDxfId="44"/>
+    <tableColumn id="3" name="Blue" dataDxfId="43" dataCellStyle="Blue"/>
+    <tableColumn id="4" name="Bronze" dataDxfId="42" dataCellStyle="Bronze"/>
+    <tableColumn id="5" name="Silver" dataDxfId="41" dataCellStyle="Silver"/>
+    <tableColumn id="6" name="Gold" dataDxfId="40" dataCellStyle="Gold"/>
+    <tableColumn id="7" name="Diamond" dataDxfId="39" dataCellStyle="Diamond"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="DrivingStatusStefan3" displayName="DrivingStatusStefan3" ref="M26:Q31" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
-  <autoFilter ref="M26:Q31" xr:uid="{00000000-0009-0000-0100-000006000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="DrivingStatusStefan3" displayName="DrivingStatusStefan3" ref="M26:Q31" headerRowCount="1" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="M26:Q31">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Lower" dataDxfId="34" dataCellStyle="Silver"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Upper" dataDxfId="33" dataCellStyle="Silver"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Category" dataDxfId="32" dataCellStyle="Silver"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Fuel %" dataDxfId="31" dataCellStyle="Silver"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Color" dataDxfId="30" dataCellStyle="Silver"/>
+    <tableColumn id="1" name="Lower" dataDxfId="34" dataCellStyle="Silver"/>
+    <tableColumn id="2" name="Upper" dataDxfId="33" dataCellStyle="Silver"/>
+    <tableColumn id="3" name="Category" dataDxfId="32" dataCellStyle="Silver"/>
+    <tableColumn id="4" name="Fuel %" dataDxfId="31" dataCellStyle="Silver"/>
+    <tableColumn id="5" name="Color" dataDxfId="30" dataCellStyle="Silver"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3276,850 +3122,988 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet10">
-    <pageSetUpPr fitToPage="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="B2:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
-    <col min="12" max="14" width="9.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="9.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
-    <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="46" width="8.85546875" style="2" customWidth="1"/>
-    <col min="47" max="16384" width="8.85546875" style="2"/>
+    <col width="2.7109375" customWidth="1" style="73" min="1" max="1"/>
+    <col width="25.140625" bestFit="1" customWidth="1" style="73" min="2" max="2"/>
+    <col width="9.7109375" customWidth="1" style="73" min="3" max="3"/>
+    <col width="2.7109375" customWidth="1" style="73" min="4" max="4"/>
+    <col width="16.140625" customWidth="1" style="74" min="5" max="5"/>
+    <col width="11.140625" bestFit="1" customWidth="1" style="73" min="6" max="6"/>
+    <col width="9.7109375" customWidth="1" style="73" min="7" max="7"/>
+    <col width="2.7109375" customWidth="1" style="73" min="8" max="8"/>
+    <col width="22.42578125" customWidth="1" style="73" min="9" max="9"/>
+    <col width="10.7109375" customWidth="1" style="73" min="10" max="10"/>
+    <col width="2.7109375" customWidth="1" style="73" min="11" max="11"/>
+    <col hidden="1" width="9.7109375" customWidth="1" style="73" min="12" max="14"/>
+    <col hidden="1" width="10.5703125" customWidth="1" style="73" min="15" max="15"/>
+    <col hidden="1" width="9.7109375" customWidth="1" style="73" min="16" max="17"/>
+    <col hidden="1" width="11.42578125" customWidth="1" style="73" min="18" max="18"/>
+    <col hidden="1" width="2.7109375" customWidth="1" style="73" min="19" max="19"/>
+    <col width="9.7109375" customWidth="1" style="5" min="20" max="20"/>
+    <col width="9.7109375" customWidth="1" style="73" min="21" max="23"/>
+    <col width="8.85546875" customWidth="1" style="73" min="24" max="47"/>
+    <col width="8.85546875" customWidth="1" style="73" min="48" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="str">
+    <row r="2" ht="14.45" customHeight="1" s="74">
+      <c r="B2" s="72">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v>Drive Summary Stefan October 2025</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14" t="str">
-        <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>November 2025</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="71"/>
-      <c r="L5" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="71"/>
-      <c r="AB5" s="73"/>
-      <c r="AC5" s="73"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v/>
+      </c>
+      <c r="H2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="14.45" customHeight="1" s="74">
+      <c r="H3" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="E5" s="14">
+        <f>TEXT(TODAY(), "mmmm yyyy")</f>
+        <v/>
+      </c>
+      <c r="F5" s="14" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="G5" s="69" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="I5" s="69" t="inlineStr">
+        <is>
+          <t>Python Data</t>
+        </is>
+      </c>
+      <c r="J5" s="71" t="n"/>
+      <c r="L5" s="69" t="inlineStr">
+        <is>
+          <t>Distance Points</t>
+        </is>
+      </c>
+      <c r="M5" s="70" t="n"/>
+      <c r="N5" s="70" t="n"/>
+      <c r="O5" s="70" t="n"/>
+      <c r="P5" s="70" t="n"/>
+      <c r="Q5" s="70" t="n"/>
+      <c r="R5" s="71" t="n"/>
+      <c r="AB5" s="73" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Driving Profile</t>
+        </is>
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v>1500</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v/>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Month-to-Date</t>
+        </is>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1449.6579999999999</v>
+        <v/>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1540</v>
-      </c>
-      <c r="I6" s="1" t="s">
+        <v/>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>Drive Penalties</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J6" s="1">
-        <v>8</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
+      <c r="L6" s="69" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="M6" s="69" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="N6" s="18" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="O6" s="19" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="P6" s="20" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="Q6" s="21" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="R6" s="22" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="AB6" s="8" t="n"/>
+      <c r="AC6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Claim Free Years</t>
+        </is>
       </c>
       <c r="C7" s="6">
         <f>J15</f>
-        <v>300</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v/>
+      </c>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>End of Month</t>
+        </is>
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>1449.6579999999999</v>
+        <v/>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1540</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1">
+        <v/>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>Night Penalty</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="23" t="n">
         <v>300</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="25" t="n">
         <v>300</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="AB7" s="3"/>
-    </row>
-    <row r="8" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
+      <c r="AB7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="74" thickBot="1">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Night Time Driving</t>
+        </is>
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v>218</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
+        <v/>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>Daily Average</t>
+        </is>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>46.763161290322579</v>
+        <v/>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>49.677419354838712</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1">
+        <v/>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>No-Drive Days</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="1" t="n">
         <v>599</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="24" t="n">
         <v>150</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="26" t="n">
         <v>250</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="27" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+    <row r="9" ht="15.75" customHeight="1" s="74" thickTop="1">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Distance Points</t>
+        </is>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v>300</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="E9" s="64" t="inlineStr">
+        <is>
+          <t>Remaining</t>
+        </is>
       </c>
       <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>349.3420000000001</v>
+        <v/>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1449.6579999999999</v>
-      </c>
-      <c r="L9" s="11">
+        <v/>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1449.658</v>
+      </c>
+      <c r="L9" s="11" t="n">
         <v>600</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="1" t="n">
         <v>899</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="23" t="n">
         <v>75</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="27" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>MultiPoint Check</t>
+        </is>
       </c>
       <c r="C10" s="6">
         <f>J16</f>
+        <v/>
+      </c>
+      <c r="E10" s="7" t="n"/>
+      <c r="L10" s="11" t="n">
+        <v>900</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="N10" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="O10" s="24" t="n">
+        <v>75</v>
+      </c>
+      <c r="P10" s="25" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="26" t="n">
+        <v>175</v>
+      </c>
+      <c r="R10" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="L10" s="11">
-        <v>900</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1199</v>
-      </c>
-      <c r="N10" s="23">
-        <v>50</v>
-      </c>
-      <c r="O10" s="24">
-        <v>75</v>
-      </c>
-      <c r="P10" s="25">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>175</v>
-      </c>
-      <c r="R10" s="27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Accumulated Points</t>
+        </is>
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2618</v>
-      </c>
-      <c r="I11" s="69" t="s">
+        <v/>
+      </c>
+      <c r="I11" s="69" t="inlineStr">
+        <is>
+          <t>Config Data</t>
+        </is>
+      </c>
+      <c r="J11" s="71" t="n"/>
+      <c r="L11" s="11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="N11" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="L11" s="11">
-        <v>1200</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1499</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="O11" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="P11" s="25" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="26" t="n">
+        <v>125</v>
+      </c>
+      <c r="R11" s="27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Vitality Drive Status</t>
+        </is>
+      </c>
+      <c r="C12" s="1">
+        <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
+        <v/>
+      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="I12" s="69" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J12" s="69" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>1799</v>
+      </c>
+      <c r="N12" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="O11" s="24">
+      <c r="P12" s="25" t="n">
         <v>50</v>
       </c>
-      <c r="P11" s="25">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>125</v>
-      </c>
-      <c r="R11" s="27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
-        <v>Diamond</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="I12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11">
-        <v>1500</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1799</v>
-      </c>
-      <c r="N12" s="23">
-        <v>10</v>
-      </c>
-      <c r="O12" s="24">
-        <v>25</v>
-      </c>
-      <c r="P12" s="25">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="27" t="n">
         <v>200</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>27</v>
+      <c r="T12" s="73" t="n"/>
+      <c r="Z12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Predict Status</t>
+        </is>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>Stefan</t>
+        </is>
+      </c>
+      <c r="L13" s="12" t="n">
         <v>1800</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="10" t="n">
         <v>1800</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="58">
+      <c r="Z13" s="8" t="n"/>
+      <c r="AA13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>Report Date</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n">
         <v>45961</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-      <c r="I15" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="6">
+    <row r="15">
+      <c r="D15" s="4" t="n"/>
+      <c r="I15" s="28" t="inlineStr">
+        <is>
+          <t>Claim Free Years</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="N15" s="69" t="str">
+      <c r="N15" s="69">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
-        <v>Distance Points for Diamond</v>
-      </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="71"/>
-      <c r="V15" s="9"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="I16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="28">
+        <v/>
+      </c>
+      <c r="O15" s="70" t="n"/>
+      <c r="P15" s="71" t="n"/>
+      <c r="V15" s="9" t="n"/>
+      <c r="AA15" s="3" t="n"/>
+      <c r="AB15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="I16" s="28" t="inlineStr">
+        <is>
+          <t>MultiPoint Check</t>
+        </is>
+      </c>
+      <c r="J16" s="28" t="n">
         <v>300</v>
       </c>
-      <c r="N16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="5:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>15</v>
+      <c r="N16" s="69" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="O16" s="69" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="P16" s="69" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="14.45" customHeight="1" s="74">
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>Last Month's Status</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
       </c>
       <c r="N17" s="1">
         <f t="array" ref="N17:N23">DistancePointsStefan615[Lower]</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="O17" s="1">
         <f t="array" ref="O17:O23">DistancePointsStefan615[Upper]</f>
-        <v>299</v>
+        <v/>
       </c>
       <c r="P17" s="1">
         <f t="array" ref="P17:P23">_xlfn.XLOOKUP(J17,DistancePointsStefan615[#Headers],DistancePointsStefan615[])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>Points on No-Drive Day</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="N18" s="1" t="n">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1">
-        <v>49</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="O18" s="1">
-        <v>599</v>
-      </c>
-      <c r="P18" s="1">
+    </row>
+    <row r="19">
+      <c r="N19" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="P19" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N19" s="1">
-        <v>600</v>
-      </c>
-      <c r="O19" s="1">
-        <v>899</v>
-      </c>
-      <c r="P19" s="1">
+    <row r="20">
+      <c r="I20" s="69" t="inlineStr">
+        <is>
+          <t>Calculated Data</t>
+        </is>
+      </c>
+      <c r="J20" s="71" t="n"/>
+      <c r="N20" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="P20" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="71"/>
-      <c r="N20" s="1">
-        <v>900</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1199</v>
-      </c>
-      <c r="P20" s="1">
+    <row r="21">
+      <c r="I21" s="69" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J21" s="69" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="P21" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1200</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1499</v>
-      </c>
-      <c r="P21" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I22" s="52" t="str">
+    <row r="22">
+      <c r="I22" s="52">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v>Days Oct 2025</v>
+        <v/>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v>31</v>
-      </c>
-      <c r="N22" s="1">
+        <v/>
+      </c>
+      <c r="N22" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="1" t="n">
         <v>1799</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I23" s="52" t="s">
-        <v>34</v>
+    <row r="23">
+      <c r="I23" s="52" t="inlineStr">
+        <is>
+          <t>Days Past</t>
+        </is>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>31</v>
-      </c>
-      <c r="N23" s="1">
+        <v/>
+      </c>
+      <c r="N23" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I24" s="51" t="s">
-        <v>35</v>
+    <row r="24">
+      <c r="I24" s="51" t="inlineStr">
+        <is>
+          <t>Days Left</t>
+        </is>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I25" s="53" t="s">
-        <v>36</v>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" s="53" t="inlineStr">
+        <is>
+          <t>Rem Dist Points</t>
+        </is>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>118</v>
-      </c>
-      <c r="M25" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="71"/>
-    </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I26" s="55" t="s">
-        <v>38</v>
+        <v/>
+      </c>
+      <c r="M25" s="69" t="inlineStr">
+        <is>
+          <t>Driving Status</t>
+        </is>
+      </c>
+      <c r="N25" s="70" t="n"/>
+      <c r="O25" s="70" t="n"/>
+      <c r="P25" s="70" t="n"/>
+      <c r="Q25" s="71" t="n"/>
+    </row>
+    <row r="26">
+      <c r="I26" s="55" t="inlineStr">
+        <is>
+          <t>Rem - Dist</t>
+        </is>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>182</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I27" s="54" t="s">
-        <v>42</v>
+        <v/>
+      </c>
+      <c r="M26" s="69" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="N26" s="69" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="O26" s="69" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="P26" s="69" t="inlineStr">
+        <is>
+          <t>Fuel %</t>
+        </is>
+      </c>
+      <c r="Q26" s="69" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" s="54" t="inlineStr">
+        <is>
+          <t>Distance Upper Limit</t>
+        </is>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v>1799</v>
-      </c>
-      <c r="M27" s="34">
+        <v/>
+      </c>
+      <c r="M27" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="23" t="n">
         <v>799</v>
       </c>
-      <c r="O27" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="35">
+      <c r="O27" s="23" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="P27" s="35" t="n">
         <v>0.05</v>
       </c>
-      <c r="Q27" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I28" s="62" t="s">
-        <v>32</v>
+      <c r="Q27" s="36" t="inlineStr">
+        <is>
+          <t>#8EA9DB</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="I28" s="62" t="inlineStr">
+        <is>
+          <t>Points on No-Drive Day</t>
+        </is>
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
-        <v>49</v>
-      </c>
-      <c r="M28" s="37">
+        <v/>
+      </c>
+      <c r="M28" s="37" t="n">
         <v>800</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="24" t="n">
         <v>1599</v>
       </c>
-      <c r="O28" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="38">
+      <c r="O28" s="24" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="P28" s="38" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I29" s="61" t="s">
-        <v>45</v>
+      <c r="Q28" s="39" t="inlineStr">
+        <is>
+          <t>#F4B084</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="I29" s="61" t="inlineStr">
+        <is>
+          <t>Count No-Drive Days</t>
+        </is>
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>2</v>
-      </c>
-      <c r="M29" s="40">
+        <v/>
+      </c>
+      <c r="M29" s="40" t="n">
         <v>1600</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="25" t="n">
         <v>2199</v>
       </c>
-      <c r="O29" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" s="41">
+      <c r="O29" s="25" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="P29" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q29" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I30" s="60" t="s">
-        <v>47</v>
+      <c r="Q29" s="42" t="inlineStr">
+        <is>
+          <t>#DBDBDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="I30" s="60" t="inlineStr">
+        <is>
+          <t>No-Drive Day Points</t>
+        </is>
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>98</v>
-      </c>
-      <c r="M30" s="43">
+        <v/>
+      </c>
+      <c r="M30" s="43" t="n">
         <v>2200</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="44" t="n">
         <v>2499</v>
       </c>
-      <c r="O30" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="P30" s="45">
+      <c r="O30" s="44" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="P30" s="45" t="n">
         <v>0.35</v>
       </c>
-      <c r="Q30" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E31" s="66"/>
-      <c r="I31" s="53" t="s">
-        <v>49</v>
+      <c r="Q30" s="46" t="inlineStr">
+        <is>
+          <t>#FFD966</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" s="66" t="n"/>
+      <c r="I31" s="53" t="inlineStr">
+        <is>
+          <t>Count Drive Days</t>
+        </is>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>29</v>
-      </c>
-      <c r="M31" s="47">
+        <v/>
+      </c>
+      <c r="M31" s="47" t="n">
         <v>2500</v>
       </c>
-      <c r="N31" s="48">
+      <c r="N31" s="48" t="n">
         <v>3000</v>
       </c>
-      <c r="O31" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="P31" s="49">
+      <c r="O31" s="48" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="P31" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I32" s="54" t="s">
-        <v>51</v>
+      <c r="Q31" s="50" t="inlineStr">
+        <is>
+          <t>#D9B3FF</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="I32" s="54" t="inlineStr">
+        <is>
+          <t>Drive Day Points</t>
+        </is>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="1" t="s">
-        <v>6</v>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>Driving Profile</t>
+        </is>
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="I34" s="1" t="s">
-        <v>52</v>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" s="66" t="n"/>
+      <c r="F34" s="67" t="n"/>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>Current Drive Points</t>
+        </is>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2658</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" priority="1" dxfId="4">
       <formula>$C$12="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" priority="2" dxfId="3">
       <formula>$C$12="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" priority="3" dxfId="2">
       <formula>$C$12="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" priority="4" dxfId="1">
       <formula>$C$12="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" priority="5" dxfId="0">
       <formula>$C$12="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P23">
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" priority="6" dxfId="4">
       <formula>$J$17="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" priority="7" dxfId="3">
       <formula>$J$17="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" priority="8" dxfId="2">
       <formula>$J$17="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" priority="9" dxfId="1">
       <formula>$J$17="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" priority="10" dxfId="0">
       <formula>$J$17="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket." sqref="C13" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" sqref="J18" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation sqref="C13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket."/>
+    <dataValidation sqref="J18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" type="whole">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="43" orientation="landscape"/>
+  <pageSetup orientation="landscape"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet9">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AC34"/>
@@ -4128,835 +4112,972 @@
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
-    <col min="12" max="14" width="9.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="9.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
-    <col min="21" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="46" width="8.85546875" style="2" customWidth="1"/>
-    <col min="47" max="16384" width="8.85546875" style="2"/>
+    <col width="2.7109375" customWidth="1" style="73" min="1" max="1"/>
+    <col width="25.140625" bestFit="1" customWidth="1" style="73" min="2" max="2"/>
+    <col width="9.7109375" customWidth="1" style="73" min="3" max="3"/>
+    <col width="2.7109375" customWidth="1" style="73" min="4" max="4"/>
+    <col width="16.140625" customWidth="1" style="74" min="5" max="5"/>
+    <col width="11.140625" bestFit="1" customWidth="1" style="73" min="6" max="6"/>
+    <col width="9.7109375" customWidth="1" style="73" min="7" max="7"/>
+    <col width="2.7109375" customWidth="1" style="73" min="8" max="8"/>
+    <col width="22.42578125" customWidth="1" style="73" min="9" max="9"/>
+    <col width="10.7109375" customWidth="1" style="73" min="10" max="10"/>
+    <col width="2.7109375" customWidth="1" style="73" min="11" max="11"/>
+    <col width="9.7109375" customWidth="1" style="73" min="12" max="14"/>
+    <col width="10.5703125" customWidth="1" style="73" min="15" max="15"/>
+    <col width="9.7109375" customWidth="1" style="73" min="16" max="17"/>
+    <col width="11.42578125" customWidth="1" style="73" min="18" max="18"/>
+    <col width="2.7109375" customWidth="1" style="73" min="19" max="19"/>
+    <col width="9.7109375" customWidth="1" style="5" min="20" max="20"/>
+    <col width="9.7109375" customWidth="1" style="73" min="21" max="23"/>
+    <col width="8.85546875" customWidth="1" style="73" min="24" max="47"/>
+    <col width="8.85546875" customWidth="1" style="73" min="48" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="str">
+    <row r="2" ht="14.45" customHeight="1" s="74">
+      <c r="B2" s="72">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v>Drive Summary Christiaan May 2025</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14" t="str">
-        <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>November 2025</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="71"/>
-      <c r="L5" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="71"/>
-      <c r="AB5" s="73"/>
-      <c r="AC5" s="73"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v/>
+      </c>
+      <c r="H2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="14.45" customHeight="1" s="74">
+      <c r="H3" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="E5" s="14">
+        <f>TEXT(TODAY(), "mmmm yyyy")</f>
+        <v/>
+      </c>
+      <c r="F5" s="14" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="G5" s="69" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="I5" s="69" t="inlineStr">
+        <is>
+          <t>Python Data</t>
+        </is>
+      </c>
+      <c r="J5" s="71" t="n"/>
+      <c r="L5" s="69" t="inlineStr">
+        <is>
+          <t>Distance Points</t>
+        </is>
+      </c>
+      <c r="M5" s="70" t="n"/>
+      <c r="N5" s="70" t="n"/>
+      <c r="O5" s="70" t="n"/>
+      <c r="P5" s="70" t="n"/>
+      <c r="Q5" s="70" t="n"/>
+      <c r="R5" s="71" t="n"/>
+      <c r="AB5" s="73" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Driving Profile</t>
+        </is>
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v>1500</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v/>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Month-to-Date</t>
+        </is>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1496.702</v>
+        <v/>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1550</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1">
+        <v/>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>Drive Penalties</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
+      <c r="L6" s="69" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="M6" s="69" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="N6" s="18" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="O6" s="19" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="P6" s="20" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="Q6" s="21" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="R6" s="22" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="AB6" s="8" t="n"/>
+      <c r="AC6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Claim Free Years</t>
+        </is>
       </c>
       <c r="C7" s="6">
         <f>J15</f>
-        <v>300</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v/>
+      </c>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>End of Month</t>
+        </is>
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>1496.702</v>
+        <v/>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1550</v>
-      </c>
-      <c r="I7" s="1" t="s">
+        <v/>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>Night Penalty</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="J7" s="1">
-        <v>18</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="L7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="23" t="n">
         <v>300</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="25" t="n">
         <v>300</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="AB7" s="3"/>
-    </row>
-    <row r="8" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
+      <c r="AB7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="74" thickBot="1">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Night Time Driving</t>
+        </is>
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v>282</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
+        <v/>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>Daily Average</t>
+        </is>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>48.280709677419352</v>
+        <v/>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>50</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1">
+        <v/>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>No-Drive Days</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="1" t="n">
         <v>599</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="24" t="n">
         <v>150</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="26" t="n">
         <v>250</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="27" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+    <row r="9" ht="15.75" customHeight="1" s="74" thickTop="1">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Distance Points</t>
+        </is>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v>300</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="E9" s="64" t="inlineStr">
+        <is>
+          <t>Remaining</t>
+        </is>
       </c>
       <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>302.298</v>
+        <v/>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="6">
+        <v/>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="n">
         <v>1496.702</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="11" t="n">
         <v>600</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="1" t="n">
         <v>899</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="23" t="n">
         <v>75</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="27" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>MultiPoint Check</t>
+        </is>
       </c>
       <c r="C10" s="6">
         <f>J16</f>
+        <v/>
+      </c>
+      <c r="E10" s="7" t="n"/>
+      <c r="L10" s="11" t="n">
+        <v>900</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="N10" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="O10" s="24" t="n">
+        <v>75</v>
+      </c>
+      <c r="P10" s="25" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="26" t="n">
+        <v>175</v>
+      </c>
+      <c r="R10" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="L10" s="11">
-        <v>900</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1199</v>
-      </c>
-      <c r="N10" s="23">
-        <v>50</v>
-      </c>
-      <c r="O10" s="24">
-        <v>75</v>
-      </c>
-      <c r="P10" s="25">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>175</v>
-      </c>
-      <c r="R10" s="27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Accumulated Points</t>
+        </is>
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2682</v>
-      </c>
-      <c r="I11" s="69" t="s">
+        <v/>
+      </c>
+      <c r="I11" s="69" t="inlineStr">
+        <is>
+          <t>Config Data</t>
+        </is>
+      </c>
+      <c r="J11" s="71" t="n"/>
+      <c r="L11" s="11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="N11" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="L11" s="11">
-        <v>1200</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1499</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="O11" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="P11" s="25" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="26" t="n">
+        <v>125</v>
+      </c>
+      <c r="R11" s="27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Vitality Drive Status</t>
+        </is>
+      </c>
+      <c r="C12" s="1">
+        <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
+        <v/>
+      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="I12" s="69" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J12" s="69" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>1799</v>
+      </c>
+      <c r="N12" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="O11" s="24">
+      <c r="P12" s="25" t="n">
         <v>50</v>
       </c>
-      <c r="P11" s="25">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>125</v>
-      </c>
-      <c r="R11" s="27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
-        <v>Diamond</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="I12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11">
-        <v>1500</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1799</v>
-      </c>
-      <c r="N12" s="23">
-        <v>10</v>
-      </c>
-      <c r="O12" s="24">
-        <v>25</v>
-      </c>
-      <c r="P12" s="25">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="27" t="n">
         <v>200</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>27</v>
+      <c r="T12" s="73" t="n"/>
+      <c r="Z12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Predict Status</t>
+        </is>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>Christiaan</t>
+        </is>
+      </c>
+      <c r="L13" s="12" t="n">
         <v>1800</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="10" t="n">
         <v>1800</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="58">
+      <c r="Z13" s="8" t="n"/>
+      <c r="AA13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>Report Date</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n">
         <v>45808</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-      <c r="I15" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="6">
+    <row r="15">
+      <c r="D15" s="4" t="n"/>
+      <c r="I15" s="28" t="inlineStr">
+        <is>
+          <t>Claim Free Years</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="N15" s="69" t="str">
+      <c r="N15" s="69">
         <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
-        <v>Distance Points for Diamond</v>
-      </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="71"/>
-      <c r="V15" s="9"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="I16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="28">
+        <v/>
+      </c>
+      <c r="O15" s="70" t="n"/>
+      <c r="P15" s="71" t="n"/>
+      <c r="V15" s="9" t="n"/>
+      <c r="AA15" s="3" t="n"/>
+      <c r="AB15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="I16" s="28" t="inlineStr">
+        <is>
+          <t>MultiPoint Check</t>
+        </is>
+      </c>
+      <c r="J16" s="28" t="n">
         <v>300</v>
       </c>
-      <c r="N16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="9:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>15</v>
+      <c r="N16" s="69" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="O16" s="69" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="P16" s="69" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="14.45" customHeight="1" s="74">
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>Last Month's Status</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
       </c>
       <c r="N17" s="1">
         <f t="array" ref="N17:N23">DistancePointsStefan4[Lower]</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="O17" s="1">
         <f t="array" ref="O17:O23">DistancePointsStefan4[Upper]</f>
-        <v>299</v>
+        <v/>
       </c>
       <c r="P17" s="1">
         <f t="array" ref="P17:P23">_xlfn.XLOOKUP(J17,DistancePointsStefan4[#Headers],DistancePointsStefan4[])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>Points on No-Drive Day</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="n"/>
+      <c r="N18" s="1" t="n">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="N18" s="1">
+      <c r="O18" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="O18" s="1">
-        <v>599</v>
-      </c>
-      <c r="P18" s="1">
+    </row>
+    <row r="19">
+      <c r="N19" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="P19" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="N19" s="1">
-        <v>600</v>
-      </c>
-      <c r="O19" s="1">
-        <v>899</v>
-      </c>
-      <c r="P19" s="1">
+    <row r="20">
+      <c r="I20" s="69" t="inlineStr">
+        <is>
+          <t>Calculated Data</t>
+        </is>
+      </c>
+      <c r="J20" s="71" t="n"/>
+      <c r="N20" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="P20" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="71"/>
-      <c r="N20" s="1">
-        <v>900</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1199</v>
-      </c>
-      <c r="P20" s="1">
+    <row r="21">
+      <c r="I21" s="69" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J21" s="69" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="P21" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1200</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1499</v>
-      </c>
-      <c r="P21" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I22" s="52" t="str">
+    <row r="22">
+      <c r="I22" s="52">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v>Days May 2025</v>
+        <v/>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v>31</v>
-      </c>
-      <c r="N22" s="1">
+        <v/>
+      </c>
+      <c r="N22" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="1" t="n">
         <v>1799</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I23" s="52" t="s">
-        <v>34</v>
+    <row r="23">
+      <c r="I23" s="52" t="inlineStr">
+        <is>
+          <t>Days Past</t>
+        </is>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>31</v>
-      </c>
-      <c r="N23" s="1">
+        <v/>
+      </c>
+      <c r="N23" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I24" s="51" t="s">
-        <v>35</v>
+    <row r="24">
+      <c r="I24" s="51" t="inlineStr">
+        <is>
+          <t>Days Left</t>
+        </is>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I25" s="53" t="s">
-        <v>36</v>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" s="53" t="inlineStr">
+        <is>
+          <t>Rem Dist Points</t>
+        </is>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>182</v>
-      </c>
-      <c r="M25" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="71"/>
-    </row>
-    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I26" s="55" t="s">
-        <v>38</v>
+        <v/>
+      </c>
+      <c r="M25" s="69" t="inlineStr">
+        <is>
+          <t>Driving Status</t>
+        </is>
+      </c>
+      <c r="N25" s="70" t="n"/>
+      <c r="O25" s="70" t="n"/>
+      <c r="P25" s="70" t="n"/>
+      <c r="Q25" s="71" t="n"/>
+    </row>
+    <row r="26">
+      <c r="I26" s="55" t="inlineStr">
+        <is>
+          <t>Rem - Dist</t>
+        </is>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>118</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I27" s="54" t="s">
-        <v>42</v>
+        <v/>
+      </c>
+      <c r="M26" s="69" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="N26" s="69" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="O26" s="69" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="P26" s="69" t="inlineStr">
+        <is>
+          <t>Fuel %</t>
+        </is>
+      </c>
+      <c r="Q26" s="69" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" s="54" t="inlineStr">
+        <is>
+          <t>Distance Upper Limit</t>
+        </is>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v>1799</v>
-      </c>
-      <c r="M27" s="34">
+        <v/>
+      </c>
+      <c r="M27" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="23" t="n">
         <v>799</v>
       </c>
-      <c r="O27" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="35">
+      <c r="O27" s="23" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="P27" s="35" t="n">
         <v>0.05</v>
       </c>
-      <c r="Q27" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I28" s="62" t="s">
-        <v>32</v>
+      <c r="Q27" s="36" t="inlineStr">
+        <is>
+          <t>#8EA9DB</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="I28" s="62" t="inlineStr">
+        <is>
+          <t>Points on No-Drive Day</t>
+        </is>
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
-        <v>50</v>
-      </c>
-      <c r="M28" s="37">
+        <v/>
+      </c>
+      <c r="M28" s="37" t="n">
         <v>800</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="24" t="n">
         <v>1599</v>
       </c>
-      <c r="O28" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="38">
+      <c r="O28" s="24" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="P28" s="38" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I29" s="61" t="s">
-        <v>45</v>
+      <c r="Q28" s="39" t="inlineStr">
+        <is>
+          <t>#F4B084</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="I29" s="61" t="inlineStr">
+        <is>
+          <t>Count No-Drive Days</t>
+        </is>
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>2</v>
-      </c>
-      <c r="M29" s="40">
+        <v/>
+      </c>
+      <c r="M29" s="40" t="n">
         <v>1600</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="25" t="n">
         <v>2199</v>
       </c>
-      <c r="O29" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" s="41">
+      <c r="O29" s="25" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="P29" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q29" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I30" s="60" t="s">
-        <v>47</v>
+      <c r="Q29" s="42" t="inlineStr">
+        <is>
+          <t>#DBDBDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="I30" s="60" t="inlineStr">
+        <is>
+          <t>No-Drive Day Points</t>
+        </is>
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>100</v>
-      </c>
-      <c r="M30" s="43">
+        <v/>
+      </c>
+      <c r="M30" s="43" t="n">
         <v>2200</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="44" t="n">
         <v>2499</v>
       </c>
-      <c r="O30" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="P30" s="45">
+      <c r="O30" s="44" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="P30" s="45" t="n">
         <v>0.35</v>
       </c>
-      <c r="Q30" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I31" s="53" t="s">
-        <v>49</v>
+      <c r="Q30" s="46" t="inlineStr">
+        <is>
+          <t>#FFD966</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="I31" s="53" t="inlineStr">
+        <is>
+          <t>Count Drive Days</t>
+        </is>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>29</v>
-      </c>
-      <c r="M31" s="47">
+        <v/>
+      </c>
+      <c r="M31" s="47" t="n">
         <v>2500</v>
       </c>
-      <c r="N31" s="48">
+      <c r="N31" s="48" t="n">
         <v>3000</v>
       </c>
-      <c r="O31" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="P31" s="49">
+      <c r="O31" s="48" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="P31" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I32" s="54" t="s">
-        <v>51</v>
+      <c r="Q31" s="50" t="inlineStr">
+        <is>
+          <t>#D9B3FF</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="I32" s="54" t="inlineStr">
+        <is>
+          <t>Drive Day Points</t>
+        </is>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="1" t="s">
-        <v>6</v>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>Driving Profile</t>
+        </is>
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="1" t="s">
-        <v>52</v>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>Current Drive Points</t>
+        </is>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2732</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" priority="1" dxfId="4">
       <formula>$C$12="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" priority="2" dxfId="3">
       <formula>$C$12="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" priority="3" dxfId="2">
       <formula>$C$12="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" priority="4" dxfId="1">
       <formula>$C$12="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" priority="5" dxfId="0">
       <formula>$C$12="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P23">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" priority="6" dxfId="4">
       <formula>$J$17="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" priority="7" dxfId="3">
       <formula>$J$17="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" priority="8" dxfId="2">
       <formula>$J$17="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" priority="9" dxfId="1">
       <formula>$J$17="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" priority="10" dxfId="0">
       <formula>$J$17="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket." sqref="C13" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" sqref="J18" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation sqref="C13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket."/>
+    <dataValidation sqref="J18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" type="whole">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="32" orientation="portrait"/>
+  <pageSetup orientation="portrait" scale="32"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AD34"/>
@@ -4965,830 +5086,993 @@
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
-    <col min="12" max="14" width="9.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="9.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
-    <col min="21" max="24" width="9.7109375" style="2" customWidth="1"/>
-    <col min="25" max="47" width="8.85546875" style="2" customWidth="1"/>
-    <col min="48" max="16384" width="8.85546875" style="2"/>
+    <col width="2.7109375" customWidth="1" style="73" min="1" max="1"/>
+    <col width="25.140625" bestFit="1" customWidth="1" style="73" min="2" max="2"/>
+    <col width="9.7109375" customWidth="1" style="73" min="3" max="3"/>
+    <col width="2.7109375" customWidth="1" style="73" min="4" max="4"/>
+    <col width="16.140625" customWidth="1" style="74" min="5" max="5"/>
+    <col width="11.140625" bestFit="1" customWidth="1" style="73" min="6" max="6"/>
+    <col width="9.7109375" customWidth="1" style="73" min="7" max="7"/>
+    <col width="2.7109375" customWidth="1" style="73" min="8" max="8"/>
+    <col width="22.42578125" customWidth="1" style="73" min="9" max="9"/>
+    <col width="10.7109375" customWidth="1" style="73" min="10" max="10"/>
+    <col width="2.7109375" customWidth="1" style="73" min="11" max="11"/>
+    <col width="9.7109375" customWidth="1" style="73" min="12" max="14"/>
+    <col width="10.5703125" customWidth="1" style="73" min="15" max="15"/>
+    <col width="9.7109375" customWidth="1" style="73" min="16" max="17"/>
+    <col width="11.42578125" customWidth="1" style="73" min="18" max="18"/>
+    <col width="2.7109375" customWidth="1" style="73" min="19" max="19"/>
+    <col width="9.7109375" customWidth="1" style="5" min="20" max="20"/>
+    <col width="9.7109375" customWidth="1" style="73" min="21" max="24"/>
+    <col width="8.85546875" customWidth="1" style="73" min="25" max="48"/>
+    <col width="8.85546875" customWidth="1" style="73" min="49" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="str">
+    <row r="2" ht="14.45" customHeight="1" s="74">
+      <c r="B2" s="72">
         <f>_xlfn.CONCAT("Drive Summary ",J13, " ",TEXT(J14, "mmmm yyyy"))</f>
-        <v>Drive Summary Derrick October 2025</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="2:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14" t="str">
-        <f ca="1">TEXT(TODAY(), "mmmm yyyy")</f>
-        <v>November 2025</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="71"/>
-      <c r="L5" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="71"/>
-      <c r="W5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC5" s="73"/>
-      <c r="AD5" s="73"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v/>
+      </c>
+      <c r="H2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="14.45" customHeight="1" s="74">
+      <c r="H3" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="E5" s="14">
+        <f>TEXT(TODAY(), "mmmm yyyy")</f>
+        <v/>
+      </c>
+      <c r="F5" s="14" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="G5" s="69" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="I5" s="69" t="inlineStr">
+        <is>
+          <t>Python Data</t>
+        </is>
+      </c>
+      <c r="J5" s="71" t="n"/>
+      <c r="L5" s="69" t="inlineStr">
+        <is>
+          <t>Distance Points</t>
+        </is>
+      </c>
+      <c r="M5" s="70" t="n"/>
+      <c r="N5" s="70" t="n"/>
+      <c r="O5" s="70" t="n"/>
+      <c r="P5" s="70" t="n"/>
+      <c r="Q5" s="70" t="n"/>
+      <c r="R5" s="71" t="n"/>
+      <c r="W5" s="73" t="inlineStr">
+        <is>
+          <t>J6</t>
+        </is>
+      </c>
+      <c r="AC5" s="73" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Driving Profile</t>
+        </is>
       </c>
       <c r="C6" s="6">
         <f>MIN(1500, IF($C$13,G7,G6+G9))</f>
-        <v>1500</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v/>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Month-to-Date</t>
+        </is>
       </c>
       <c r="F6" s="6">
         <f>J9</f>
-        <v>1449.6579999999999</v>
+        <v/>
       </c>
       <c r="G6" s="17">
         <f>J33</f>
-        <v>1542</v>
-      </c>
-      <c r="I6" s="1" t="s">
+        <v/>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>Drive Penalties</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J6" s="1">
-        <v>8</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" s="2">
+      <c r="L6" s="69" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="M6" s="69" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="N6" s="18" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="O6" s="19" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="P6" s="20" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="Q6" s="21" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="R6" s="22" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="U6" s="73" t="inlineStr">
+        <is>
+          <t>Speed</t>
+        </is>
+      </c>
+      <c r="V6" s="73" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="W6" s="73" t="n">
         <v>50</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y6" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
+      <c r="X6" s="73" t="inlineStr">
+        <is>
+          <t>Saterdag</t>
+        </is>
+      </c>
+      <c r="Y6" s="68" t="inlineStr">
+        <is>
+          <t>Lost all points for the day</t>
+        </is>
+      </c>
+      <c r="AC6" s="8" t="n"/>
+      <c r="AD6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Claim Free Years</t>
+        </is>
       </c>
       <c r="C7" s="6">
         <f>J15</f>
-        <v>300</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v/>
+      </c>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>End of Month</t>
+        </is>
       </c>
       <c r="F7" s="6">
         <f>F6/J23*J22</f>
-        <v>1449.6579999999999</v>
+        <v/>
       </c>
       <c r="G7" s="6">
         <f>G6/J23*J22</f>
-        <v>1542</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1">
+        <v/>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>Night Penalty</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="23" t="n">
         <v>300</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="25" t="n">
         <v>300</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W7" s="2">
+      <c r="V7" s="73" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="W7" s="73" t="n">
         <v>50</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y7" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC7" s="3"/>
-    </row>
-    <row r="8" spans="2:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
+      <c r="X7" s="73" t="inlineStr">
+        <is>
+          <t>Maandag</t>
+        </is>
+      </c>
+      <c r="Y7" s="68" t="inlineStr">
+        <is>
+          <t>Lost all points for the day</t>
+        </is>
+      </c>
+      <c r="AC7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="74" thickBot="1">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Night Time Driving</t>
+        </is>
       </c>
       <c r="C8" s="6">
         <f>300-J7</f>
-        <v>218</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
+        <v/>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>Daily Average</t>
+        </is>
       </c>
       <c r="F8" s="65">
         <f>F6/J23</f>
-        <v>46.763161290322579</v>
+        <v/>
       </c>
       <c r="G8" s="65">
         <f>G6/J23</f>
-        <v>49.741935483870968</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1">
+        <v/>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>No-Drive Days</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="1" t="n">
         <v>599</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="24" t="n">
         <v>150</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="26" t="n">
         <v>250</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W8" s="2">
+      <c r="U8" s="73" t="inlineStr">
+        <is>
+          <t>Accel</t>
+        </is>
+      </c>
+      <c r="V8" s="73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W8" s="73" t="n">
         <v>8</v>
       </c>
-      <c r="X8" s="68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:30" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+      <c r="X8" s="68" t="inlineStr">
+        <is>
+          <t>Same day as speeding, all points anyway lost</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="74" thickTop="1">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Distance Points</t>
+        </is>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP(IF(C13,F7,F6),N17:P23,3)</f>
-        <v>300</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="E9" s="64" t="inlineStr">
+        <is>
+          <t>Remaining</t>
+        </is>
       </c>
       <c r="F9" s="63">
         <f>IF(J27&gt;=M13, "Unlimited", J27-F6)</f>
-        <v>349.3420000000001</v>
+        <v/>
       </c>
       <c r="G9" s="63">
         <f>50*J24 + IF(J22&lt;30,(30-J22)*G8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1449.6579999999999</v>
-      </c>
-      <c r="L9" s="11">
+        <v/>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1449.658</v>
+      </c>
+      <c r="L9" s="11" t="n">
         <v>600</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="1" t="n">
         <v>899</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="23" t="n">
         <v>75</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="U9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" s="2">
+      <c r="U9" s="73" t="inlineStr">
+        <is>
+          <t>Braking</t>
+        </is>
+      </c>
+      <c r="V9" s="73" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="W9" s="73" t="n">
         <v>8</v>
       </c>
-      <c r="X9" s="68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+      <c r="X9" s="68" t="inlineStr">
+        <is>
+          <t>Other day, add pen</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>MultiPoint Check</t>
+        </is>
       </c>
       <c r="C10" s="6">
         <f>J16</f>
+        <v/>
+      </c>
+      <c r="E10" s="7" t="n"/>
+      <c r="L10" s="11" t="n">
+        <v>900</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="N10" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="O10" s="24" t="n">
+        <v>75</v>
+      </c>
+      <c r="P10" s="25" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="26" t="n">
+        <v>175</v>
+      </c>
+      <c r="R10" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="L10" s="11">
-        <v>900</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1199</v>
-      </c>
-      <c r="N10" s="23">
-        <v>50</v>
-      </c>
-      <c r="O10" s="24">
-        <v>75</v>
-      </c>
-      <c r="P10" s="25">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>175</v>
-      </c>
-      <c r="R10" s="27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Accumulated Points</t>
+        </is>
       </c>
       <c r="C11" s="6">
         <f>SUM(C6:C10)</f>
-        <v>2618</v>
-      </c>
-      <c r="I11" s="69" t="s">
+        <v/>
+      </c>
+      <c r="I11" s="69" t="inlineStr">
+        <is>
+          <t>Config Data</t>
+        </is>
+      </c>
+      <c r="J11" s="71" t="n"/>
+      <c r="L11" s="11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="N11" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="L11" s="11">
-        <v>1200</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1499</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="O11" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="P11" s="25" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="26" t="n">
+        <v>125</v>
+      </c>
+      <c r="R11" s="27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Vitality Drive Status</t>
+        </is>
+      </c>
+      <c r="C12" s="1">
+        <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
+        <v/>
+      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="I12" s="69" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J12" s="69" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>1799</v>
+      </c>
+      <c r="N12" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="O11" s="24">
+      <c r="P12" s="25" t="n">
         <v>50</v>
       </c>
-      <c r="P11" s="25">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>125</v>
-      </c>
-      <c r="R11" s="27">
+      <c r="Q12" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="R12" s="27" t="n">
+        <v>200</v>
+      </c>
+      <c r="T12" s="73" t="n"/>
+      <c r="AA12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Predict Status</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>Derrick</t>
+        </is>
+      </c>
+      <c r="L13" s="12" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M13" s="10" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N13" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" s="31" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="R13" s="33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="8" t="n"/>
+      <c r="AB13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>Report Date</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="4" t="n"/>
+      <c r="I15" s="28" t="inlineStr">
+        <is>
+          <t>Claim Free Years</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="n">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>VLOOKUP(C11,M27:O31,3,TRUE)</f>
-        <v>Diamond</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="I12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11">
-        <v>1500</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1799</v>
-      </c>
-      <c r="N12" s="23">
-        <v>10</v>
-      </c>
-      <c r="O12" s="24">
-        <v>25</v>
-      </c>
-      <c r="P12" s="25">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="26">
-        <v>100</v>
-      </c>
-      <c r="R12" s="27">
-        <v>200</v>
-      </c>
-      <c r="T12" s="2"/>
-      <c r="AA12" s="8"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="12">
-        <v>1800</v>
-      </c>
-      <c r="M13" s="10">
-        <v>1800</v>
-      </c>
-      <c r="N13" s="29">
-        <v>5</v>
-      </c>
-      <c r="O13" s="30">
-        <v>10</v>
-      </c>
-      <c r="P13" s="31">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="32">
-        <v>60</v>
-      </c>
-      <c r="R13" s="33">
-        <v>100</v>
-      </c>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="3"/>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="58">
-        <v>45961</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-      <c r="I15" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="N15" s="69">
+        <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
+        <v/>
+      </c>
+      <c r="O15" s="70" t="n"/>
+      <c r="P15" s="71" t="n"/>
+      <c r="W15" s="9" t="n"/>
+      <c r="AB15" s="3" t="n"/>
+      <c r="AC15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="I16" s="28" t="inlineStr">
+        <is>
+          <t>MultiPoint Check</t>
+        </is>
+      </c>
+      <c r="J16" s="28" t="n">
         <v>300</v>
       </c>
-      <c r="N15" s="69" t="str">
-        <f>_xlfn.CONCAT("Distance Points for ",J17)</f>
-        <v>Distance Points for Diamond</v>
-      </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="71"/>
-      <c r="W15" s="9"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="I16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="28">
-        <v>300</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="9:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>15</v>
+      <c r="N16" s="69" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="O16" s="69" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="P16" s="69" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="14.45" customHeight="1" s="74">
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>Last Month's Status</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
       </c>
       <c r="N17" s="1">
         <f t="array" ref="N17:N23">DistancePointsStefan2[Lower]</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="O17" s="1">
         <f t="array" ref="O17:O23">DistancePointsStefan2[Upper]</f>
-        <v>299</v>
+        <v/>
       </c>
       <c r="P17" s="1">
         <f t="array" ref="P17:P23">_xlfn.XLOOKUP(J17,DistancePointsStefan2[#Headers],DistancePointsStefan2[])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>Points on No-Drive Day</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="N18" s="1" t="n">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1">
-        <v>50</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="O18" s="1">
-        <v>599</v>
-      </c>
-      <c r="P18" s="1">
+    </row>
+    <row r="19">
+      <c r="N19" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="P19" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="N19" s="1">
-        <v>600</v>
-      </c>
-      <c r="O19" s="1">
-        <v>899</v>
-      </c>
-      <c r="P19" s="1">
+    <row r="20">
+      <c r="I20" s="69" t="inlineStr">
+        <is>
+          <t>Calculated Data</t>
+        </is>
+      </c>
+      <c r="J20" s="71" t="n"/>
+      <c r="N20" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="P20" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="71"/>
-      <c r="N20" s="1">
-        <v>900</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1199</v>
-      </c>
-      <c r="P20" s="1">
+    <row r="21">
+      <c r="I21" s="69" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J21" s="69" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="P21" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1200</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1499</v>
-      </c>
-      <c r="P21" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I22" s="52" t="str">
+    <row r="22">
+      <c r="I22" s="52">
         <f>_xlfn.CONCAT("Days ",TEXT(J14, "mmm yyyy"))</f>
-        <v>Days Oct 2025</v>
+        <v/>
       </c>
       <c r="J22" s="55">
         <f>DAY(EOMONTH(J14, 0))</f>
-        <v>31</v>
-      </c>
-      <c r="N22" s="1">
+        <v/>
+      </c>
+      <c r="N22" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="1" t="n">
         <v>1799</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I23" s="52" t="s">
-        <v>34</v>
+    <row r="23">
+      <c r="I23" s="52" t="inlineStr">
+        <is>
+          <t>Days Past</t>
+        </is>
       </c>
       <c r="J23" s="55">
         <f>DAY(J14)</f>
-        <v>31</v>
-      </c>
-      <c r="N23" s="1">
+        <v/>
+      </c>
+      <c r="N23" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I24" s="51" t="s">
-        <v>35</v>
+    <row r="24">
+      <c r="I24" s="51" t="inlineStr">
+        <is>
+          <t>Days Left</t>
+        </is>
       </c>
       <c r="J24" s="54">
         <f>J22-J23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I25" s="53" t="s">
-        <v>36</v>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" s="53" t="inlineStr">
+        <is>
+          <t>Rem Dist Points</t>
+        </is>
       </c>
       <c r="J25" s="56">
         <f>C11-VLOOKUP(C11,M27:O31,1,TRUE)</f>
-        <v>118</v>
-      </c>
-      <c r="M25" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="71"/>
-    </row>
-    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I26" s="55" t="s">
-        <v>38</v>
+        <v/>
+      </c>
+      <c r="M25" s="69" t="inlineStr">
+        <is>
+          <t>Driving Status</t>
+        </is>
+      </c>
+      <c r="N25" s="70" t="n"/>
+      <c r="O25" s="70" t="n"/>
+      <c r="P25" s="70" t="n"/>
+      <c r="Q25" s="71" t="n"/>
+    </row>
+    <row r="26">
+      <c r="I26" s="55" t="inlineStr">
+        <is>
+          <t>Rem - Dist</t>
+        </is>
       </c>
       <c r="J26" s="57">
         <f>MAX(0,C9-J25)</f>
-        <v>182</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I27" s="54" t="s">
-        <v>42</v>
+        <v/>
+      </c>
+      <c r="M26" s="69" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="N26" s="69" t="inlineStr">
+        <is>
+          <t>Upper</t>
+        </is>
+      </c>
+      <c r="O26" s="69" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="P26" s="69" t="inlineStr">
+        <is>
+          <t>Fuel %</t>
+        </is>
+      </c>
+      <c r="Q26" s="69" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" s="54" t="inlineStr">
+        <is>
+          <t>Distance Upper Limit</t>
+        </is>
       </c>
       <c r="J27" s="54">
         <f t="array" ref="J27">MAX(_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(O17),_xlfn.ANCHORARRAY( P17)&gt;=J26))</f>
-        <v>1799</v>
-      </c>
-      <c r="M27" s="34">
+        <v/>
+      </c>
+      <c r="M27" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="23" t="n">
         <v>799</v>
       </c>
-      <c r="O27" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="35">
+      <c r="O27" s="23" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="P27" s="35" t="n">
         <v>0.05</v>
       </c>
-      <c r="Q27" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I28" s="62" t="s">
-        <v>32</v>
+      <c r="Q27" s="36" t="inlineStr">
+        <is>
+          <t>#8EA9DB</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="I28" s="62" t="inlineStr">
+        <is>
+          <t>Points on No-Drive Day</t>
+        </is>
       </c>
       <c r="J28" s="62">
         <f>IF(ISBLANK(J18),ROUND(50-J6/J23,0),J18)</f>
-        <v>50</v>
-      </c>
-      <c r="M28" s="37">
+        <v/>
+      </c>
+      <c r="M28" s="37" t="n">
         <v>800</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="24" t="n">
         <v>1599</v>
       </c>
-      <c r="O28" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="38">
+      <c r="O28" s="24" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="P28" s="38" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I29" s="61" t="s">
-        <v>45</v>
+      <c r="Q28" s="39" t="inlineStr">
+        <is>
+          <t>#F4B084</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="I29" s="61" t="inlineStr">
+        <is>
+          <t>Count No-Drive Days</t>
+        </is>
       </c>
       <c r="J29" s="61">
         <f>J8</f>
-        <v>2</v>
-      </c>
-      <c r="M29" s="40">
+        <v/>
+      </c>
+      <c r="M29" s="40" t="n">
         <v>1600</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="25" t="n">
         <v>2199</v>
       </c>
-      <c r="O29" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" s="41">
+      <c r="O29" s="25" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="P29" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q29" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I30" s="60" t="s">
-        <v>47</v>
+      <c r="Q29" s="42" t="inlineStr">
+        <is>
+          <t>#DBDBDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="I30" s="60" t="inlineStr">
+        <is>
+          <t>No-Drive Day Points</t>
+        </is>
       </c>
       <c r="J30" s="60">
         <f>J29*J28</f>
-        <v>100</v>
-      </c>
-      <c r="M30" s="43">
+        <v/>
+      </c>
+      <c r="M30" s="43" t="n">
         <v>2200</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="44" t="n">
         <v>2499</v>
       </c>
-      <c r="O30" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="P30" s="45">
+      <c r="O30" s="44" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="P30" s="45" t="n">
         <v>0.35</v>
       </c>
-      <c r="Q30" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I31" s="53" t="s">
-        <v>49</v>
+      <c r="Q30" s="46" t="inlineStr">
+        <is>
+          <t>#FFD966</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="I31" s="53" t="inlineStr">
+        <is>
+          <t>Count Drive Days</t>
+        </is>
       </c>
       <c r="J31" s="53">
         <f>J23-J29</f>
-        <v>29</v>
-      </c>
-      <c r="M31" s="47">
+        <v/>
+      </c>
+      <c r="M31" s="47" t="n">
         <v>2500</v>
       </c>
-      <c r="N31" s="48">
+      <c r="N31" s="48" t="n">
         <v>3000</v>
       </c>
-      <c r="O31" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="P31" s="49">
+      <c r="O31" s="48" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="P31" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I32" s="54" t="s">
-        <v>51</v>
+      <c r="Q31" s="50" t="inlineStr">
+        <is>
+          <t>#D9B3FF</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="I32" s="54" t="inlineStr">
+        <is>
+          <t>Drive Day Points</t>
+        </is>
       </c>
       <c r="J32" s="59">
         <f>50*J31-J6</f>
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="1" t="s">
-        <v>6</v>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>Driving Profile</t>
+        </is>
       </c>
       <c r="J33" s="6">
         <f>J30+J32</f>
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="1" t="s">
-        <v>52</v>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>Current Drive Points</t>
+        </is>
       </c>
       <c r="J34" s="6">
         <f>J33+SUM(C7:C10)</f>
-        <v>2660</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AC5:AD5"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="L5:R5"/>
@@ -5796,53 +6080,54 @@
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="AC5:AD5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" priority="1" dxfId="4">
       <formula>$C$12="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" priority="2" dxfId="3">
       <formula>$C$12="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" priority="3" dxfId="2">
       <formula>$C$12="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" priority="4" dxfId="1">
       <formula>$C$12="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" priority="5" dxfId="0">
       <formula>$C$12="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P23">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" priority="6" dxfId="4">
       <formula>$J$17="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" priority="7" dxfId="3">
       <formula>$J$17="Bronze"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" priority="8" dxfId="2">
       <formula>$J$17="Silver"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" priority="9" dxfId="1">
       <formula>$J$17="Gold"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" priority="10" dxfId="0">
       <formula>$J$17="Diamond"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket." sqref="C13" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" sqref="J18" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation sqref="C13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="The predicted status gives a realistic prediction of the driving status. If the prediction is disable, best case scenario is assumed, which is 50 point drive days and the distance remains in the same bracket."/>
+    <dataValidation sqref="J18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="Enter a value here to overwrite the No-Drive Day calculation" type="whole">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="32" orientation="portrait"/>
+  <pageSetup orientation="portrait" scale="32"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>